--- a/instance/zyjk/ERP/statisticalReturns/i_erp_reportField_case.xlsx
+++ b/instance/zyjk/ERP/statisticalReturns/i_erp_reportField_case.xlsx
@@ -5261,7 +5261,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:Z35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5280,6 +5280,3209 @@
           <t>代表（id）</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>计划拜访人次</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>实际拜访人次</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>实际拜访率</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>双A客户实际拜访人次</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>双A客户实际拜访率</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>双A客户实际拜访覆盖率</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>双A客户拜访频率</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>高潜客户实际拜访人次</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>高潜客户实际拜访率</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>高潜客户实际拜访覆盖率</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>高潜客户拜访频率</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>新增客户数（位）</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>实际拜访客户覆盖率</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>计划会议之后跟进人数</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>实际会后跟进人数</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>会后跟进率</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>达成会后跟进目标人数</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>拜访定位匹配人次</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>客户总数</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>实际拜访人数</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>客户双A总数</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>客户高潜总数</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>双A客户实际拜访人数（拜访完成大于等于6次的人数）</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>高潜客户实际拜访人数（拜访完成大于等于4次的人数）</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="24" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>黄新晖(84)</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="24" t="inlineStr">
+        <is>
+          <t>185(sql)/0</t>
+        </is>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="24" t="inlineStr">
+        <is>
+          <t>25(sql)/0</t>
+        </is>
+      </c>
+      <c r="X2" s="24" t="inlineStr">
+        <is>
+          <t>53(sql)/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>孙洪霄(90)</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>17%</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="U3" t="n">
+        <v>107</v>
+      </c>
+      <c r="V3" t="n">
+        <v>5</v>
+      </c>
+      <c r="W3" t="n">
+        <v>6</v>
+      </c>
+      <c r="X3" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>黄代玉(92)</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>43%</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>22%</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>9</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>64%</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>23%</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>11</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="U4" t="n">
+        <v>166</v>
+      </c>
+      <c r="V4" t="n">
+        <v>6</v>
+      </c>
+      <c r="W4" t="n">
+        <v>27</v>
+      </c>
+      <c r="X4" t="n">
+        <v>39</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>盛瑛(96)</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>66</v>
+      </c>
+      <c r="D5" t="n">
+        <v>66</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>14</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>21%</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>233%</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>18</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>27%</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>12%(计算)/13%</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>225%</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>74%</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v>32</v>
+      </c>
+      <c r="U5" t="n">
+        <v>43</v>
+      </c>
+      <c r="V5" t="n">
+        <v>32</v>
+      </c>
+      <c r="W5" t="n">
+        <v>6</v>
+      </c>
+      <c r="X5" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>周夙(101)</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>沈丹峰(103)</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>万小利(107)</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="24" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>彭琦(111)</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="24" t="inlineStr">
+        <is>
+          <t>112(sql)/0</t>
+        </is>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="24" t="inlineStr">
+        <is>
+          <t>15(sql)/0</t>
+        </is>
+      </c>
+      <c r="X9" s="24" t="inlineStr">
+        <is>
+          <t>36(sql)/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="24" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>徐丽莉(112)</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="24" t="inlineStr">
+        <is>
+          <t>138(sql)/0</t>
+        </is>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="24" t="inlineStr">
+        <is>
+          <t>24(sql)/0</t>
+        </is>
+      </c>
+      <c r="X10" s="24" t="inlineStr">
+        <is>
+          <t>37(sql)/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="24" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>孙春艳(113)</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" s="24" t="inlineStr">
+        <is>
+          <t>107(sql)/0</t>
+        </is>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" s="24" t="inlineStr">
+        <is>
+          <t>11(sql)/0</t>
+        </is>
+      </c>
+      <c r="X11" s="24" t="inlineStr">
+        <is>
+          <t>28(sql)/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>汪承文(115)</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>孙娟(117)</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>张红芳(119)</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>宋绍菊(121)</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>李秀广(122)</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>易荣(123)</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>王杰(126)</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>夏友明(127)</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>吴永辉(130)</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>王浩文(247)</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>马俊(250)</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>冯玲(251)</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>王艳玲(252)</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>王亚东(253)</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>22</v>
+      </c>
+      <c r="D25" t="n">
+        <v>10</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>45%</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>6</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>86%</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>9</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>32%</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>3</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="S25" t="n">
+        <v>2</v>
+      </c>
+      <c r="U25" t="n">
+        <v>121</v>
+      </c>
+      <c r="V25" t="n">
+        <v>5</v>
+      </c>
+      <c r="W25" t="n">
+        <v>7</v>
+      </c>
+      <c r="X25" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>盛慧芳(254)</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>魏来(255)</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="24" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>黄淼(257)</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" s="24" t="inlineStr">
+        <is>
+          <t>103(sql)/0</t>
+        </is>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" s="24" t="inlineStr">
+        <is>
+          <t>8(sql)/0</t>
+        </is>
+      </c>
+      <c r="X28" s="24" t="inlineStr">
+        <is>
+          <t>29(sql)/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>黄成名(262)</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="24" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>孙华江(305)</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" s="24" t="inlineStr">
+        <is>
+          <t>177(sql)/0</t>
+        </is>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" s="24" t="inlineStr">
+        <is>
+          <t>9(sql)/0</t>
+        </is>
+      </c>
+      <c r="X30" s="24" t="inlineStr">
+        <is>
+          <t>51(sql)/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>王丽(313)</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>余丽红(314)</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="24" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>刘淑华(373)</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" s="24" t="inlineStr">
+        <is>
+          <t>156(sql)/0</t>
+        </is>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" s="24" t="inlineStr">
+        <is>
+          <t>12(sql)/0</t>
+        </is>
+      </c>
+      <c r="X33" s="24" t="inlineStr">
+        <is>
+          <t>40(sql)/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="24" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>郑国英(384)</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" s="24" t="inlineStr">
+        <is>
+          <t>119(sql)/0</t>
+        </is>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" s="24" t="inlineStr">
+        <is>
+          <t>20(sql)/0</t>
+        </is>
+      </c>
+      <c r="X34" s="24" t="inlineStr">
+        <is>
+          <t>31(sql)/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>总计</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>108</v>
+      </c>
+      <c r="D35" t="n">
+        <v>96</v>
+      </c>
+      <c r="E35" t="n">
+        <v>89</v>
+      </c>
+      <c r="F35" t="n">
+        <v>26</v>
+      </c>
+      <c r="G35" t="n">
+        <v>27</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+      <c r="I35" t="n">
+        <v>57</v>
+      </c>
+      <c r="J35" t="n">
+        <v>37</v>
+      </c>
+      <c r="K35" t="n">
+        <v>39</v>
+      </c>
+      <c r="L35" t="n">
+        <v>3</v>
+      </c>
+      <c r="M35" t="n">
+        <v>36</v>
+      </c>
+      <c r="N35" t="n">
+        <v>14</v>
+      </c>
+      <c r="O35" t="n">
+        <v>11</v>
+      </c>
+      <c r="P35" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>63</v>
+      </c>
+      <c r="S35" t="n">
+        <v>40</v>
+      </c>
+      <c r="U35" t="n">
+        <v>437</v>
+      </c>
+      <c r="V35" t="n">
+        <v>48</v>
+      </c>
+      <c r="W35" t="n">
+        <v>46</v>
+      </c>
+      <c r="X35" t="n">
+        <v>104</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/instance/zyjk/ERP/statisticalReturns/i_erp_reportField_case.xlsx
+++ b/instance/zyjk/ERP/statisticalReturns/i_erp_reportField_case.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22368" windowHeight="9420" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22368" windowHeight="9420" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="default" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="case" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="拜访分析报表" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="协防分析" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="协访分析" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="temp" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
@@ -20,7 +20,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <name val="Arial"/>
       <charset val="134"/>
@@ -100,8 +100,19 @@
       <color theme="1"/>
       <sz val="12"/>
     </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <sz val="10"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -118,6 +129,11 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.8998992889187292"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -158,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -190,9 +206,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -229,7 +242,17 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -571,3777 +594,3777 @@
   <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2" outlineLevelCol="0"/>
   <cols>
-    <col width="20" customWidth="1" style="12" min="1" max="6"/>
-    <col width="40" customWidth="1" style="12" min="7" max="7"/>
-    <col width="80" customWidth="1" style="12" min="8" max="8"/>
+    <col width="20" customWidth="1" style="11" min="1" max="6"/>
+    <col width="40" customWidth="1" style="11" min="7" max="7"/>
+    <col width="80" customWidth="1" style="11" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" s="12">
-      <c r="A1" s="16" t="inlineStr">
+    <row r="1" ht="30" customHeight="1" s="11">
+      <c r="A1" s="15" t="inlineStr">
         <is>
           <t>tags</t>
         </is>
       </c>
-      <c r="B1" s="16" t="inlineStr">
+      <c r="B1" s="15" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="C1" s="16" t="inlineStr">
+      <c r="C1" s="15" t="inlineStr">
         <is>
           <t>paths</t>
         </is>
       </c>
-      <c r="D1" s="16" t="inlineStr">
+      <c r="D1" s="15" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="E1" s="16" t="inlineStr">
+      <c r="E1" s="15" t="inlineStr">
         <is>
           <t>consumes</t>
         </is>
       </c>
-      <c r="F1" s="16" t="inlineStr">
+      <c r="F1" s="15" t="inlineStr">
         <is>
           <t>query</t>
         </is>
       </c>
-      <c r="G1" s="16" t="inlineStr">
+      <c r="G1" s="15" t="inlineStr">
         <is>
           <t>body</t>
         </is>
       </c>
-      <c r="H1" s="16" t="inlineStr">
+      <c r="H1" s="15" t="inlineStr">
         <is>
           <t>parameters [参数名称，参数说明，请求类型，是否必须，数据类型，schema]</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="52.8" customHeight="1" s="12">
-      <c r="A2" s="13" t="inlineStr">
+    <row r="2" ht="52.8" customHeight="1" s="11">
+      <c r="A2" s="12" t="inlineStr">
         <is>
           <t>竞品信息</t>
         </is>
       </c>
-      <c r="B2" s="13" t="inlineStr">
+      <c r="B2" s="12" t="inlineStr">
         <is>
           <t>新增竞品信息</t>
         </is>
       </c>
-      <c r="C2" s="13" t="inlineStr">
+      <c r="C2" s="12" t="inlineStr">
         <is>
           <t>/compete/add</t>
         </is>
       </c>
-      <c r="D2" s="13" t="inlineStr">
+      <c r="D2" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E2" s="13" t="inlineStr">
+      <c r="E2" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F2" s="13" t="n"/>
-      <c r="G2" s="13" t="inlineStr">
+      <c r="F2" s="12" t="n"/>
+      <c r="G2" s="12" t="inlineStr">
         <is>
           <t>{"createdAt": "", "createdBy": "", "drugName": "", "drugType": "", "genericDrugName": "", "id": 0, "manufacturer": "", "price": 0, "specification": "", "updatedAt": "", "updatedBy": "", "validStatus": 0}</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="13" t="inlineStr">
+      <c r="A3" s="12" t="inlineStr">
         <is>
           <t>竞品信息</t>
         </is>
       </c>
-      <c r="B3" s="13" t="inlineStr">
+      <c r="B3" s="12" t="inlineStr">
         <is>
           <t>删除竞品信息</t>
         </is>
       </c>
-      <c r="C3" s="13" t="inlineStr">
+      <c r="C3" s="12" t="inlineStr">
         <is>
           <t>/compete/delete</t>
         </is>
       </c>
-      <c r="D3" s="13" t="inlineStr">
+      <c r="D3" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E3" s="13" t="inlineStr">
+      <c r="E3" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F3" s="13" t="inlineStr">
+      <c r="F3" s="12" t="inlineStr">
         <is>
           <t>id={integer}</t>
         </is>
       </c>
-      <c r="H3" s="13" t="inlineStr">
+      <c r="H3" s="12" t="inlineStr">
         <is>
           <t>[{'name': 'id', 'in': 'query', 'description': 'id', 'required': False, 'type': 'integer', 'format': 'int32'}]</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="26.4" customHeight="1" s="12">
-      <c r="A4" s="13" t="inlineStr">
+    <row r="4" ht="26.4" customHeight="1" s="11">
+      <c r="A4" s="12" t="inlineStr">
         <is>
           <t>竞品信息</t>
         </is>
       </c>
-      <c r="B4" s="13" t="inlineStr">
+      <c r="B4" s="12" t="inlineStr">
         <is>
           <t>竞品信息列表</t>
         </is>
       </c>
-      <c r="C4" s="13" t="inlineStr">
+      <c r="C4" s="12" t="inlineStr">
         <is>
           <t>/compete/queryCompeteDrugList</t>
         </is>
       </c>
-      <c r="D4" s="13" t="inlineStr">
+      <c r="D4" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E4" s="13" t="inlineStr">
+      <c r="E4" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F4" s="13" t="inlineStr">
+      <c r="F4" s="12" t="inlineStr">
         <is>
           <t>drugName={string}</t>
         </is>
       </c>
-      <c r="H4" s="13" t="inlineStr">
+      <c r="H4" s="12" t="inlineStr">
         <is>
           <t>[{'name': 'drugName', 'in': 'query', 'description': '药品商品名(全称)', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="13" t="inlineStr">
+      <c r="A5" s="12" t="inlineStr">
         <is>
           <t>竞品信息</t>
         </is>
       </c>
-      <c r="B5" s="13" t="inlineStr">
+      <c r="B5" s="12" t="inlineStr">
         <is>
           <t>竞品信息分页列表</t>
         </is>
       </c>
-      <c r="C5" s="13" t="inlineStr">
+      <c r="C5" s="12" t="inlineStr">
         <is>
           <t>/compete/queryPage</t>
         </is>
       </c>
-      <c r="D5" s="13" t="inlineStr">
+      <c r="D5" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E5" s="13" t="inlineStr">
+      <c r="E5" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F5" s="13" t="n"/>
-      <c r="G5" s="13" t="inlineStr">
+      <c r="F5" s="12" t="n"/>
+      <c r="G5" s="12" t="inlineStr">
         <is>
           <t>{"drugName": "", "pageNum": 0, "pageSize": 0}</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="52.8" customHeight="1" s="12">
-      <c r="A6" s="13" t="inlineStr">
+    <row r="6" ht="52.8" customHeight="1" s="11">
+      <c r="A6" s="12" t="inlineStr">
         <is>
           <t>竞品信息</t>
         </is>
       </c>
-      <c r="B6" s="13" t="inlineStr">
+      <c r="B6" s="12" t="inlineStr">
         <is>
           <t>修改竞品信息</t>
         </is>
       </c>
-      <c r="C6" s="13" t="inlineStr">
+      <c r="C6" s="12" t="inlineStr">
         <is>
           <t>/compete/update</t>
         </is>
       </c>
-      <c r="D6" s="13" t="inlineStr">
+      <c r="D6" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E6" s="13" t="inlineStr">
+      <c r="E6" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F6" s="13" t="n"/>
-      <c r="G6" s="13" t="inlineStr">
+      <c r="F6" s="12" t="n"/>
+      <c r="G6" s="12" t="inlineStr">
         <is>
           <t>{"createdAt": "", "createdBy": "", "drugName": "", "drugType": "", "genericDrugName": "", "id": 0, "manufacturer": "", "price": 0, "specification": "", "updatedAt": "", "updatedBy": "", "validStatus": 0}</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="211.2" customHeight="1" s="12">
-      <c r="A7" s="13" t="inlineStr">
+    <row r="7" ht="211.2" customHeight="1" s="11">
+      <c r="A7" s="12" t="inlineStr">
         <is>
           <t>客户管理</t>
         </is>
       </c>
-      <c r="B7" s="13" t="inlineStr">
+      <c r="B7" s="12" t="inlineStr">
         <is>
           <t>新增客户-APP_v2.2</t>
         </is>
       </c>
-      <c r="C7" s="13" t="inlineStr">
+      <c r="C7" s="12" t="inlineStr">
         <is>
           <t>/customer/addCustomerInfo</t>
         </is>
       </c>
-      <c r="D7" s="13" t="inlineStr">
+      <c r="D7" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E7" s="13" t="inlineStr">
+      <c r="E7" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F7" s="13" t="n"/>
-      <c r="G7" s="13" t="inlineStr">
+      <c r="F7" s="12" t="n"/>
+      <c r="G7" s="12" t="inlineStr">
         <is>
           <t>{"admPositionId": 0, "customerName": "", "deptId": 0, "deptName": "", "hospitalId": 0, "hospitalName": "", "id": 0, "patientCaseMark": "", "phone": "", "positionTitleId": 0, "PotentialInfoAddR": {"againPeriod": 0, "approveMark": "", "bedNum": 0, "competitionOne": "", "competitionThree": "", "competitionTwo": "", "currentCaseNum": 0, "customerId": 0, "dayOutpatientNum": 0, "followPeriodNum": 0, "inpatientEhNum": 0, "inpatientEhRate": "", "monthBedNum": 0, "monthLeaveNum": 0, "monthOutpatientNum": 0, "outpatientEhNum": 0, "outpatientEhRate": "", "outpatientNum": 0, "priceOne": 0, "priceThree": 0, "priceTwo": 0, "targetCaseNum": 0, "totalEhNum": 0}, "productIds": [], "sex": 0}</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="52.8" customHeight="1" s="12">
-      <c r="A8" s="13" t="inlineStr">
+    <row r="8" ht="52.8" customHeight="1" s="11">
+      <c r="A8" s="12" t="inlineStr">
         <is>
           <t>客户管理</t>
         </is>
       </c>
-      <c r="B8" s="13" t="inlineStr">
+      <c r="B8" s="12" t="inlineStr">
         <is>
           <t>病例录入-APP</t>
         </is>
       </c>
-      <c r="C8" s="13" t="inlineStr">
+      <c r="C8" s="12" t="inlineStr">
         <is>
           <t>/customer/addPatientCase</t>
         </is>
       </c>
-      <c r="D8" s="13" t="inlineStr">
+      <c r="D8" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E8" s="13" t="inlineStr">
+      <c r="E8" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F8" s="13" t="n"/>
-      <c r="G8" s="13" t="inlineStr">
+      <c r="F8" s="12" t="n"/>
+      <c r="G8" s="12" t="inlineStr">
         <is>
           <t>{"consultationCost": 0, "customerId": 0, "id": 0, "monthHypertensionNum": 0, "patientCaseNum": 0, "productId": 0, "productName": "", "whetherHaveProof": 0}</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="211.2" customHeight="1" s="12">
-      <c r="A9" s="13" t="inlineStr">
+    <row r="9" ht="211.2" customHeight="1" s="11">
+      <c r="A9" s="12" t="inlineStr">
         <is>
           <t>客户管理</t>
         </is>
       </c>
-      <c r="B9" s="13" t="inlineStr">
+      <c r="B9" s="12" t="inlineStr">
         <is>
           <t>编辑客户-APP_v2.2</t>
         </is>
       </c>
-      <c r="C9" s="13" t="inlineStr">
+      <c r="C9" s="12" t="inlineStr">
         <is>
           <t>/customer/editCustomerInfo</t>
         </is>
       </c>
-      <c r="D9" s="13" t="inlineStr">
+      <c r="D9" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E9" s="13" t="inlineStr">
+      <c r="E9" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F9" s="13" t="n"/>
-      <c r="G9" s="13" t="inlineStr">
+      <c r="F9" s="12" t="n"/>
+      <c r="G9" s="12" t="inlineStr">
         <is>
           <t>{"admPositionId": 0, "customerName": "", "deptId": 0, "deptName": "", "hospitalId": 0, "hospitalName": "", "id": 0, "patientCaseMark": "", "phone": "", "positionTitleId": 0, "PotentialInfoAddR": {"againPeriod": 0, "approveMark": "", "bedNum": 0, "competitionOne": "", "competitionThree": "", "competitionTwo": "", "currentCaseNum": 0, "customerId": 0, "dayOutpatientNum": 0, "followPeriodNum": 0, "inpatientEhNum": 0, "inpatientEhRate": "", "monthBedNum": 0, "monthLeaveNum": 0, "monthOutpatientNum": 0, "outpatientEhNum": 0, "outpatientEhRate": "", "outpatientNum": 0, "priceOne": 0, "priceThree": 0, "priceTwo": 0, "targetCaseNum": 0, "totalEhNum": 0}, "productIds": [], "sex": 0}</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="26.4" customHeight="1" s="12">
-      <c r="A10" s="13" t="inlineStr">
+    <row r="10" ht="26.4" customHeight="1" s="11">
+      <c r="A10" s="12" t="inlineStr">
         <is>
           <t>客户管理</t>
         </is>
       </c>
-      <c r="B10" s="13" t="inlineStr">
+      <c r="B10" s="12" t="inlineStr">
         <is>
           <t>编辑医院库存-APP_v2.2</t>
         </is>
       </c>
-      <c r="C10" s="13" t="inlineStr">
+      <c r="C10" s="12" t="inlineStr">
         <is>
           <t>/customer/editHospitalInventory</t>
         </is>
       </c>
-      <c r="D10" s="13" t="inlineStr">
+      <c r="D10" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E10" s="13" t="inlineStr">
+      <c r="E10" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F10" s="13" t="n"/>
-      <c r="G10" s="13" t="inlineStr">
+      <c r="F10" s="12" t="n"/>
+      <c r="G10" s="12" t="inlineStr">
         <is>
           <t>{"anyeInventory": 0, "hospitalId": 0, "yiyeInventory": 0}</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="66" customHeight="1" s="12">
-      <c r="A11" s="13" t="inlineStr">
+    <row r="11" ht="66" customHeight="1" s="11">
+      <c r="A11" s="12" t="inlineStr">
         <is>
           <t>客户管理</t>
         </is>
       </c>
-      <c r="B11" s="13" t="inlineStr">
+      <c r="B11" s="12" t="inlineStr">
         <is>
           <t>新客户审批-APP</t>
         </is>
       </c>
-      <c r="C11" s="13" t="inlineStr">
+      <c r="C11" s="12" t="inlineStr">
         <is>
           <t>/customer/examineCustomerInfo</t>
         </is>
       </c>
-      <c r="D11" s="13" t="inlineStr">
+      <c r="D11" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E11" s="13" t="inlineStr">
+      <c r="E11" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F11" s="13" t="n"/>
-      <c r="G11" s="13" t="inlineStr">
+      <c r="F11" s="12" t="n"/>
+      <c r="G11" s="12" t="inlineStr">
         <is>
           <t>{"approvalStatus": "", "id": 0, "regionManagerDisagreeDesc": "", "regionManagerExamineTime": "", "regionManagerId": 0, "regionManagerName": ""}</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="26.4" customHeight="1" s="12">
-      <c r="A12" s="13" t="inlineStr">
+    <row r="12" ht="26.4" customHeight="1" s="11">
+      <c r="A12" s="12" t="inlineStr">
         <is>
           <t>客户管理</t>
         </is>
       </c>
-      <c r="B12" s="13" t="inlineStr">
+      <c r="B12" s="12" t="inlineStr">
         <is>
           <t>客户名称搜索</t>
         </is>
       </c>
-      <c r="C12" s="13" t="inlineStr">
+      <c r="C12" s="12" t="inlineStr">
         <is>
           <t>/customer/findCustomer</t>
         </is>
       </c>
-      <c r="D12" s="13" t="inlineStr">
+      <c r="D12" s="12" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F12" s="13" t="inlineStr">
+      <c r="F12" s="12" t="inlineStr">
         <is>
           <t>customerName={string}</t>
         </is>
       </c>
-      <c r="H12" s="13" t="inlineStr">
+      <c r="H12" s="12" t="inlineStr">
         <is>
           <t>[{'name': 'customerName', 'in': 'query', 'description': 'customerName', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="26.4" customHeight="1" s="12">
-      <c r="A13" s="13" t="inlineStr">
+    <row r="13" ht="26.4" customHeight="1" s="11">
+      <c r="A13" s="12" t="inlineStr">
         <is>
           <t>客户管理</t>
         </is>
       </c>
-      <c r="B13" s="13" t="inlineStr">
+      <c r="B13" s="12" t="inlineStr">
         <is>
           <t>获取客户列表</t>
         </is>
       </c>
-      <c r="C13" s="13" t="inlineStr">
+      <c r="C13" s="12" t="inlineStr">
         <is>
           <t>/customer/getCustomerList</t>
         </is>
       </c>
-      <c r="D13" s="13" t="inlineStr">
+      <c r="D13" s="12" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F13" s="13" t="n"/>
-    </row>
-    <row r="14" ht="26.4" customHeight="1" s="12">
-      <c r="A14" s="13" t="inlineStr">
+      <c r="F13" s="12" t="n"/>
+    </row>
+    <row r="14" ht="26.4" customHeight="1" s="11">
+      <c r="A14" s="12" t="inlineStr">
         <is>
           <t>客户管理</t>
         </is>
       </c>
-      <c r="B14" s="13" t="inlineStr">
+      <c r="B14" s="12" t="inlineStr">
         <is>
           <t>通过医院id获取医院库存-APP_v2.2</t>
         </is>
       </c>
-      <c r="C14" s="13" t="inlineStr">
+      <c r="C14" s="12" t="inlineStr">
         <is>
           <t>/customer/getHospitalInventoryByHospitalId</t>
         </is>
       </c>
-      <c r="D14" s="13" t="inlineStr">
+      <c r="D14" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E14" s="13" t="inlineStr">
+      <c r="E14" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F14" s="13" t="inlineStr">
+      <c r="F14" s="12" t="inlineStr">
         <is>
           <t>hospitalId={*integer}</t>
         </is>
       </c>
-      <c r="H14" s="13" t="inlineStr">
+      <c r="H14" s="12" t="inlineStr">
         <is>
           <t>[{'name': 'hospitalId', 'in': 'query', 'description': '医院id', 'required': True, 'type': 'integer', 'format': 'int32', 'allowEmptyValue': False}]</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="39.6" customHeight="1" s="12">
-      <c r="A15" s="13" t="inlineStr">
+    <row r="15" ht="39.6" customHeight="1" s="11">
+      <c r="A15" s="12" t="inlineStr">
         <is>
           <t>客户管理</t>
         </is>
       </c>
-      <c r="B15" s="13" t="inlineStr">
+      <c r="B15" s="12" t="inlineStr">
         <is>
           <t>新客户待审批列表-APP</t>
         </is>
       </c>
-      <c r="C15" s="13" t="inlineStr">
+      <c r="C15" s="12" t="inlineStr">
         <is>
           <t>/customer/queryCustomerApprovalPendingList</t>
         </is>
       </c>
-      <c r="D15" s="13" t="inlineStr">
+      <c r="D15" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E15" s="13" t="inlineStr">
+      <c r="E15" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F15" s="13" t="n"/>
-      <c r="G15" s="13" t="inlineStr">
+      <c r="F15" s="12" t="n"/>
+      <c r="G15" s="12" t="inlineStr">
         <is>
           <t>{"currPage": 0, "pageSize": 0, "searchCondition": ""}</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="26.4" customHeight="1" s="12">
-      <c r="A16" s="13" t="inlineStr">
+    <row r="16" ht="26.4" customHeight="1" s="11">
+      <c r="A16" s="12" t="inlineStr">
         <is>
           <t>客户管理</t>
         </is>
       </c>
-      <c r="B16" s="13" t="inlineStr">
+      <c r="B16" s="12" t="inlineStr">
         <is>
           <t>根据客户id获取详情信息</t>
         </is>
       </c>
-      <c r="C16" s="13" t="inlineStr">
+      <c r="C16" s="12" t="inlineStr">
         <is>
           <t>/customer/queryCustomerInfoById</t>
         </is>
       </c>
-      <c r="D16" s="13" t="inlineStr">
+      <c r="D16" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E16" s="13" t="inlineStr">
+      <c r="E16" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F16" s="13" t="inlineStr">
+      <c r="F16" s="12" t="inlineStr">
         <is>
           <t>customerId={integer}</t>
         </is>
       </c>
-      <c r="H16" s="13" t="inlineStr">
+      <c r="H16" s="12" t="inlineStr">
         <is>
           <t>[{'name': 'customerId', 'in': 'query', 'description': 'customerId', 'required': False, 'type': 'integer', 'format': 'int64'}]</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="79.2" customHeight="1" s="12">
-      <c r="A17" s="13" t="inlineStr">
+    <row r="17" ht="79.2" customHeight="1" s="11">
+      <c r="A17" s="12" t="inlineStr">
         <is>
           <t>客户管理</t>
         </is>
       </c>
-      <c r="B17" s="13" t="inlineStr">
+      <c r="B17" s="12" t="inlineStr">
         <is>
           <t>客户列表-APP_v2.2</t>
         </is>
       </c>
-      <c r="C17" s="13" t="inlineStr">
+      <c r="C17" s="12" t="inlineStr">
         <is>
           <t>/customer/queryCustomerInfoList</t>
         </is>
       </c>
-      <c r="D17" s="13" t="inlineStr">
+      <c r="D17" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E17" s="13" t="inlineStr">
+      <c r="E17" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F17" s="13" t="n"/>
-      <c r="G17" s="13" t="inlineStr">
+      <c r="F17" s="12" t="n"/>
+      <c r="G17" s="12" t="inlineStr">
         <is>
           <t>{"approveMark": "", "currPage": 0, "doubleAMark": "", "meetingAfterMark": "", "meetingBeforeMark": "", "meetingDevelopMark": "", "pageSize": 0, "patientCaseMark": "", "potentialityMark": "", "searchCondition": ""}</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="39.6" customHeight="1" s="12">
-      <c r="A18" s="13" t="inlineStr">
+    <row r="18" ht="39.6" customHeight="1" s="11">
+      <c r="A18" s="12" t="inlineStr">
         <is>
           <t>客户管理</t>
         </is>
       </c>
-      <c r="B18" s="13" t="inlineStr">
+      <c r="B18" s="12" t="inlineStr">
         <is>
           <t>客户下拉列表</t>
         </is>
       </c>
-      <c r="C18" s="13" t="inlineStr">
+      <c r="C18" s="12" t="inlineStr">
         <is>
           <t>/customer/queryCustomerListByNameAndHospital</t>
         </is>
       </c>
-      <c r="D18" s="13" t="inlineStr">
+      <c r="D18" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E18" s="13" t="inlineStr">
+      <c r="E18" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="13" t="inlineStr">
+      <c r="F18" s="12" t="n"/>
+      <c r="G18" s="12" t="inlineStr">
         <is>
           <t>{"customerName": "", "hospitalName": ""}</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="39.6" customHeight="1" s="12">
-      <c r="A19" s="13" t="inlineStr">
+    <row r="19" ht="39.6" customHeight="1" s="11">
+      <c r="A19" s="12" t="inlineStr">
         <is>
           <t>客户管理</t>
         </is>
       </c>
-      <c r="B19" s="13" t="inlineStr">
+      <c r="B19" s="12" t="inlineStr">
         <is>
           <t>根据客户id获取最新高血压数量</t>
         </is>
       </c>
-      <c r="C19" s="13" t="inlineStr">
+      <c r="C19" s="12" t="inlineStr">
         <is>
           <t>/customer/queryMonthHypertensionNumByCustomerId</t>
         </is>
       </c>
-      <c r="D19" s="13" t="inlineStr">
+      <c r="D19" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E19" s="13" t="inlineStr">
+      <c r="E19" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F19" s="13" t="inlineStr">
+      <c r="F19" s="12" t="inlineStr">
         <is>
           <t>customerId={integer}</t>
         </is>
       </c>
-      <c r="H19" s="13" t="inlineStr">
+      <c r="H19" s="12" t="inlineStr">
         <is>
           <t>[{'name': 'customerId', 'in': 'query', 'description': 'customerId', 'required': False, 'type': 'integer', 'format': 'int64'}]</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="39.6" customHeight="1" s="12">
-      <c r="A20" s="13" t="inlineStr">
+    <row r="20" ht="39.6" customHeight="1" s="11">
+      <c r="A20" s="12" t="inlineStr">
         <is>
           <t>客户管理</t>
         </is>
       </c>
-      <c r="B20" s="13" t="inlineStr">
+      <c r="B20" s="12" t="inlineStr">
         <is>
           <t>病例列表-PC</t>
         </is>
       </c>
-      <c r="C20" s="13" t="inlineStr">
+      <c r="C20" s="12" t="inlineStr">
         <is>
           <t>/customer/queryPatientCaseList</t>
         </is>
       </c>
-      <c r="D20" s="13" t="inlineStr">
+      <c r="D20" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E20" s="13" t="inlineStr">
+      <c r="E20" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="13" t="inlineStr">
+      <c r="F20" s="12" t="n"/>
+      <c r="G20" s="12" t="inlineStr">
         <is>
           <t>{"beginTime": "", "currPage": 0, "customerId": 0, "delegateId": 0, "endTime": "", "hospitalId": 0, "pageSize": 0, "productId": 0}</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="39.6" customHeight="1" s="12">
-      <c r="A21" s="13" t="inlineStr">
+    <row r="21" ht="39.6" customHeight="1" s="11">
+      <c r="A21" s="12" t="inlineStr">
         <is>
           <t>客户管理</t>
         </is>
       </c>
-      <c r="B21" s="13" t="inlineStr">
+      <c r="B21" s="12" t="inlineStr">
         <is>
           <t>病例管理-PC</t>
         </is>
       </c>
-      <c r="C21" s="13" t="inlineStr">
+      <c r="C21" s="12" t="inlineStr">
         <is>
           <t>/customer/queryPatientCaseManage</t>
         </is>
       </c>
-      <c r="D21" s="13" t="inlineStr">
+      <c r="D21" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E21" s="13" t="inlineStr">
+      <c r="E21" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="13" t="inlineStr">
+      <c r="F21" s="12" t="n"/>
+      <c r="G21" s="12" t="inlineStr">
         <is>
           <t>{"beginTime": "", "currPage": 0, "customerId": 0, "delegateId": 0, "endTime": "", "hospitalId": 0, "pageSize": 0, "productId": 0}</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="26.4" customHeight="1" s="12">
-      <c r="A22" s="13" t="inlineStr">
+    <row r="22" ht="26.4" customHeight="1" s="11">
+      <c r="A22" s="12" t="inlineStr">
         <is>
           <t>客户管理</t>
         </is>
       </c>
-      <c r="B22" s="13" t="inlineStr">
+      <c r="B22" s="12" t="inlineStr">
         <is>
           <t>根据客户id获取产品下拉</t>
         </is>
       </c>
-      <c r="C22" s="13" t="inlineStr">
+      <c r="C22" s="12" t="inlineStr">
         <is>
           <t>/customer/queryProductListByCustomerId</t>
         </is>
       </c>
-      <c r="D22" s="13" t="inlineStr">
+      <c r="D22" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E22" s="13" t="inlineStr">
+      <c r="E22" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F22" s="13" t="inlineStr">
+      <c r="F22" s="12" t="inlineStr">
         <is>
           <t>customerId={integer}</t>
         </is>
       </c>
-      <c r="H22" s="13" t="inlineStr">
+      <c r="H22" s="12" t="inlineStr">
         <is>
           <t>[{'name': 'customerId', 'in': 'query', 'description': 'customerId', 'required': False, 'type': 'integer', 'format': 'int64'}]</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="26.4" customHeight="1" s="12">
-      <c r="A23" s="13" t="inlineStr">
+    <row r="23" ht="26.4" customHeight="1" s="11">
+      <c r="A23" s="12" t="inlineStr">
         <is>
           <t>客户管理</t>
         </is>
       </c>
-      <c r="B23" s="13" t="inlineStr">
+      <c r="B23" s="12" t="inlineStr">
         <is>
           <t>修改客情关系评分</t>
         </is>
       </c>
-      <c r="C23" s="13" t="inlineStr">
+      <c r="C23" s="12" t="inlineStr">
         <is>
           <t>/customer/updateCustomerRelations</t>
         </is>
       </c>
-      <c r="D23" s="13" t="inlineStr">
+      <c r="D23" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E23" s="13" t="inlineStr">
+      <c r="E23" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F23" s="13" t="inlineStr">
+      <c r="F23" s="12" t="inlineStr">
         <is>
           <t>customerId={*string}&amp;score={*string}</t>
         </is>
       </c>
-      <c r="H23" s="13" t="inlineStr">
+      <c r="H23" s="12" t="inlineStr">
         <is>
           <t>[{'name': 'customerId', 'in': 'query', 'description': '客户id', 'required': True, 'type': 'string'}, {'name': 'score', 'in': 'query', 'description': '客情关系评分', 'required': True, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="13" t="inlineStr">
+      <c r="A24" s="12" t="inlineStr">
         <is>
           <t>客户管理</t>
         </is>
       </c>
-      <c r="B24" s="13" t="inlineStr">
+      <c r="B24" s="12" t="inlineStr">
         <is>
           <t>客户Excel导入</t>
         </is>
       </c>
-      <c r="C24" s="13" t="inlineStr">
+      <c r="C24" s="12" t="inlineStr">
         <is>
           <t>/customer/uploadExcel</t>
         </is>
       </c>
-      <c r="D24" s="13" t="inlineStr">
+      <c r="D24" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E24" s="13" t="inlineStr">
+      <c r="E24" s="12" t="inlineStr">
         <is>
           <t>multipart/form-data</t>
         </is>
       </c>
-      <c r="F24" s="13" t="n"/>
-      <c r="H24" s="13" t="inlineStr">
+      <c r="F24" s="12" t="n"/>
+      <c r="H24" s="12" t="inlineStr">
         <is>
           <t>[{'name': 'file', 'in': 'formData', 'description': 'file', 'required': True, 'type': 'file'}]</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="66" customHeight="1" s="12">
-      <c r="A25" s="13" t="inlineStr">
+    <row r="25" ht="66" customHeight="1" s="11">
+      <c r="A25" s="12" t="inlineStr">
         <is>
           <t>医院管理</t>
         </is>
       </c>
-      <c r="B25" s="13" t="inlineStr">
+      <c r="B25" s="12" t="inlineStr">
         <is>
           <t>新增医院信息</t>
         </is>
       </c>
-      <c r="C25" s="13" t="inlineStr">
+      <c r="C25" s="12" t="inlineStr">
         <is>
           <t>/hospital/createHospital</t>
         </is>
       </c>
-      <c r="D25" s="13" t="inlineStr">
+      <c r="D25" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E25" s="13" t="inlineStr">
+      <c r="E25" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="13" t="inlineStr">
+      <c r="F25" s="12" t="n"/>
+      <c r="G25" s="12" t="inlineStr">
         <is>
           <t>{"abbreviation": "", "area": "", "chineseMedicine": "", "createdAt": "", "createdBy": "", "id": 0, "leiyunOn": "", "level": "", "name": "", "shanghaiMedicine": "", "state": 0, "updatedAt": "", "updatedBy": ""}</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="26.4" customHeight="1" s="12">
-      <c r="A26" s="13" t="inlineStr">
+    <row r="26" ht="26.4" customHeight="1" s="11">
+      <c r="A26" s="12" t="inlineStr">
         <is>
           <t>医院管理</t>
         </is>
       </c>
-      <c r="B26" s="13" t="inlineStr">
+      <c r="B26" s="12" t="inlineStr">
         <is>
           <t>根据医院id删除本条数据</t>
         </is>
       </c>
-      <c r="C26" s="13" t="inlineStr">
+      <c r="C26" s="12" t="inlineStr">
         <is>
           <t>/hospital/deleteById</t>
         </is>
       </c>
-      <c r="D26" s="13" t="inlineStr">
+      <c r="D26" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E26" s="13" t="inlineStr">
+      <c r="E26" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F26" s="13" t="inlineStr">
+      <c r="F26" s="12" t="inlineStr">
         <is>
           <t>id={integer}</t>
         </is>
       </c>
-      <c r="H26" s="13" t="inlineStr">
+      <c r="H26" s="12" t="inlineStr">
         <is>
           <t>[{'name': 'id', 'in': 'query', 'description': 'id', 'required': False, 'type': 'integer', 'format': 'int32'}]</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="26.4" customHeight="1" s="12">
-      <c r="A27" s="13" t="inlineStr">
+    <row r="27" ht="26.4" customHeight="1" s="11">
+      <c r="A27" s="12" t="inlineStr">
         <is>
           <t>医院管理</t>
         </is>
       </c>
-      <c r="B27" s="13" t="inlineStr">
+      <c r="B27" s="12" t="inlineStr">
         <is>
           <t>根据客户获取医院列表信息</t>
         </is>
       </c>
-      <c r="C27" s="13" t="inlineStr">
+      <c r="C27" s="12" t="inlineStr">
         <is>
           <t>/hospital/queryHospitalByCustomer</t>
         </is>
       </c>
-      <c r="D27" s="13" t="inlineStr">
+      <c r="D27" s="12" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F27" s="13" t="n"/>
-    </row>
-    <row r="28" ht="26.4" customHeight="1" s="12">
-      <c r="A28" s="13" t="inlineStr">
+      <c r="F27" s="12" t="n"/>
+    </row>
+    <row r="28" ht="26.4" customHeight="1" s="11">
+      <c r="A28" s="12" t="inlineStr">
         <is>
           <t>医院管理</t>
         </is>
       </c>
-      <c r="B28" s="13" t="inlineStr">
+      <c r="B28" s="12" t="inlineStr">
         <is>
           <t>查询医院列表</t>
         </is>
       </c>
-      <c r="C28" s="13" t="inlineStr">
+      <c r="C28" s="12" t="inlineStr">
         <is>
           <t>/hospital/queryHospitalList</t>
         </is>
       </c>
-      <c r="D28" s="13" t="inlineStr">
+      <c r="D28" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E28" s="13" t="inlineStr">
+      <c r="E28" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="13" t="inlineStr">
+      <c r="F28" s="12" t="n"/>
+      <c r="G28" s="12" t="inlineStr">
         <is>
           <t>{"hospitalName": "", "pageNum": 0, "pageSize": 0}</t>
         </is>
       </c>
     </row>
-    <row r="29" ht="26.4" customHeight="1" s="12">
-      <c r="A29" s="13" t="inlineStr">
+    <row r="29" ht="26.4" customHeight="1" s="11">
+      <c r="A29" s="12" t="inlineStr">
         <is>
           <t>医院管理</t>
         </is>
       </c>
-      <c r="B29" s="13" t="inlineStr">
+      <c r="B29" s="12" t="inlineStr">
         <is>
           <t>根据会议名称获取医院列表信息</t>
         </is>
       </c>
-      <c r="C29" s="13" t="inlineStr">
+      <c r="C29" s="12" t="inlineStr">
         <is>
           <t>/hospital/queryHospitalListByName</t>
         </is>
       </c>
-      <c r="D29" s="13" t="inlineStr">
+      <c r="D29" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E29" s="13" t="inlineStr">
+      <c r="E29" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F29" s="13" t="inlineStr">
+      <c r="F29" s="12" t="inlineStr">
         <is>
           <t>hospitalName={string}</t>
         </is>
       </c>
-      <c r="H29" s="13" t="inlineStr">
+      <c r="H29" s="12" t="inlineStr">
         <is>
           <t>[{'name': 'hospitalName', 'in': 'query', 'description': 'hospitalName', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
-    <row r="30" ht="66" customHeight="1" s="12">
-      <c r="A30" s="13" t="inlineStr">
+    <row r="30" ht="66" customHeight="1" s="11">
+      <c r="A30" s="12" t="inlineStr">
         <is>
           <t>医院管理</t>
         </is>
       </c>
-      <c r="B30" s="13" t="inlineStr">
+      <c r="B30" s="12" t="inlineStr">
         <is>
           <t>根据医院id修改本条数据</t>
         </is>
       </c>
-      <c r="C30" s="13" t="inlineStr">
+      <c r="C30" s="12" t="inlineStr">
         <is>
           <t>/hospital/updateHospitalById</t>
         </is>
       </c>
-      <c r="D30" s="13" t="inlineStr">
+      <c r="D30" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E30" s="13" t="inlineStr">
+      <c r="E30" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F30" s="13" t="n"/>
-      <c r="G30" s="13" t="inlineStr">
+      <c r="F30" s="12" t="n"/>
+      <c r="G30" s="12" t="inlineStr">
         <is>
           <t>{"abbreviation": "", "area": "", "chineseMedicine": "", "createdAt": "", "createdBy": "", "id": 0, "leiyunOn": "", "level": "", "name": "", "shanghaiMedicine": "", "state": 0, "updatedAt": "", "updatedBy": ""}</t>
         </is>
       </c>
     </row>
-    <row r="31" ht="198" customHeight="1" s="12">
-      <c r="A31" s="13" t="inlineStr">
+    <row r="31" ht="198" customHeight="1" s="11">
+      <c r="A31" s="12" t="inlineStr">
         <is>
           <t>会议管理</t>
         </is>
       </c>
-      <c r="B31" s="13" t="inlineStr">
+      <c r="B31" s="12" t="inlineStr">
         <is>
           <t>会议反馈-APP</t>
         </is>
       </c>
-      <c r="C31" s="13" t="inlineStr">
+      <c r="C31" s="12" t="inlineStr">
         <is>
           <t>/meeting/appMeetingFeedback</t>
         </is>
       </c>
-      <c r="D31" s="13" t="inlineStr">
+      <c r="D31" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E31" s="13" t="inlineStr">
+      <c r="E31" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="13" t="inlineStr">
+      <c r="F31" s="12" t="n"/>
+      <c r="G31" s="12" t="inlineStr">
         <is>
           <t>{"actualJoinMeetingPeopleIds": "", "actualJoinMeetingPeopleNames": "", "actualLaborCost": 0, "actualMealsCost": 0, "actualMeetingTime": "", "joinMeetingPeopleFeedbackRecordList": [{"actualLaborCost": 0, "customerId": 0, "customerName": "", "followFlag": 0, "meetingId": 0, "productConceptDTOList": [{"agreeNum": 0, "customerId": 0, "id": 0, "latelyConcept": 0, "opposeNum": 0, "productConceptId": 0, "productConceptName": "", "productId": 0}], "productId": 0, "roleId": 0}], "meetingExecutorBillIds": "", "meetingExecutorBillNames": "", "meetingId": 0, "meetingSimpleName": ""}</t>
         </is>
       </c>
     </row>
-    <row r="32" ht="198" customHeight="1" s="12">
-      <c r="A32" s="13" t="inlineStr">
+    <row r="32" ht="198" customHeight="1" s="11">
+      <c r="A32" s="12" t="inlineStr">
         <is>
           <t>会议管理</t>
         </is>
       </c>
-      <c r="B32" s="13" t="inlineStr">
+      <c r="B32" s="12" t="inlineStr">
         <is>
           <t>会议反馈修改-APP</t>
         </is>
       </c>
-      <c r="C32" s="13" t="inlineStr">
+      <c r="C32" s="12" t="inlineStr">
         <is>
           <t>/meeting/appMeetingFeedbackEdit</t>
         </is>
       </c>
-      <c r="D32" s="13" t="inlineStr">
+      <c r="D32" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E32" s="13" t="inlineStr">
+      <c r="E32" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="13" t="inlineStr">
+      <c r="F32" s="12" t="n"/>
+      <c r="G32" s="12" t="inlineStr">
         <is>
           <t>{"actualJoinMeetingPeopleIds": "", "actualJoinMeetingPeopleNames": "", "actualLaborCost": 0, "actualMealsCost": 0, "actualMeetingTime": "", "joinMeetingPeopleFeedbackRecordList": [{"actualLaborCost": 0, "customerId": 0, "customerName": "", "followFlag": 0, "meetingId": 0, "productConceptDTOList": [{"agreeNum": 0, "customerId": 0, "id": 0, "latelyConcept": 0, "opposeNum": 0, "productConceptId": 0, "productConceptName": "", "productId": 0}], "productId": 0, "roleId": 0}], "meetingExecutorBillIds": "", "meetingExecutorBillNames": "", "meetingId": 0, "meetingSimpleName": ""}</t>
         </is>
       </c>
     </row>
-    <row r="33" ht="26.4" customHeight="1" s="12">
-      <c r="A33" s="13" t="inlineStr">
+    <row r="33" ht="26.4" customHeight="1" s="11">
+      <c r="A33" s="12" t="inlineStr">
         <is>
           <t>会议管理</t>
         </is>
       </c>
-      <c r="B33" s="13" t="inlineStr">
+      <c r="B33" s="12" t="inlineStr">
         <is>
           <t>会议反馈详情查询-APP</t>
         </is>
       </c>
-      <c r="C33" s="13" t="inlineStr">
+      <c r="C33" s="12" t="inlineStr">
         <is>
           <t>/meeting/appQueryMeetingFeedback</t>
         </is>
       </c>
-      <c r="D33" s="13" t="inlineStr">
+      <c r="D33" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E33" s="13" t="inlineStr">
+      <c r="E33" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F33" s="13" t="inlineStr">
+      <c r="F33" s="12" t="inlineStr">
         <is>
           <t>meetingId={*integer}</t>
         </is>
       </c>
-      <c r="H33" s="13" t="inlineStr">
+      <c r="H33" s="12" t="inlineStr">
         <is>
           <t>[{'name': 'meetingId', 'in': 'query', 'description': 'meetingId', 'required': True, 'type': 'integer', 'format': 'int64'}]</t>
         </is>
       </c>
     </row>
-    <row r="34" ht="26.4" customHeight="1" s="12">
-      <c r="A34" s="13" t="inlineStr">
+    <row r="34" ht="26.4" customHeight="1" s="11">
+      <c r="A34" s="12" t="inlineStr">
         <is>
           <t>会议管理</t>
         </is>
       </c>
-      <c r="B34" s="13" t="inlineStr">
+      <c r="B34" s="12" t="inlineStr">
         <is>
           <t>根据会议id获取会议信息-APP</t>
         </is>
       </c>
-      <c r="C34" s="13" t="inlineStr">
+      <c r="C34" s="12" t="inlineStr">
         <is>
           <t>/meeting/appQueryMeetingInfoById</t>
         </is>
       </c>
-      <c r="D34" s="13" t="inlineStr">
+      <c r="D34" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E34" s="13" t="inlineStr">
+      <c r="E34" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F34" s="13" t="inlineStr">
+      <c r="F34" s="12" t="inlineStr">
         <is>
           <t>meetingId={integer}</t>
         </is>
       </c>
-      <c r="H34" s="13" t="inlineStr">
+      <c r="H34" s="12" t="inlineStr">
         <is>
           <t>[{'name': 'meetingId', 'in': 'query', 'description': 'meetingId', 'required': False, 'type': 'integer', 'format': 'int64'}]</t>
         </is>
       </c>
     </row>
-    <row r="35" ht="26.4" customHeight="1" s="12">
-      <c r="A35" s="13" t="inlineStr">
+    <row r="35" ht="26.4" customHeight="1" s="11">
+      <c r="A35" s="12" t="inlineStr">
         <is>
           <t>会议管理</t>
         </is>
       </c>
-      <c r="B35" s="13" t="inlineStr">
+      <c r="B35" s="12" t="inlineStr">
         <is>
           <t>会议列表-APP</t>
         </is>
       </c>
-      <c r="C35" s="13" t="inlineStr">
+      <c r="C35" s="12" t="inlineStr">
         <is>
           <t>/meeting/appQueryMeetingInfoPage</t>
         </is>
       </c>
-      <c r="D35" s="13" t="inlineStr">
+      <c r="D35" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E35" s="13" t="inlineStr">
+      <c r="E35" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="13" t="inlineStr">
+      <c r="F35" s="12" t="n"/>
+      <c r="G35" s="12" t="inlineStr">
         <is>
           <t>{"currPage": 0, "meetingStatus": 0, "pageSize": 0, "searchCondition": ""}</t>
         </is>
       </c>
     </row>
-    <row r="36" ht="224.4" customHeight="1" s="12">
-      <c r="A36" s="13" t="inlineStr">
+    <row r="36" ht="224.4" customHeight="1" s="11">
+      <c r="A36" s="12" t="inlineStr">
         <is>
           <t>会议管理</t>
         </is>
       </c>
-      <c r="B36" s="13" t="inlineStr">
+      <c r="B36" s="12" t="inlineStr">
         <is>
           <t>新增会议申请-PC</t>
         </is>
       </c>
-      <c r="C36" s="13" t="inlineStr">
+      <c r="C36" s="12" t="inlineStr">
         <is>
           <t>/meeting/applyMeetingInfo</t>
         </is>
       </c>
-      <c r="D36" s="13" t="inlineStr">
+      <c r="D36" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E36" s="13" t="inlineStr">
+      <c r="E36" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="13" t="inlineStr">
+      <c r="F36" s="12" t="n"/>
+      <c r="G36" s="12" t="inlineStr">
         <is>
           <t>{"applyPeopleId": 0, "applyPeopleName": "", "applyTime": "", "assistPeopleIds": "", "assistPeopleNames": "", "customerDtoList": [{"customerId": 0, "customerName": "", "laborCostBudget": 0, "roleId": 0}], "customerIds": "", "customerNames": "", "deptIds": "", "deptNames": "", "executorPeopleId": 0, "executorPeopleName": "", "hospitalName": "", "id": 0, "joinMeetingPeopleIds": "", "joinMeetingPeopleNames": "", "laborCostBudget": 0, "mealsCostBudget": 0, "meetingPlanTime": "", "meetingTargetId": 0, "meetingTargetName": "", "meetingTopicId": 0, "meetingTopicName": "", "meetingTypeId": 0, "meetingTypeName": "", "productId": 0, "productName": ""}</t>
         </is>
       </c>
     </row>
-    <row r="37" ht="39.6" customHeight="1" s="12">
-      <c r="A37" s="13" t="inlineStr">
+    <row r="37" ht="39.6" customHeight="1" s="11">
+      <c r="A37" s="12" t="inlineStr">
         <is>
           <t>会议管理</t>
         </is>
       </c>
-      <c r="B37" s="13" t="inlineStr">
+      <c r="B37" s="12" t="inlineStr">
         <is>
           <t>会议分析-代表</t>
         </is>
       </c>
-      <c r="C37" s="13" t="inlineStr">
+      <c r="C37" s="12" t="inlineStr">
         <is>
           <t>/meeting/delegateMeetingAnalysis</t>
         </is>
       </c>
-      <c r="D37" s="13" t="inlineStr">
+      <c r="D37" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E37" s="13" t="inlineStr">
+      <c r="E37" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="13" t="inlineStr">
+      <c r="F37" s="12" t="n"/>
+      <c r="G37" s="12" t="inlineStr">
         <is>
           <t>{"applyPeopleIdList": [], "beginTime": "", "currPage": 0, "deptId": "", "endTime": "", "orderName": "", "pageSize": 0}</t>
         </is>
       </c>
     </row>
-    <row r="38" ht="26.4" customHeight="1" s="12">
-      <c r="A38" s="13" t="inlineStr">
+    <row r="38" ht="26.4" customHeight="1" s="11">
+      <c r="A38" s="12" t="inlineStr">
         <is>
           <t>会议管理</t>
         </is>
       </c>
-      <c r="B38" s="13" t="inlineStr">
+      <c r="B38" s="12" t="inlineStr">
         <is>
           <t>删除会议申请-PC</t>
         </is>
       </c>
-      <c r="C38" s="13" t="inlineStr">
+      <c r="C38" s="12" t="inlineStr">
         <is>
           <t>/meeting/deleteMeetingInfo</t>
         </is>
       </c>
-      <c r="D38" s="13" t="inlineStr">
+      <c r="D38" s="12" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F38" s="13" t="inlineStr">
+      <c r="F38" s="12" t="inlineStr">
         <is>
           <t>meetingId={*integer}</t>
         </is>
       </c>
-      <c r="H38" s="13" t="inlineStr">
+      <c r="H38" s="12" t="inlineStr">
         <is>
           <t>[{'name': 'meetingId', 'in': 'query', 'description': 'meetingId', 'required': True, 'type': 'integer', 'format': 'int64'}]</t>
         </is>
       </c>
     </row>
-    <row r="39" ht="224.4" customHeight="1" s="12">
-      <c r="A39" s="13" t="inlineStr">
+    <row r="39" ht="224.4" customHeight="1" s="11">
+      <c r="A39" s="12" t="inlineStr">
         <is>
           <t>会议管理</t>
         </is>
       </c>
-      <c r="B39" s="13" t="inlineStr">
+      <c r="B39" s="12" t="inlineStr">
         <is>
           <t>修改会议申请-PC</t>
         </is>
       </c>
-      <c r="C39" s="13" t="inlineStr">
+      <c r="C39" s="12" t="inlineStr">
         <is>
           <t>/meeting/editMeetingInfo</t>
         </is>
       </c>
-      <c r="D39" s="13" t="inlineStr">
+      <c r="D39" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E39" s="13" t="inlineStr">
+      <c r="E39" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="13" t="inlineStr">
+      <c r="F39" s="12" t="n"/>
+      <c r="G39" s="12" t="inlineStr">
         <is>
           <t>{"applyPeopleId": 0, "applyPeopleName": "", "applyTime": "", "assistPeopleIds": "", "assistPeopleNames": "", "customerDtoList": [{"customerId": 0, "customerName": "", "laborCostBudget": 0, "roleId": 0}], "customerIds": "", "customerNames": "", "deptIds": "", "deptNames": "", "executorPeopleId": 0, "executorPeopleName": "", "hospitalName": "", "id": 0, "joinMeetingPeopleIds": "", "joinMeetingPeopleNames": "", "laborCostBudget": 0, "mealsCostBudget": 0, "meetingPlanTime": "", "meetingTargetId": 0, "meetingTargetName": "", "meetingTopicId": 0, "meetingTopicName": "", "meetingTypeId": 0, "meetingTypeName": "", "productId": 0, "productName": ""}</t>
         </is>
       </c>
     </row>
-    <row r="40" ht="171.6" customHeight="1" s="12">
-      <c r="A40" s="13" t="inlineStr">
+    <row r="40" ht="171.6" customHeight="1" s="11">
+      <c r="A40" s="12" t="inlineStr">
         <is>
           <t>会议管理</t>
         </is>
       </c>
-      <c r="B40" s="13" t="inlineStr">
+      <c r="B40" s="12" t="inlineStr">
         <is>
           <t>会议审批-PC</t>
         </is>
       </c>
-      <c r="C40" s="13" t="inlineStr">
+      <c r="C40" s="12" t="inlineStr">
         <is>
           <t>/meeting/examineMeetingInfo</t>
         </is>
       </c>
-      <c r="D40" s="13" t="inlineStr">
+      <c r="D40" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E40" s="13" t="inlineStr">
+      <c r="E40" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="13" t="inlineStr">
+      <c r="F40" s="12" t="n"/>
+      <c r="G40" s="12" t="inlineStr">
         <is>
           <t>{"customerDtoList": [{"customerId": 0, "customerName": "", "laborCostBudget": 0, "roleId": 0}], "id": 0, "marketingDirectorExamine": 0, "marketingDirectorExamineDesc": "", "marketingDirectorExamineTime": "", "marketingDirectorId": 0, "marketingDirectorName": "", "regionManagerDisagreeDesc": "", "regionManagerExamine": 0, "regionManagerExamineTime": "", "regionManagerId": 0, "regionManagerName": ""}</t>
         </is>
       </c>
     </row>
-    <row r="41" ht="39.6" customHeight="1" s="12">
-      <c r="A41" s="13" t="inlineStr">
+    <row r="41" ht="39.6" customHeight="1" s="11">
+      <c r="A41" s="12" t="inlineStr">
         <is>
           <t>会议管理</t>
         </is>
       </c>
-      <c r="B41" s="13" t="inlineStr">
+      <c r="B41" s="12" t="inlineStr">
         <is>
           <t>重点客户投入有效性分析</t>
         </is>
       </c>
-      <c r="C41" s="13" t="inlineStr">
+      <c r="C41" s="12" t="inlineStr">
         <is>
           <t>/meeting/importCustomerAnalyse</t>
         </is>
       </c>
-      <c r="D41" s="13" t="inlineStr">
+      <c r="D41" s="12" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F41" s="13" t="inlineStr">
+      <c r="F41" s="12" t="inlineStr">
         <is>
           <t>deptId={string}&amp;month={string}&amp;searchId={string}</t>
         </is>
       </c>
-      <c r="H41" s="13" t="inlineStr">
+      <c r="H41" s="12" t="inlineStr">
         <is>
           <t>[{'name': 'deptId', 'in': 'query', 'description': 'deptId', 'required': False, 'type': 'string'}, {'name': 'month', 'in': 'query', 'description': 'month', 'required': False, 'type': 'string'}, {'name': 'searchId', 'in': 'query', 'description': 'searchId', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
-    <row r="42" ht="66" customHeight="1" s="12">
-      <c r="A42" s="13" t="inlineStr">
+    <row r="42" ht="66" customHeight="1" s="11">
+      <c r="A42" s="12" t="inlineStr">
         <is>
           <t>会议管理</t>
         </is>
       </c>
-      <c r="B42" s="13" t="inlineStr">
+      <c r="B42" s="12" t="inlineStr">
         <is>
           <t>投入产出分析-客户</t>
         </is>
       </c>
-      <c r="C42" s="13" t="inlineStr">
+      <c r="C42" s="12" t="inlineStr">
         <is>
           <t>/meeting/inOutCustomerAnalyse</t>
         </is>
       </c>
-      <c r="D42" s="13" t="inlineStr">
+      <c r="D42" s="12" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F42" s="13" t="inlineStr">
+      <c r="F42" s="12" t="inlineStr">
         <is>
           <t>endDate={string}&amp;hospitalName={string}&amp;pageNum={integer}&amp;pageSize={integer}&amp;startDate={string}</t>
         </is>
       </c>
-      <c r="H42" s="13" t="inlineStr">
+      <c r="H42" s="12" t="inlineStr">
         <is>
           <t>[{'name': 'endDate', 'in': 'query', 'description': 'endDate', 'required': False, 'type': 'string'}, {'name': 'hospitalName', 'in': 'query', 'description': 'hospitalName', 'required': False, 'type': 'string'}, {'name': 'pageNum', 'in': 'query', 'description': 'pageNum', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'pageSize', 'in': 'query', 'description': 'pageSize', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'startDate', 'in': 'query', 'description': 'startDate', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
-    <row r="43" ht="105.6" customHeight="1" s="12">
-      <c r="A43" s="13" t="inlineStr">
+    <row r="43" ht="105.6" customHeight="1" s="11">
+      <c r="A43" s="12" t="inlineStr">
         <is>
           <t>会议管理</t>
         </is>
       </c>
-      <c r="B43" s="13" t="inlineStr">
+      <c r="B43" s="12" t="inlineStr">
         <is>
           <t>投入产出分析-医院</t>
         </is>
       </c>
-      <c r="C43" s="13" t="inlineStr">
+      <c r="C43" s="12" t="inlineStr">
         <is>
           <t>/meeting/inOutHospitalAnalyse</t>
         </is>
       </c>
-      <c r="D43" s="13" t="inlineStr">
+      <c r="D43" s="12" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F43" s="13" t="inlineStr">
+      <c r="F43" s="12" t="inlineStr">
         <is>
           <t>deptId={string}&amp;endDate={string}&amp;hospitalName={string}&amp;orderName={string}&amp;pageNum={integer}&amp;pageSize={integer}&amp;sort={string}&amp;startDate={string}</t>
         </is>
       </c>
-      <c r="H43" s="13" t="inlineStr">
+      <c r="H43" s="12" t="inlineStr">
         <is>
           <t>[{'name': 'deptId', 'in': 'query', 'description': 'deptId', 'required': False, 'type': 'string'}, {'name': 'endDate', 'in': 'query', 'description': 'endDate', 'required': False, 'type': 'string'}, {'name': 'hospitalName', 'in': 'query', 'description': 'hospitalName', 'required': False, 'type': 'string'}, {'name': 'orderName', 'in': 'query', 'description': 'orderName', 'required': False, 'type': 'string'}, {'name': 'pageNum', 'in': 'query', 'description': 'pageNum', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'pageSize', 'in': 'query', 'description': 'pageSize', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'sort', 'in': 'query', 'description': 'sort', 'required': False, 'type': 'string'}, {'name': 'startDate', 'in': 'query', 'description': 'startDate', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
-    <row r="44" ht="26.4" customHeight="1" s="12">
-      <c r="A44" s="13" t="inlineStr">
+    <row r="44" ht="26.4" customHeight="1" s="11">
+      <c r="A44" s="12" t="inlineStr">
         <is>
           <t>会议管理</t>
         </is>
       </c>
-      <c r="B44" s="13" t="inlineStr">
+      <c r="B44" s="12" t="inlineStr">
         <is>
           <t>会议分析-会议</t>
         </is>
       </c>
-      <c r="C44" s="13" t="inlineStr">
+      <c r="C44" s="12" t="inlineStr">
         <is>
           <t>/meeting/meetingAnalysis</t>
         </is>
       </c>
-      <c r="D44" s="13" t="inlineStr">
+      <c r="D44" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E44" s="13" t="inlineStr">
+      <c r="E44" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="13" t="inlineStr">
+      <c r="F44" s="12" t="n"/>
+      <c r="G44" s="12" t="inlineStr">
         <is>
           <t>{"beginTime": "", "currPage": 0, "delegateId": 0, "endTime": "", "pageSize": 0}</t>
         </is>
       </c>
     </row>
-    <row r="45" ht="26.4" customHeight="1" s="12">
-      <c r="A45" s="13" t="inlineStr">
+    <row r="45" ht="26.4" customHeight="1" s="11">
+      <c r="A45" s="12" t="inlineStr">
         <is>
           <t>会议管理</t>
         </is>
       </c>
-      <c r="B45" s="13" t="inlineStr">
+      <c r="B45" s="12" t="inlineStr">
         <is>
           <t>会议分析-产品观念</t>
         </is>
       </c>
-      <c r="C45" s="13" t="inlineStr">
+      <c r="C45" s="12" t="inlineStr">
         <is>
           <t>/meeting/productMeetingAnalysis</t>
         </is>
       </c>
-      <c r="D45" s="13" t="inlineStr">
+      <c r="D45" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E45" s="13" t="inlineStr">
+      <c r="E45" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="13" t="inlineStr">
+      <c r="F45" s="12" t="n"/>
+      <c r="G45" s="12" t="inlineStr">
         <is>
           <t>{"currPage": 0, "meetingId": 0, "pageSize": 0}</t>
         </is>
       </c>
     </row>
-    <row r="46" ht="26.4" customHeight="1" s="12">
-      <c r="A46" s="13" t="inlineStr">
+    <row r="46" ht="26.4" customHeight="1" s="11">
+      <c r="A46" s="12" t="inlineStr">
         <is>
           <t>会议管理</t>
         </is>
       </c>
-      <c r="B46" s="13" t="inlineStr">
+      <c r="B46" s="12" t="inlineStr">
         <is>
           <t>根据会议id获取计划参会者下拉列表</t>
         </is>
       </c>
-      <c r="C46" s="13" t="inlineStr">
+      <c r="C46" s="12" t="inlineStr">
         <is>
           <t>/meeting/queryJoinMeetingPeopleList</t>
         </is>
       </c>
-      <c r="D46" s="13" t="inlineStr">
+      <c r="D46" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E46" s="13" t="inlineStr">
+      <c r="E46" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F46" s="13" t="inlineStr">
+      <c r="F46" s="12" t="inlineStr">
         <is>
           <t>meetingId={integer}</t>
         </is>
       </c>
-      <c r="H46" s="13" t="inlineStr">
+      <c r="H46" s="12" t="inlineStr">
         <is>
           <t>[{'name': 'meetingId', 'in': 'query', 'description': 'meetingId', 'required': False, 'type': 'integer', 'format': 'int64'}]</t>
         </is>
       </c>
     </row>
-    <row r="47" ht="26.4" customHeight="1" s="12">
-      <c r="A47" s="13" t="inlineStr">
+    <row r="47" ht="26.4" customHeight="1" s="11">
+      <c r="A47" s="12" t="inlineStr">
         <is>
           <t>会议管理</t>
         </is>
       </c>
-      <c r="B47" s="13" t="inlineStr">
+      <c r="B47" s="12" t="inlineStr">
         <is>
           <t>会议反馈详情查询-PC</t>
         </is>
       </c>
-      <c r="C47" s="13" t="inlineStr">
+      <c r="C47" s="12" t="inlineStr">
         <is>
           <t>/meeting/queryMeetingFeedback</t>
         </is>
       </c>
-      <c r="D47" s="13" t="inlineStr">
+      <c r="D47" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E47" s="13" t="inlineStr">
+      <c r="E47" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F47" s="13" t="inlineStr">
+      <c r="F47" s="12" t="inlineStr">
         <is>
           <t>meetingId={*integer}</t>
         </is>
       </c>
-      <c r="H47" s="13" t="inlineStr">
+      <c r="H47" s="12" t="inlineStr">
         <is>
           <t>[{'name': 'meetingId', 'in': 'query', 'description': 'meetingId', 'required': True, 'type': 'integer', 'format': 'int64'}]</t>
         </is>
       </c>
     </row>
-    <row r="48" ht="52.8" customHeight="1" s="12">
-      <c r="A48" s="13" t="inlineStr">
+    <row r="48" ht="52.8" customHeight="1" s="11">
+      <c r="A48" s="12" t="inlineStr">
         <is>
           <t>会议管理</t>
         </is>
       </c>
-      <c r="B48" s="13" t="inlineStr">
+      <c r="B48" s="12" t="inlineStr">
         <is>
           <t>会议列表-PC</t>
         </is>
       </c>
-      <c r="C48" s="13" t="inlineStr">
+      <c r="C48" s="12" t="inlineStr">
         <is>
           <t>/meeting/queryMeetingInfoPage</t>
         </is>
       </c>
-      <c r="D48" s="13" t="inlineStr">
+      <c r="D48" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E48" s="13" t="inlineStr">
+      <c r="E48" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="13" t="inlineStr">
+      <c r="F48" s="12" t="n"/>
+      <c r="G48" s="12" t="inlineStr">
         <is>
           <t>{"applyPeopleIdList": [], "beginTime": "", "currPage": 0, "endTime": "", "hospitalName": "", "meetingStatus": 0, "meetingTypeId": 0, "pageSize": 0}</t>
         </is>
       </c>
     </row>
-    <row r="49" ht="145.2" customHeight="1" s="12">
-      <c r="A49" s="13" t="inlineStr">
+    <row r="49" ht="145.2" customHeight="1" s="11">
+      <c r="A49" s="12" t="inlineStr">
         <is>
           <t>患者潜力管理</t>
         </is>
       </c>
-      <c r="B49" s="13" t="inlineStr">
+      <c r="B49" s="12" t="inlineStr">
         <is>
           <t>新增潜力信息</t>
         </is>
       </c>
-      <c r="C49" s="13" t="inlineStr">
+      <c r="C49" s="12" t="inlineStr">
         <is>
           <t>/potential/addPotentialInfo</t>
         </is>
       </c>
-      <c r="D49" s="13" t="inlineStr">
+      <c r="D49" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E49" s="13" t="inlineStr">
+      <c r="E49" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="13" t="inlineStr">
+      <c r="F49" s="12" t="n"/>
+      <c r="G49" s="12" t="inlineStr">
         <is>
           <t>{"againPeriod": 0, "approveMark": "", "bedNum": 0, "competitionOne": "", "competitionThree": "", "competitionTwo": "", "currentCaseNum": 0, "customerId": 0, "dayOutpatientNum": 0, "followPeriodNum": 0, "inpatientEhNum": 0, "inpatientEhRate": "", "monthBedNum": 0, "monthLeaveNum": 0, "monthOutpatientNum": 0, "outpatientEhNum": 0, "outpatientEhRate": "", "outpatientNum": 0, "priceOne": 0, "priceThree": 0, "priceTwo": 0, "targetCaseNum": 0, "totalEhNum": 0}</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="13" t="inlineStr">
+      <c r="A50" s="12" t="inlineStr">
         <is>
           <t>患者潜力管理</t>
         </is>
       </c>
-      <c r="B50" s="13" t="inlineStr">
+      <c r="B50" s="12" t="inlineStr">
         <is>
           <t>潜力信息审批</t>
         </is>
       </c>
-      <c r="C50" s="13" t="inlineStr">
+      <c r="C50" s="12" t="inlineStr">
         <is>
           <t>/potential/approval</t>
         </is>
       </c>
-      <c r="D50" s="13" t="inlineStr">
+      <c r="D50" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E50" s="13" t="inlineStr">
+      <c r="E50" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="13" t="inlineStr">
+      <c r="F50" s="12" t="n"/>
+      <c r="G50" s="12" t="inlineStr">
         <is>
           <t>{"approvalStatus": "", "id": 0, "rejectReason": ""}</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="13" t="inlineStr">
+      <c r="A51" s="12" t="inlineStr">
         <is>
           <t>患者潜力管理</t>
         </is>
       </c>
-      <c r="B51" s="13" t="inlineStr">
+      <c r="B51" s="12" t="inlineStr">
         <is>
           <t>潜力信息审批列表</t>
         </is>
       </c>
-      <c r="C51" s="13" t="inlineStr">
+      <c r="C51" s="12" t="inlineStr">
         <is>
           <t>/potential/approvalList</t>
         </is>
       </c>
-      <c r="D51" s="13" t="inlineStr">
+      <c r="D51" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E51" s="13" t="inlineStr">
+      <c r="E51" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="13" t="inlineStr">
+      <c r="F51" s="12" t="n"/>
+      <c r="G51" s="12" t="inlineStr">
         <is>
           <t>{"approvalStatus": "", "searchName": ""}</t>
         </is>
       </c>
     </row>
-    <row r="52" ht="26.4" customHeight="1" s="12">
-      <c r="A52" s="13" t="inlineStr">
+    <row r="52" ht="26.4" customHeight="1" s="11">
+      <c r="A52" s="12" t="inlineStr">
         <is>
           <t>患者潜力管理</t>
         </is>
       </c>
-      <c r="B52" s="13" t="inlineStr">
+      <c r="B52" s="12" t="inlineStr">
         <is>
           <t>患者数管理Excel导入</t>
         </is>
       </c>
-      <c r="C52" s="13" t="inlineStr">
+      <c r="C52" s="12" t="inlineStr">
         <is>
           <t>/potential/potentialUploadExcel</t>
         </is>
       </c>
-      <c r="D52" s="13" t="inlineStr">
+      <c r="D52" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E52" s="13" t="inlineStr">
+      <c r="E52" s="12" t="inlineStr">
         <is>
           <t>multipart/form-data</t>
         </is>
       </c>
-      <c r="F52" s="13" t="n"/>
-      <c r="H52" s="13" t="inlineStr">
+      <c r="F52" s="12" t="n"/>
+      <c r="H52" s="12" t="inlineStr">
         <is>
           <t>[{'name': 'file', 'in': 'formData', 'description': 'file', 'required': True, 'type': 'file'}]</t>
         </is>
       </c>
     </row>
-    <row r="53" ht="52.8" customHeight="1" s="12">
-      <c r="A53" s="13" t="inlineStr">
+    <row r="53" ht="52.8" customHeight="1" s="11">
+      <c r="A53" s="12" t="inlineStr">
         <is>
           <t>患者潜力管理</t>
         </is>
       </c>
-      <c r="B53" s="13" t="inlineStr">
+      <c r="B53" s="12" t="inlineStr">
         <is>
           <t>患者管理分页查询</t>
         </is>
       </c>
-      <c r="C53" s="13" t="inlineStr">
+      <c r="C53" s="12" t="inlineStr">
         <is>
           <t>/potential/productPatientQueryPage</t>
         </is>
       </c>
-      <c r="D53" s="13" t="inlineStr">
+      <c r="D53" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E53" s="13" t="inlineStr">
+      <c r="E53" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="13" t="inlineStr">
+      <c r="F53" s="12" t="n"/>
+      <c r="G53" s="12" t="inlineStr">
         <is>
           <t>{"customerName": "", "delegateName": "", "hospitalName": "", "month": "", "pageNum": 0, "pageSize": 0, "productId": 0, "regionManager": "", "userIds": []}</t>
         </is>
       </c>
     </row>
-    <row r="54" ht="26.4" customHeight="1" s="12">
-      <c r="A54" s="13" t="inlineStr">
+    <row r="54" ht="26.4" customHeight="1" s="11">
+      <c r="A54" s="12" t="inlineStr">
         <is>
           <t>患者潜力管理</t>
         </is>
       </c>
-      <c r="B54" s="13" t="inlineStr">
+      <c r="B54" s="12" t="inlineStr">
         <is>
           <t>客户Id查询潜力信息是否存在</t>
         </is>
       </c>
-      <c r="C54" s="13" t="inlineStr">
+      <c r="C54" s="12" t="inlineStr">
         <is>
           <t>/potential/queryByCustomerId</t>
         </is>
       </c>
-      <c r="D54" s="13" t="inlineStr">
+      <c r="D54" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E54" s="13" t="inlineStr">
+      <c r="E54" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F54" s="13" t="inlineStr">
+      <c r="F54" s="12" t="inlineStr">
         <is>
           <t>customerId={*integer}</t>
         </is>
       </c>
-      <c r="H54" s="13" t="inlineStr">
+      <c r="H54" s="12" t="inlineStr">
         <is>
           <t>[{'name': 'customerId', 'in': 'query', 'description': '客户id', 'required': True, 'type': 'integer', 'format': 'int64'}]</t>
         </is>
       </c>
     </row>
-    <row r="55" ht="39.6" customHeight="1" s="12">
-      <c r="A55" s="13" t="inlineStr">
+    <row r="55" ht="39.6" customHeight="1" s="11">
+      <c r="A55" s="12" t="inlineStr">
         <is>
           <t>患者潜力管理</t>
         </is>
       </c>
-      <c r="B55" s="13" t="inlineStr">
+      <c r="B55" s="12" t="inlineStr">
         <is>
           <t>潜力信息分页查询_v2.2</t>
         </is>
       </c>
-      <c r="C55" s="13" t="inlineStr">
+      <c r="C55" s="12" t="inlineStr">
         <is>
           <t>/potential/queryPage</t>
         </is>
       </c>
-      <c r="D55" s="13" t="inlineStr">
+      <c r="D55" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E55" s="13" t="inlineStr">
+      <c r="E55" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F55" s="13" t="n"/>
-      <c r="G55" s="13" t="inlineStr">
+      <c r="F55" s="12" t="n"/>
+      <c r="G55" s="12" t="inlineStr">
         <is>
           <t>{"customerName": "", "delegateName": "", "hospitalName": "", "pageNum": 0, "pageSize": 0, "regionManager": "", "userIds": []}</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="13" t="inlineStr">
+      <c r="A56" s="12" t="inlineStr">
         <is>
           <t>患者潜力管理</t>
         </is>
       </c>
-      <c r="B56" s="13" t="inlineStr">
+      <c r="B56" s="12" t="inlineStr">
         <is>
           <t>Excel导入</t>
         </is>
       </c>
-      <c r="C56" s="13" t="inlineStr">
+      <c r="C56" s="12" t="inlineStr">
         <is>
           <t>/potential/uploadExcel</t>
         </is>
       </c>
-      <c r="D56" s="13" t="inlineStr">
+      <c r="D56" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E56" s="13" t="inlineStr">
+      <c r="E56" s="12" t="inlineStr">
         <is>
           <t>multipart/form-data</t>
         </is>
       </c>
-      <c r="F56" s="13" t="n"/>
-      <c r="H56" s="13" t="inlineStr">
+      <c r="F56" s="12" t="n"/>
+      <c r="H56" s="12" t="inlineStr">
         <is>
           <t>[{'name': 'file', 'in': 'formData', 'description': 'file', 'required': True, 'type': 'file'}]</t>
         </is>
       </c>
     </row>
-    <row r="57" ht="158.4" customHeight="1" s="12">
-      <c r="A57" s="13" t="inlineStr">
+    <row r="57" ht="158.4" customHeight="1" s="11">
+      <c r="A57" s="12" t="inlineStr">
         <is>
           <t>患者潜力修改记录</t>
         </is>
       </c>
-      <c r="B57" s="13" t="inlineStr">
+      <c r="B57" s="12" t="inlineStr">
         <is>
           <t>新增潜力修改记录</t>
         </is>
       </c>
-      <c r="C57" s="13" t="inlineStr">
+      <c r="C57" s="12" t="inlineStr">
         <is>
           <t>/potentialRecord/addRecord</t>
         </is>
       </c>
-      <c r="D57" s="13" t="inlineStr">
+      <c r="D57" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E57" s="13" t="inlineStr">
+      <c r="E57" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="13" t="inlineStr">
+      <c r="F57" s="12" t="n"/>
+      <c r="G57" s="12" t="inlineStr">
         <is>
           <t>{"againPeriod": 0, "bedNum": 0, "competitionOne": "", "competitionThree": "", "competitionTwo": "", "currentCaseNum": 0, "dayOutpatientNum": 0, "followPeriodNum": 0, "hospitalReason": "", "inpatientEhNum": 0, "inpatientEhRate": "", "modifyReason": "", "monthBedNum": 0, "monthLeaveNum": 0, "monthOutpatientNum": 0, "outpatientEhNum": 0, "outpatientEhRate": "", "outpatientNum": 0, "patientNum": 0, "potentialId": 0, "targetCaseNum": 0, "totalEhNum": 0, "totalPatientNum": 0}</t>
         </is>
       </c>
     </row>
-    <row r="58" ht="26.4" customHeight="1" s="12">
-      <c r="A58" s="13" t="inlineStr">
+    <row r="58" ht="26.4" customHeight="1" s="11">
+      <c r="A58" s="12" t="inlineStr">
         <is>
           <t>患者潜力修改记录</t>
         </is>
       </c>
-      <c r="B58" s="13" t="inlineStr">
+      <c r="B58" s="12" t="inlineStr">
         <is>
           <t>潜力修改记录审批</t>
         </is>
       </c>
-      <c r="C58" s="13" t="inlineStr">
+      <c r="C58" s="12" t="inlineStr">
         <is>
           <t>/potentialRecord/executeApproval</t>
         </is>
       </c>
-      <c r="D58" s="13" t="inlineStr">
+      <c r="D58" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E58" s="13" t="inlineStr">
+      <c r="E58" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="13" t="inlineStr">
+      <c r="F58" s="12" t="n"/>
+      <c r="G58" s="12" t="inlineStr">
         <is>
           <t>{"approvalStatus": "", "id": 0, "rejectReason": ""}</t>
         </is>
       </c>
     </row>
-    <row r="59" ht="26.4" customHeight="1" s="12">
-      <c r="A59" s="13" t="inlineStr">
+    <row r="59" ht="26.4" customHeight="1" s="11">
+      <c r="A59" s="12" t="inlineStr">
         <is>
           <t>患者潜力修改记录</t>
         </is>
       </c>
-      <c r="B59" s="13" t="inlineStr">
+      <c r="B59" s="12" t="inlineStr">
         <is>
           <t>潜力修改记录审批列表</t>
         </is>
       </c>
-      <c r="C59" s="13" t="inlineStr">
+      <c r="C59" s="12" t="inlineStr">
         <is>
           <t>/potentialRecord/queryApprovalList</t>
         </is>
       </c>
-      <c r="D59" s="13" t="inlineStr">
+      <c r="D59" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E59" s="13" t="inlineStr">
+      <c r="E59" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="13" t="inlineStr">
+      <c r="F59" s="12" t="n"/>
+      <c r="G59" s="12" t="inlineStr">
         <is>
           <t>{"approvalStatus": "", "searchName": ""}</t>
         </is>
       </c>
     </row>
-    <row r="60" ht="26.4" customHeight="1" s="12">
-      <c r="A60" s="13" t="inlineStr">
+    <row r="60" ht="26.4" customHeight="1" s="11">
+      <c r="A60" s="12" t="inlineStr">
         <is>
           <t>患者潜力修改记录</t>
         </is>
       </c>
-      <c r="B60" s="13" t="inlineStr">
+      <c r="B60" s="12" t="inlineStr">
         <is>
           <t>查询潜力修改记录</t>
         </is>
       </c>
-      <c r="C60" s="13" t="inlineStr">
+      <c r="C60" s="12" t="inlineStr">
         <is>
           <t>/potentialRecord/queryByPotentialId</t>
         </is>
       </c>
-      <c r="D60" s="13" t="inlineStr">
+      <c r="D60" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E60" s="13" t="inlineStr">
+      <c r="E60" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F60" s="13" t="inlineStr">
+      <c r="F60" s="12" t="inlineStr">
         <is>
           <t>potentialId={*integer}</t>
         </is>
       </c>
-      <c r="H60" s="13" t="inlineStr">
+      <c r="H60" s="12" t="inlineStr">
         <is>
           <t>[{'name': 'potentialId', 'in': 'query', 'description': '潜力信息Id', 'required': True, 'type': 'integer', 'format': 'int64'}]</t>
         </is>
       </c>
     </row>
-    <row r="61" ht="145.2" customHeight="1" s="12">
-      <c r="A61" s="13" t="inlineStr">
+    <row r="61" ht="145.2" customHeight="1" s="11">
+      <c r="A61" s="12" t="inlineStr">
         <is>
           <t>患者潜力修改记录</t>
         </is>
       </c>
-      <c r="B61" s="13" t="inlineStr">
+      <c r="B61" s="12" t="inlineStr">
         <is>
           <t>更新潜力修改记录</t>
         </is>
       </c>
-      <c r="C61" s="13" t="inlineStr">
+      <c r="C61" s="12" t="inlineStr">
         <is>
           <t>/potentialRecord/updateRecord</t>
         </is>
       </c>
-      <c r="D61" s="13" t="inlineStr">
+      <c r="D61" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E61" s="13" t="inlineStr">
+      <c r="E61" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="13" t="inlineStr">
+      <c r="F61" s="12" t="n"/>
+      <c r="G61" s="12" t="inlineStr">
         <is>
           <t>{"againPeriod": 0, "bedNum": 0, "competitionOne": "", "competitionThree": "", "competitionTwo": "", "currentCaseNum": 0, "dayOutpatientNum": 0, "followPeriodNum": 0, "hospitalReason": "", "id": 0, "inpatientEhNum": 0, "inpatientEhRate": "", "modifyReason": "", "monthBedNum": 0, "monthLeaveNum": 0, "monthOutpatientNum": 0, "outpatientEhNum": 0, "outpatientEhRate": "", "outpatientNum": 0, "patientNum": 0, "targetCaseNum": 0, "totalEhNum": 0, "totalPatientNum": 0}</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="13" t="inlineStr">
+      <c r="A62" s="12" t="inlineStr">
         <is>
           <t>产品管理</t>
         </is>
       </c>
-      <c r="B62" s="13" t="inlineStr">
+      <c r="B62" s="12" t="inlineStr">
         <is>
           <t>所有产品查询</t>
         </is>
       </c>
-      <c r="C62" s="13" t="inlineStr">
+      <c r="C62" s="12" t="inlineStr">
         <is>
           <t>/product/queryProduct</t>
         </is>
       </c>
-      <c r="D62" s="13" t="inlineStr">
+      <c r="D62" s="12" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
     </row>
-    <row r="63" ht="26.4" customHeight="1" s="12">
-      <c r="A63" s="13" t="inlineStr">
+    <row r="63" ht="26.4" customHeight="1" s="11">
+      <c r="A63" s="12" t="inlineStr">
         <is>
           <t>产品观念管理</t>
         </is>
       </c>
-      <c r="B63" s="13" t="inlineStr">
+      <c r="B63" s="12" t="inlineStr">
         <is>
           <t>产品默认的产品观念新增</t>
         </is>
       </c>
-      <c r="C63" s="13" t="inlineStr">
+      <c r="C63" s="12" t="inlineStr">
         <is>
           <t>/productConcept/addDefaultProductConcept</t>
         </is>
       </c>
-      <c r="D63" s="13" t="inlineStr">
+      <c r="D63" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E63" s="13" t="inlineStr">
+      <c r="E63" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="13" t="inlineStr">
+      <c r="F63" s="12" t="n"/>
+      <c r="G63" s="12" t="inlineStr">
         <is>
           <t>{"customerId": 0, "productId": 0}</t>
         </is>
       </c>
     </row>
-    <row r="64" ht="52.8" customHeight="1" s="12">
-      <c r="A64" s="13" t="inlineStr">
+    <row r="64" ht="52.8" customHeight="1" s="11">
+      <c r="A64" s="12" t="inlineStr">
         <is>
           <t>产品观念管理</t>
         </is>
       </c>
-      <c r="B64" s="13" t="inlineStr">
+      <c r="B64" s="12" t="inlineStr">
         <is>
           <t>产品观念新增</t>
         </is>
       </c>
-      <c r="C64" s="13" t="inlineStr">
+      <c r="C64" s="12" t="inlineStr">
         <is>
           <t>/productConcept/addProductConcept</t>
         </is>
       </c>
-      <c r="D64" s="13" t="inlineStr">
+      <c r="D64" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E64" s="13" t="inlineStr">
+      <c r="E64" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="13" t="inlineStr">
+      <c r="F64" s="12" t="n"/>
+      <c r="G64" s="12" t="inlineStr">
         <is>
           <t>{"agreeNum": 0, "customerId": 0, "id": 0, "latelyConcept": 0, "opposeNum": 0, "productConceptId": 0, "productConceptName": "", "productId": 0}</t>
         </is>
       </c>
     </row>
-    <row r="65" ht="26.4" customHeight="1" s="12">
-      <c r="A65" s="13" t="inlineStr">
+    <row r="65" ht="26.4" customHeight="1" s="11">
+      <c r="A65" s="12" t="inlineStr">
         <is>
           <t>产品观念管理</t>
         </is>
       </c>
-      <c r="B65" s="13" t="inlineStr">
+      <c r="B65" s="12" t="inlineStr">
         <is>
           <t>产品观念删除</t>
         </is>
       </c>
-      <c r="C65" s="13" t="inlineStr">
+      <c r="C65" s="12" t="inlineStr">
         <is>
           <t>/productConcept/deleteProductConcept</t>
         </is>
       </c>
-      <c r="D65" s="13" t="inlineStr">
+      <c r="D65" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E65" s="13" t="inlineStr">
+      <c r="E65" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F65" s="13" t="inlineStr">
+      <c r="F65" s="12" t="inlineStr">
         <is>
           <t>id={*integer}</t>
         </is>
       </c>
-      <c r="H65" s="13" t="inlineStr">
+      <c r="H65" s="12" t="inlineStr">
         <is>
           <t>[{'name': 'id', 'in': 'query', 'description': 'id', 'required': True, 'type': 'integer', 'format': 'int64'}]</t>
         </is>
       </c>
     </row>
-    <row r="66" ht="52.8" customHeight="1" s="12">
-      <c r="A66" s="13" t="inlineStr">
+    <row r="66" ht="52.8" customHeight="1" s="11">
+      <c r="A66" s="12" t="inlineStr">
         <is>
           <t>产品观念管理</t>
         </is>
       </c>
-      <c r="B66" s="13" t="inlineStr">
+      <c r="B66" s="12" t="inlineStr">
         <is>
           <t>产品观念更新</t>
         </is>
       </c>
-      <c r="C66" s="13" t="inlineStr">
+      <c r="C66" s="12" t="inlineStr">
         <is>
           <t>/productConcept/editProductConcept</t>
         </is>
       </c>
-      <c r="D66" s="13" t="inlineStr">
+      <c r="D66" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E66" s="13" t="inlineStr">
+      <c r="E66" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="13" t="inlineStr">
+      <c r="F66" s="12" t="n"/>
+      <c r="G66" s="12" t="inlineStr">
         <is>
           <t>{"agreeNum": 0, "customerId": 0, "id": 0, "latelyConcept": 0, "opposeNum": 0, "productConceptId": 0, "productConceptName": "", "productId": 0}</t>
         </is>
       </c>
     </row>
-    <row r="67" ht="26.4" customHeight="1" s="12">
-      <c r="A67" s="13" t="inlineStr">
+    <row r="67" ht="26.4" customHeight="1" s="11">
+      <c r="A67" s="12" t="inlineStr">
         <is>
           <t>产品观念管理</t>
         </is>
       </c>
-      <c r="B67" s="13" t="inlineStr">
+      <c r="B67" s="12" t="inlineStr">
         <is>
           <t>产品观念查询</t>
         </is>
       </c>
-      <c r="C67" s="13" t="inlineStr">
+      <c r="C67" s="12" t="inlineStr">
         <is>
           <t>/productConcept/queryProductConcept</t>
         </is>
       </c>
-      <c r="D67" s="13" t="inlineStr">
+      <c r="D67" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E67" s="13" t="inlineStr">
+      <c r="E67" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="13" t="inlineStr">
+      <c r="F67" s="12" t="n"/>
+      <c r="G67" s="12" t="inlineStr">
         <is>
           <t>{"customerId": 0, "productId": 0}</t>
         </is>
       </c>
     </row>
-    <row r="68" ht="26.4" customHeight="1" s="12">
-      <c r="A68" s="13" t="inlineStr">
+    <row r="68" ht="26.4" customHeight="1" s="11">
+      <c r="A68" s="12" t="inlineStr">
         <is>
           <t>产品开发进度单</t>
         </is>
       </c>
-      <c r="B68" s="13" t="inlineStr">
+      <c r="B68" s="12" t="inlineStr">
         <is>
           <t>获取开发单医院下所有的产品</t>
         </is>
       </c>
-      <c r="C68" s="13" t="inlineStr">
+      <c r="C68" s="12" t="inlineStr">
         <is>
           <t>/productDevSchedule/findHospitalDev</t>
         </is>
       </c>
-      <c r="D68" s="13" t="inlineStr">
+      <c r="D68" s="12" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F68" s="13" t="inlineStr">
+      <c r="F68" s="12" t="inlineStr">
         <is>
           <t>devId={integer}</t>
         </is>
       </c>
-      <c r="H68" s="13" t="inlineStr">
+      <c r="H68" s="12" t="inlineStr">
         <is>
           <t>[{'name': 'devId', 'in': 'query', 'description': 'devId', 'required': False, 'type': 'integer', 'format': 'int32'}]</t>
         </is>
       </c>
     </row>
-    <row r="69" ht="26.4" customHeight="1" s="12">
-      <c r="A69" s="13" t="inlineStr">
+    <row r="69" ht="26.4" customHeight="1" s="11">
+      <c r="A69" s="12" t="inlineStr">
         <is>
           <t>产品开发进度单</t>
         </is>
       </c>
-      <c r="B69" s="13" t="inlineStr">
+      <c r="B69" s="12" t="inlineStr">
         <is>
           <t>产品开发单详情</t>
         </is>
       </c>
-      <c r="C69" s="13" t="inlineStr">
+      <c r="C69" s="12" t="inlineStr">
         <is>
           <t>/productDevSchedule/getProductDevSchedule</t>
         </is>
       </c>
-      <c r="D69" s="13" t="inlineStr">
+      <c r="D69" s="12" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F69" s="13" t="inlineStr">
+      <c r="F69" s="12" t="inlineStr">
         <is>
           <t>id={integer}</t>
         </is>
       </c>
-      <c r="H69" s="13" t="inlineStr">
+      <c r="H69" s="12" t="inlineStr">
         <is>
           <t>[{'name': 'id', 'in': 'query', 'description': 'id', 'required': False, 'type': 'integer', 'format': 'int32'}]</t>
         </is>
       </c>
     </row>
-    <row r="70" ht="66" customHeight="1" s="12">
-      <c r="A70" s="13" t="inlineStr">
+    <row r="70" ht="66" customHeight="1" s="11">
+      <c r="A70" s="12" t="inlineStr">
         <is>
           <t>产品开发进度单</t>
         </is>
       </c>
-      <c r="B70" s="13" t="inlineStr">
+      <c r="B70" s="12" t="inlineStr">
         <is>
           <t>产品开发单跟进</t>
         </is>
       </c>
-      <c r="C70" s="13" t="inlineStr">
+      <c r="C70" s="12" t="inlineStr">
         <is>
           <t>/productDevSchedule/productDevFollowUp</t>
         </is>
       </c>
-      <c r="D70" s="13" t="inlineStr">
+      <c r="D70" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E70" s="13" t="inlineStr">
+      <c r="E70" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F70" s="13" t="n"/>
-      <c r="G70" s="13" t="inlineStr">
+      <c r="F70" s="12" t="n"/>
+      <c r="G70" s="12" t="inlineStr">
         <is>
           <t>{"drugMeetingStartTime": "", "id": 0, "improvementAssess": "", "meetingAssess": "", "passMeetingRule": "", "passMeetingTime": "", "pharmacyConfirmInfo": "", "purchaseTime": "", "upBillDeptId": "", "upBillDeptStatus": ""}</t>
         </is>
       </c>
     </row>
-    <row r="71" ht="26.4" customHeight="1" s="12">
-      <c r="A71" s="13" t="inlineStr">
+    <row r="71" ht="26.4" customHeight="1" s="11">
+      <c r="A71" s="12" t="inlineStr">
         <is>
           <t>产品开发进度单</t>
         </is>
       </c>
-      <c r="B71" s="13" t="inlineStr">
+      <c r="B71" s="12" t="inlineStr">
         <is>
           <t>开发计划总揽</t>
         </is>
       </c>
-      <c r="C71" s="13" t="inlineStr">
+      <c r="C71" s="12" t="inlineStr">
         <is>
           <t>/productDevSchedule/productDevOverview</t>
         </is>
       </c>
-      <c r="D71" s="13" t="inlineStr">
+      <c r="D71" s="12" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F71" s="13" t="n"/>
-    </row>
-    <row r="72" ht="118.8" customHeight="1" s="12">
-      <c r="A72" s="13" t="inlineStr">
+      <c r="F71" s="12" t="n"/>
+    </row>
+    <row r="72" ht="118.8" customHeight="1" s="11">
+      <c r="A72" s="12" t="inlineStr">
         <is>
           <t>产品开发进度单</t>
         </is>
       </c>
-      <c r="B72" s="13" t="inlineStr">
+      <c r="B72" s="12" t="inlineStr">
         <is>
           <t>产品开发进度管理列表-pc</t>
         </is>
       </c>
-      <c r="C72" s="13" t="inlineStr">
+      <c r="C72" s="12" t="inlineStr">
         <is>
           <t>/productDevSchedule/productDevScheduleList</t>
         </is>
       </c>
-      <c r="D72" s="13" t="inlineStr">
+      <c r="D72" s="12" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F72" s="13" t="inlineStr">
+      <c r="F72" s="12" t="inlineStr">
         <is>
           <t>devHeadName={string}&amp;hospitalName={string}&amp;pageNum={integer}&amp;pageSize={integer}&amp;status={string}&amp;text={string}&amp;upBillDeptStatus={string}&amp;updTimeEnd={string}&amp;updTimeStart={string}</t>
         </is>
       </c>
-      <c r="H72" s="13" t="inlineStr">
+      <c r="H72" s="12" t="inlineStr">
         <is>
           <t>[{'name': 'devHeadName', 'in': 'query', 'description': '开发负责人', 'required': False, 'type': 'string'}, {'name': 'hospitalName', 'in': 'query', 'description': '医院名称', 'required': False, 'type': 'string'}, {'name': 'pageNum', 'in': 'query', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'pageSize', 'in': 'query', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'status', 'in': 'query', 'description': '0：跟进中 1：已结束', 'required': False, 'type': 'string'}, {'name': 'text', 'in': 'query', 'description': '医生、医院、产品', 'required': False, 'type': 'string'}, {'name': 'upBillDeptStatus', 'in': 'query', 'description': '提单状态', 'required': False, 'type': 'string'}, {'name': 'updTimeEnd', 'in': 'query', 'description': '更新时间结束', 'required': False, 'type': 'string'}, {'name': 'updTimeStart', 'in': 'query', 'description': '更新时间开始', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
-    <row r="73" ht="118.8" customHeight="1" s="12">
-      <c r="A73" s="13" t="inlineStr">
+    <row r="73" ht="118.8" customHeight="1" s="11">
+      <c r="A73" s="12" t="inlineStr">
         <is>
           <t>产品开发进度单</t>
         </is>
       </c>
-      <c r="B73" s="13" t="inlineStr">
+      <c r="B73" s="12" t="inlineStr">
         <is>
           <t>产品开发进度管理列表-小程序</t>
         </is>
       </c>
-      <c r="C73" s="13" t="inlineStr">
+      <c r="C73" s="12" t="inlineStr">
         <is>
           <t>/productDevSchedule/productDevScheduleListApp</t>
         </is>
       </c>
-      <c r="D73" s="13" t="inlineStr">
+      <c r="D73" s="12" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F73" s="13" t="inlineStr">
+      <c r="F73" s="12" t="inlineStr">
         <is>
           <t>devHeadName={string}&amp;hospitalName={string}&amp;pageNum={integer}&amp;pageSize={integer}&amp;status={string}&amp;text={string}&amp;upBillDeptStatus={string}&amp;updTimeEnd={string}&amp;updTimeStart={string}</t>
         </is>
       </c>
-      <c r="H73" s="13" t="inlineStr">
+      <c r="H73" s="12" t="inlineStr">
         <is>
           <t>[{'name': 'devHeadName', 'in': 'query', 'description': '开发负责人', 'required': False, 'type': 'string'}, {'name': 'hospitalName', 'in': 'query', 'description': '医院名称', 'required': False, 'type': 'string'}, {'name': 'pageNum', 'in': 'query', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'pageSize', 'in': 'query', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'status', 'in': 'query', 'description': '0：跟进中 1：已结束', 'required': False, 'type': 'string'}, {'name': 'text', 'in': 'query', 'description': '医生、医院、产品', 'required': False, 'type': 'string'}, {'name': 'upBillDeptStatus', 'in': 'query', 'description': '提单状态', 'required': False, 'type': 'string'}, {'name': 'updTimeEnd', 'in': 'query', 'description': '更新时间结束', 'required': False, 'type': 'string'}, {'name': 'updTimeStart', 'in': 'query', 'description': '更新时间开始', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
-    <row r="74" ht="158.4" customHeight="1" s="12">
-      <c r="A74" s="13" t="inlineStr">
+    <row r="74" ht="158.4" customHeight="1" s="11">
+      <c r="A74" s="12" t="inlineStr">
         <is>
           <t>产品开发进度单</t>
         </is>
       </c>
-      <c r="B74" s="13" t="inlineStr">
+      <c r="B74" s="12" t="inlineStr">
         <is>
           <t>产品开发单拜访</t>
         </is>
       </c>
-      <c r="C74" s="13" t="inlineStr">
+      <c r="C74" s="12" t="inlineStr">
         <is>
           <t>/productDevSchedule/productDevVisit</t>
         </is>
       </c>
-      <c r="D74" s="13" t="inlineStr">
+      <c r="D74" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E74" s="13" t="inlineStr">
+      <c r="E74" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F74" s="13" t="n"/>
-      <c r="G74" s="13" t="inlineStr">
+      <c r="F74" s="12" t="n"/>
+      <c r="G74" s="12" t="inlineStr">
         <is>
           <t>{"businessDeanId": 0, "businessDeanManner": "", "businessDeanName": "", "deanId": 0, "deanManner": "", "deanName": "", "id": 0, "medicalDirectorId": 0, "medicalDirectorManner": "", "medicalDirectorName": "", "mentionBillDirectorId": 0, "mentionBillDirectorManner": "", "mentionBillDirectorName": "", "otherMember": "", "pharmacyDirectorId": 0, "pharmacyDirectorManner": "", "pharmacyDirectorName": ""}</t>
         </is>
       </c>
     </row>
-    <row r="75" ht="26.4" customHeight="1" s="12">
-      <c r="A75" s="13" t="inlineStr">
+    <row r="75" ht="26.4" customHeight="1" s="11">
+      <c r="A75" s="12" t="inlineStr">
         <is>
           <t>产品开发进度单</t>
         </is>
       </c>
-      <c r="B75" s="13" t="inlineStr">
+      <c r="B75" s="12" t="inlineStr">
         <is>
           <t>Excel导入</t>
         </is>
       </c>
-      <c r="C75" s="13" t="inlineStr">
+      <c r="C75" s="12" t="inlineStr">
         <is>
           <t>/productDevSchedule/uploadExcel</t>
         </is>
       </c>
-      <c r="D75" s="13" t="inlineStr">
+      <c r="D75" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E75" s="13" t="inlineStr">
+      <c r="E75" s="12" t="inlineStr">
         <is>
           <t>multipart/form-data</t>
         </is>
       </c>
-      <c r="F75" s="13" t="n"/>
-      <c r="H75" s="13" t="inlineStr">
+      <c r="F75" s="12" t="n"/>
+      <c r="H75" s="12" t="inlineStr">
         <is>
           <t>[{'name': 'file', 'in': 'formData', 'description': 'file', 'required': True, 'type': 'file'}]</t>
         </is>
       </c>
     </row>
-    <row r="76" ht="39.6" customHeight="1" s="12">
-      <c r="A76" s="13" t="inlineStr">
+    <row r="76" ht="39.6" customHeight="1" s="11">
+      <c r="A76" s="12" t="inlineStr">
         <is>
           <t>协访列表</t>
         </is>
       </c>
-      <c r="B76" s="13" t="inlineStr">
+      <c r="B76" s="12" t="inlineStr">
         <is>
           <t>创建协访计划</t>
         </is>
       </c>
-      <c r="C76" s="13" t="inlineStr">
+      <c r="C76" s="12" t="inlineStr">
         <is>
           <t>/synergy/createSynergyPlan</t>
         </is>
       </c>
-      <c r="D76" s="13" t="inlineStr">
+      <c r="D76" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E76" s="13" t="inlineStr">
+      <c r="E76" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F76" s="13" t="n"/>
-      <c r="G76" s="13" t="inlineStr">
+      <c r="F76" s="12" t="n"/>
+      <c r="G76" s="12" t="inlineStr">
         <is>
           <t>{"checkTab": "", "planStartTime": "", "problemTab": "", "synergyName": "", "tutorialTab": "", "visitId": 0}</t>
         </is>
       </c>
     </row>
-    <row r="77" ht="52.8" customHeight="1" s="12">
-      <c r="A77" s="13" t="inlineStr">
+    <row r="77" ht="52.8" customHeight="1" s="11">
+      <c r="A77" s="12" t="inlineStr">
         <is>
           <t>协访列表</t>
         </is>
       </c>
-      <c r="B77" s="13" t="inlineStr">
+      <c r="B77" s="12" t="inlineStr">
         <is>
           <t>协访结果反馈</t>
         </is>
       </c>
-      <c r="C77" s="13" t="inlineStr">
+      <c r="C77" s="12" t="inlineStr">
         <is>
           <t>/synergy/feedbackResult</t>
         </is>
       </c>
-      <c r="D77" s="13" t="inlineStr">
+      <c r="D77" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E77" s="13" t="inlineStr">
+      <c r="E77" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F77" s="13" t="n"/>
-      <c r="G77" s="13" t="inlineStr">
+      <c r="F77" s="12" t="n"/>
+      <c r="G77" s="12" t="inlineStr">
         <is>
           <t>{"checkBasicInfo": "", "checkCustomer": "", "checkMeeting": "", "goalSetting": "", "problemResult": "", "productKnowledge": "", "recordId": 0, "tutorialResult": "", "visitSkill": ""}</t>
         </is>
       </c>
     </row>
-    <row r="78" ht="26.4" customHeight="1" s="12">
-      <c r="A78" s="13" t="inlineStr">
+    <row r="78" ht="26.4" customHeight="1" s="11">
+      <c r="A78" s="23" t="inlineStr">
         <is>
           <t>协访列表</t>
         </is>
       </c>
-      <c r="B78" s="13" t="inlineStr">
+      <c r="B78" s="23" t="inlineStr">
         <is>
           <t>协访分析</t>
         </is>
       </c>
-      <c r="C78" s="13" t="inlineStr">
+      <c r="C78" s="12" t="inlineStr">
         <is>
           <t>/synergy/queryAnalyseSynergyPlan</t>
         </is>
       </c>
-      <c r="D78" s="13" t="inlineStr">
+      <c r="D78" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E78" s="13" t="inlineStr">
+      <c r="E78" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F78" s="13" t="n"/>
-      <c r="G78" s="13" t="inlineStr">
+      <c r="F78" s="12" t="n"/>
+      <c r="G78" s="24" t="inlineStr">
         <is>
           <t>{"endTime": "", "startTime": "", "uid": 0}</t>
         </is>
       </c>
     </row>
-    <row r="79" ht="26.4" customHeight="1" s="12">
-      <c r="A79" s="13" t="inlineStr">
+    <row r="79" ht="26.4" customHeight="1" s="11">
+      <c r="A79" s="12" t="inlineStr">
         <is>
           <t>协访列表</t>
         </is>
       </c>
-      <c r="B79" s="13" t="inlineStr">
+      <c r="B79" s="12" t="inlineStr">
         <is>
           <t>我的协访计划列表</t>
         </is>
       </c>
-      <c r="C79" s="13" t="inlineStr">
+      <c r="C79" s="12" t="inlineStr">
         <is>
           <t>/synergy/querySynergyPlanList</t>
         </is>
       </c>
-      <c r="D79" s="13" t="inlineStr">
+      <c r="D79" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E79" s="13" t="inlineStr">
+      <c r="E79" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F79" s="13" t="n"/>
-      <c r="G79" s="13" t="inlineStr">
+      <c r="F79" s="12" t="n"/>
+      <c r="G79" s="12" t="inlineStr">
         <is>
           <t>{"privName": "", "searchName": "", "synergyStatus": 0}</t>
         </is>
       </c>
     </row>
-    <row r="80" ht="26.4" customHeight="1" s="12">
-      <c r="A80" s="13" t="inlineStr">
+    <row r="80" ht="26.4" customHeight="1" s="11">
+      <c r="A80" s="12" t="inlineStr">
         <is>
           <t>协访列表</t>
         </is>
       </c>
-      <c r="B80" s="13" t="inlineStr">
+      <c r="B80" s="12" t="inlineStr">
         <is>
           <t>我的协访计划列表(ERP团队主管)_v2.2</t>
         </is>
       </c>
-      <c r="C80" s="13" t="inlineStr">
+      <c r="C80" s="12" t="inlineStr">
         <is>
           <t>/synergy/querySynergyPlanList2</t>
         </is>
       </c>
-      <c r="D80" s="13" t="inlineStr">
+      <c r="D80" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E80" s="13" t="inlineStr">
+      <c r="E80" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F80" s="13" t="n"/>
-      <c r="G80" s="13" t="inlineStr">
+      <c r="F80" s="12" t="n"/>
+      <c r="G80" s="12" t="inlineStr">
         <is>
           <t>{"privName": "", "searchName": "", "synergyStatus": 0}</t>
         </is>
       </c>
     </row>
-    <row r="81" ht="26.4" customHeight="1" s="12">
-      <c r="A81" s="13" t="inlineStr">
+    <row r="81" ht="26.4" customHeight="1" s="11">
+      <c r="A81" s="12" t="inlineStr">
         <is>
           <t>系统配置</t>
         </is>
       </c>
-      <c r="B81" s="13" t="inlineStr">
+      <c r="B81" s="12" t="inlineStr">
         <is>
           <t>获取配置选项</t>
         </is>
       </c>
-      <c r="C81" s="13" t="inlineStr">
+      <c r="C81" s="12" t="inlineStr">
         <is>
           <t>/systemConfig/getConfigList</t>
         </is>
       </c>
-      <c r="D81" s="13" t="inlineStr">
+      <c r="D81" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E81" s="13" t="inlineStr">
+      <c r="E81" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F81" s="13" t="inlineStr">
+      <c r="F81" s="12" t="inlineStr">
         <is>
           <t>configName={*string}</t>
         </is>
       </c>
-      <c r="H81" s="13" t="inlineStr">
+      <c r="H81" s="12" t="inlineStr">
         <is>
           <t>[{'name': 'configName', 'in': 'query', 'description': '配置类型', 'required': True, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="13" t="inlineStr">
+      <c r="A82" s="12" t="inlineStr">
         <is>
           <t>菜单管理接口</t>
         </is>
       </c>
-      <c r="B82" s="13" t="inlineStr">
+      <c r="B82" s="12" t="inlineStr">
         <is>
           <t>菜单查询</t>
         </is>
       </c>
-      <c r="C82" s="13" t="inlineStr">
+      <c r="C82" s="12" t="inlineStr">
         <is>
           <t>/systemsMenu/menu</t>
         </is>
       </c>
-      <c r="D82" s="13" t="inlineStr">
+      <c r="D82" s="12" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
     </row>
-    <row r="83" ht="26.4" customHeight="1" s="12">
-      <c r="A83" s="13" t="inlineStr">
+    <row r="83" ht="26.4" customHeight="1" s="11">
+      <c r="A83" s="12" t="inlineStr">
         <is>
           <t>job测试</t>
         </is>
       </c>
-      <c r="B83" s="13" t="inlineStr">
+      <c r="B83" s="12" t="inlineStr">
         <is>
           <t>工作总结-00：00-指定日期数据记录</t>
         </is>
       </c>
-      <c r="C83" s="13" t="inlineStr">
+      <c r="C83" s="12" t="inlineStr">
         <is>
           <t>/task/dataOfYesterday</t>
         </is>
       </c>
-      <c r="D83" s="13" t="inlineStr">
+      <c r="D83" s="12" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F83" s="13" t="inlineStr">
+      <c r="F83" s="12" t="inlineStr">
         <is>
           <t>key={*string}&amp;queryDate={*string}</t>
         </is>
       </c>
-      <c r="H83" s="13" t="inlineStr">
+      <c r="H83" s="12" t="inlineStr">
         <is>
           <t>[{'name': 'key', 'in': 'query', 'description': '秘钥key', 'required': True, 'type': 'string'}, {'name': 'queryDate', 'in': 'query', 'description': '查询日期(yyyy-MM-dd)', 'required': True, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
-    <row r="84" ht="26.4" customHeight="1" s="12">
-      <c r="A84" s="13" t="inlineStr">
+    <row r="84" ht="26.4" customHeight="1" s="11">
+      <c r="A84" s="12" t="inlineStr">
         <is>
           <t>job测试</t>
         </is>
       </c>
-      <c r="B84" s="13" t="inlineStr">
+      <c r="B84" s="12" t="inlineStr">
         <is>
           <t>客户取消会后标识定时任务</t>
         </is>
       </c>
-      <c r="C84" s="13" t="inlineStr">
+      <c r="C84" s="12" t="inlineStr">
         <is>
           <t>/task/executeCustomerMarkTask</t>
         </is>
       </c>
-      <c r="D84" s="13" t="inlineStr">
+      <c r="D84" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E84" s="13" t="inlineStr">
+      <c r="E84" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F84" s="13" t="inlineStr">
+      <c r="F84" s="12" t="inlineStr">
         <is>
           <t>date={string}&amp;key={*string}</t>
         </is>
       </c>
-      <c r="H84" s="13" t="inlineStr">
+      <c r="H84" s="12" t="inlineStr">
         <is>
           <t>[{'name': 'date', 'in': 'query', 'description': 'yyyy-MM-dd', 'required': False, 'type': 'string'}, {'name': 'key', 'in': 'query', 'description': '秘钥key', 'required': True, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="13" t="inlineStr">
+      <c r="A85" s="12" t="inlineStr">
         <is>
           <t>job测试</t>
         </is>
       </c>
-      <c r="B85" s="13" t="inlineStr">
+      <c r="B85" s="12" t="inlineStr">
         <is>
           <t>高潜标识</t>
         </is>
       </c>
-      <c r="C85" s="13" t="inlineStr">
+      <c r="C85" s="12" t="inlineStr">
         <is>
           <t>/task/executeTask</t>
         </is>
       </c>
-      <c r="D85" s="13" t="inlineStr">
+      <c r="D85" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E85" s="13" t="inlineStr">
+      <c r="E85" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F85" s="13" t="inlineStr">
+      <c r="F85" s="12" t="inlineStr">
         <is>
           <t>key={*string}</t>
         </is>
       </c>
-      <c r="H85" s="13" t="inlineStr">
+      <c r="H85" s="12" t="inlineStr">
         <is>
           <t>[{'name': 'key', 'in': 'query', 'description': '秘钥key', 'required': True, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
-    <row r="86" ht="26.4" customHeight="1" s="12">
-      <c r="A86" s="13" t="inlineStr">
+    <row r="86" ht="26.4" customHeight="1" s="11">
+      <c r="A86" s="12" t="inlineStr">
         <is>
           <t>job测试</t>
         </is>
       </c>
-      <c r="B86" s="13" t="inlineStr">
+      <c r="B86" s="12" t="inlineStr">
         <is>
           <t>工作总结-19：30-今日待读空记录</t>
         </is>
       </c>
-      <c r="C86" s="13" t="inlineStr">
+      <c r="C86" s="12" t="inlineStr">
         <is>
           <t>/task/insertNullRecord</t>
         </is>
       </c>
-      <c r="D86" s="13" t="inlineStr">
+      <c r="D86" s="12" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F86" s="13" t="inlineStr">
+      <c r="F86" s="12" t="inlineStr">
         <is>
           <t>key={*string}</t>
         </is>
       </c>
-      <c r="H86" s="13" t="inlineStr">
+      <c r="H86" s="12" t="inlineStr">
         <is>
           <t>[{'name': 'key', 'in': 'query', 'description': '秘钥key', 'required': True, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
-    <row r="87" ht="26.4" customHeight="1" s="12">
-      <c r="A87" s="13" t="inlineStr">
+    <row r="87" ht="26.4" customHeight="1" s="11">
+      <c r="A87" s="12" t="inlineStr">
         <is>
           <t>job测试</t>
         </is>
       </c>
-      <c r="B87" s="13" t="inlineStr">
+      <c r="B87" s="12" t="inlineStr">
         <is>
           <t>工作总结-测试生成数据</t>
         </is>
       </c>
-      <c r="C87" s="13" t="inlineStr">
+      <c r="C87" s="12" t="inlineStr">
         <is>
           <t>/task/testStatData</t>
         </is>
       </c>
-      <c r="D87" s="13" t="inlineStr">
+      <c r="D87" s="12" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F87" s="13" t="inlineStr">
+      <c r="F87" s="12" t="inlineStr">
         <is>
           <t>key={*string}&amp;strDate={*string}</t>
         </is>
       </c>
-      <c r="H87" s="13" t="inlineStr">
+      <c r="H87" s="12" t="inlineStr">
         <is>
           <t>[{'name': 'key', 'in': 'query', 'description': '秘钥key', 'required': True, 'type': 'string'}, {'name': 'strDate', 'in': 'query', 'description': '查询日期(yyyy-MM-dd)', 'required': True, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
-    <row r="88" ht="26.4" customHeight="1" s="12">
-      <c r="A88" s="13" t="inlineStr">
+    <row r="88" ht="26.4" customHeight="1" s="11">
+      <c r="A88" s="12" t="inlineStr">
         <is>
           <t>用户信息</t>
         </is>
       </c>
-      <c r="B88" s="13" t="inlineStr">
+      <c r="B88" s="12" t="inlineStr">
         <is>
           <t>包含层级关系的区域经理列表</t>
         </is>
       </c>
-      <c r="C88" s="13" t="inlineStr">
+      <c r="C88" s="12" t="inlineStr">
         <is>
           <t>/user/getAreaManager</t>
         </is>
       </c>
-      <c r="D88" s="13" t="inlineStr">
+      <c r="D88" s="12" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
     </row>
-    <row r="89" ht="26.4" customHeight="1" s="12">
-      <c r="A89" s="13" t="inlineStr">
+    <row r="89" ht="26.4" customHeight="1" s="11">
+      <c r="A89" s="12" t="inlineStr">
         <is>
           <t>用户信息</t>
         </is>
       </c>
-      <c r="B89" s="13" t="inlineStr">
+      <c r="B89" s="12" t="inlineStr">
         <is>
           <t>区域经理列表</t>
         </is>
       </c>
-      <c r="C89" s="13" t="inlineStr">
+      <c r="C89" s="12" t="inlineStr">
         <is>
           <t>/user/getAreaManagerList</t>
         </is>
       </c>
-      <c r="D89" s="13" t="inlineStr">
+      <c r="D89" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E89" s="13" t="inlineStr">
+      <c r="E89" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
     </row>
-    <row r="90" ht="26.4" customHeight="1" s="12">
-      <c r="A90" s="13" t="inlineStr">
+    <row r="90" ht="26.4" customHeight="1" s="11">
+      <c r="A90" s="12" t="inlineStr">
         <is>
           <t>用户信息</t>
         </is>
       </c>
-      <c r="B90" s="13" t="inlineStr">
+      <c r="B90" s="12" t="inlineStr">
         <is>
           <t>根据部门查询代表</t>
         </is>
       </c>
-      <c r="C90" s="13" t="inlineStr">
+      <c r="C90" s="12" t="inlineStr">
         <is>
           <t>/user/getDelegateByManager</t>
         </is>
       </c>
-      <c r="D90" s="13" t="inlineStr">
+      <c r="D90" s="12" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F90" s="13" t="n"/>
+      <c r="F90" s="12" t="n"/>
     </row>
     <row r="91">
-      <c r="A91" s="13" t="inlineStr">
+      <c r="A91" s="12" t="inlineStr">
         <is>
           <t>用户信息</t>
         </is>
       </c>
-      <c r="B91" s="13" t="inlineStr">
+      <c r="B91" s="12" t="inlineStr">
         <is>
           <t>查询代表列表</t>
         </is>
       </c>
-      <c r="C91" s="13" t="inlineStr">
+      <c r="C91" s="12" t="inlineStr">
         <is>
           <t>/user/getDelegateList</t>
         </is>
       </c>
-      <c r="D91" s="13" t="inlineStr">
+      <c r="D91" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E91" s="13" t="inlineStr">
+      <c r="E91" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
     </row>
-    <row r="92" ht="26.4" customHeight="1" s="12">
-      <c r="A92" s="13" t="inlineStr">
+    <row r="92" ht="26.4" customHeight="1" s="11">
+      <c r="A92" s="12" t="inlineStr">
         <is>
           <t>用户信息</t>
         </is>
       </c>
-      <c r="B92" s="13" t="inlineStr">
+      <c r="B92" s="12" t="inlineStr">
         <is>
           <t>根据辅助角色串获取erp角色名称_v2.2</t>
         </is>
       </c>
-      <c r="C92" s="13" t="inlineStr">
+      <c r="C92" s="12" t="inlineStr">
         <is>
           <t>/user/getErpRoleNameByUserPrivOther</t>
         </is>
       </c>
-      <c r="D92" s="13" t="inlineStr">
+      <c r="D92" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E92" s="13" t="inlineStr">
+      <c r="E92" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F92" s="13" t="inlineStr">
+      <c r="F92" s="12" t="inlineStr">
         <is>
           <t>userPrivOther={*string}</t>
         </is>
       </c>
-      <c r="H92" s="13" t="inlineStr">
+      <c r="H92" s="12" t="inlineStr">
         <is>
           <t>[{'name': 'userPrivOther', 'in': 'query', 'description': '辅助角色串', 'required': True, 'type': 'string', 'allowEmptyValue': False}]</t>
         </is>
       </c>
     </row>
-    <row r="93" ht="26.4" customHeight="1" s="12">
-      <c r="A93" s="13" t="inlineStr">
+    <row r="93" ht="26.4" customHeight="1" s="11">
+      <c r="A93" s="12" t="inlineStr">
         <is>
           <t>用户信息</t>
         </is>
       </c>
-      <c r="B93" s="13" t="inlineStr">
+      <c r="B93" s="12" t="inlineStr">
         <is>
           <t>区域经理、医药代表用户列表</t>
         </is>
       </c>
-      <c r="C93" s="13" t="inlineStr">
+      <c r="C93" s="12" t="inlineStr">
         <is>
           <t>/user/getUser</t>
         </is>
       </c>
-      <c r="D93" s="13" t="inlineStr">
+      <c r="D93" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E93" s="13" t="inlineStr">
+      <c r="E93" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F93" s="13" t="inlineStr">
+      <c r="F93" s="12" t="inlineStr">
         <is>
           <t>name={string}</t>
         </is>
       </c>
-      <c r="H93" s="13" t="inlineStr">
+      <c r="H93" s="12" t="inlineStr">
         <is>
           <t>[{'name': 'name', 'in': 'query', 'description': 'name', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
-    <row r="94" ht="26.4" customHeight="1" s="12">
-      <c r="A94" s="13" t="inlineStr">
+    <row r="94" ht="26.4" customHeight="1" s="11">
+      <c r="A94" s="12" t="inlineStr">
         <is>
           <t>用户信息</t>
         </is>
       </c>
-      <c r="B94" s="13" t="inlineStr">
+      <c r="B94" s="12" t="inlineStr">
         <is>
           <t>获取当前登录人用户信息</t>
         </is>
       </c>
-      <c r="C94" s="13" t="inlineStr">
+      <c r="C94" s="12" t="inlineStr">
         <is>
           <t>/user/getUserInfo</t>
         </is>
       </c>
-      <c r="D94" s="13" t="inlineStr">
+      <c r="D94" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E94" s="13" t="inlineStr">
+      <c r="E94" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
     </row>
-    <row r="95" ht="26.4" customHeight="1" s="12">
-      <c r="A95" s="13" t="inlineStr">
+    <row r="95" ht="26.4" customHeight="1" s="11">
+      <c r="A95" s="12" t="inlineStr">
         <is>
           <t>用户信息</t>
         </is>
       </c>
-      <c r="B95" s="13" t="inlineStr">
+      <c r="B95" s="12" t="inlineStr">
         <is>
           <t>根据登录人信息获取自己及下级用户列表</t>
         </is>
       </c>
-      <c r="C95" s="13" t="inlineStr">
+      <c r="C95" s="12" t="inlineStr">
         <is>
           <t>/user/getUserListByLoginUser</t>
         </is>
       </c>
-      <c r="D95" s="13" t="inlineStr">
+      <c r="D95" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E95" s="13" t="inlineStr">
+      <c r="E95" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
     </row>
-    <row r="96" ht="198" customHeight="1" s="12">
-      <c r="A96" s="13" t="inlineStr">
+    <row r="96" ht="198" customHeight="1" s="11">
+      <c r="A96" s="12" t="inlineStr">
         <is>
           <t>拜访相关接口</t>
         </is>
       </c>
-      <c r="B96" s="13" t="inlineStr">
+      <c r="B96" s="12" t="inlineStr">
         <is>
           <t>录入拜访结果</t>
         </is>
       </c>
-      <c r="C96" s="13" t="inlineStr">
+      <c r="C96" s="12" t="inlineStr">
         <is>
           <t>/visit/accomplishVisit</t>
         </is>
       </c>
-      <c r="D96" s="13" t="inlineStr">
+      <c r="D96" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E96" s="13" t="inlineStr">
+      <c r="E96" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F96" s="13" t="n"/>
-      <c r="G96" s="13" t="inlineStr">
+      <c r="F96" s="12" t="n"/>
+      <c r="G96" s="12" t="inlineStr">
         <is>
           <t>{"competingGoodsInformation": [{"id": 0, "name": "", "agreeNum": 0, "customerId": 0, "latelyConcept": 0, "opposeNum": 0, "productConceptId": 0, "productConceptName": "", "productId": 0}], "customerId": 0, "development": "", "exploitCode": "", "exploitId": 0, "marketConcept": "", "marketConclude": "", "marketCustomerRelationScore": 0, "marketMeeting": "", "marketQuantity": "", "productConcept": [{"id": 0, "name": "", "agreeNum": 0, "customerId": 0, "latelyConcept": 0, "opposeNum": 0, "productConceptId": 0, "productConceptName": "", "productId": 0}], "productName": "", "purposeType": "", "visitId": 0}</t>
         </is>
       </c>
     </row>
-    <row r="97" ht="145.2" customHeight="1" s="12">
-      <c r="A97" s="13" t="inlineStr">
+    <row r="97" ht="145.2" customHeight="1" s="11">
+      <c r="A97" s="12" t="inlineStr">
         <is>
           <t>拜访相关接口</t>
         </is>
       </c>
-      <c r="B97" s="13" t="inlineStr">
+      <c r="B97" s="12" t="inlineStr">
         <is>
           <t>创建拜访计划</t>
         </is>
       </c>
-      <c r="C97" s="13" t="inlineStr">
+      <c r="C97" s="12" t="inlineStr">
         <is>
           <t>/visit/createVisit</t>
         </is>
       </c>
-      <c r="D97" s="13" t="inlineStr">
+      <c r="D97" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E97" s="13" t="inlineStr">
+      <c r="E97" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F97" s="13" t="n"/>
-      <c r="G97" s="13" t="inlineStr">
+      <c r="F97" s="12" t="n"/>
+      <c r="G97" s="12" t="inlineStr">
         <is>
           <t>{"customerId": 0, "customerName": "", "exploit": "", "exploitCode": "", "exploitId": 0, "exploitPriv": 0, "goalCase": 0, "hospitalId": 0, "hospitalName": "", "meeting": "", "meetingId": 0, "meetingPriv": 0, "nowCase": 0, "planStartTime": "", "potential": 0, "productConcept": [{"agreeNum": 0, "customerId": 0, "id": 0, "latelyConcept": 0, "opposeNum": 0, "productConceptId": 0, "productConceptName": "", "productId": 0}], "productId": 0, "productName": "", "purpose": "", "purposeType": "", "relation": 0}</t>
         </is>
       </c>
     </row>
-    <row r="98" ht="26.4" customHeight="1" s="12">
-      <c r="A98" s="13" t="inlineStr">
+    <row r="98" ht="26.4" customHeight="1" s="11">
+      <c r="A98" s="12" t="inlineStr">
         <is>
           <t>拜访相关接口</t>
         </is>
       </c>
-      <c r="B98" s="13" t="inlineStr">
+      <c r="B98" s="12" t="inlineStr">
         <is>
           <t>删除拜访计划</t>
         </is>
       </c>
-      <c r="C98" s="13" t="inlineStr">
+      <c r="C98" s="12" t="inlineStr">
         <is>
           <t>/visit/deleteVisit</t>
         </is>
       </c>
-      <c r="D98" s="13" t="inlineStr">
+      <c r="D98" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E98" s="13" t="inlineStr">
+      <c r="E98" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F98" s="13" t="n"/>
-      <c r="G98" s="13" t="inlineStr">
+      <c r="F98" s="12" t="n"/>
+      <c r="G98" s="12" t="inlineStr">
         <is>
           <t>{"dimensionality": "", "id": 0, "longitude": "", "state": 0}</t>
         </is>
       </c>
     </row>
-    <row r="99" ht="26.4" customHeight="1" s="12">
-      <c r="A99" s="13" t="inlineStr">
+    <row r="99" ht="26.4" customHeight="1" s="11">
+      <c r="A99" s="12" t="inlineStr">
         <is>
           <t>拜访相关接口</t>
         </is>
       </c>
-      <c r="B99" s="13" t="inlineStr">
+      <c r="B99" s="12" t="inlineStr">
         <is>
           <t>查询该客户在产品开发中的角色</t>
         </is>
       </c>
-      <c r="C99" s="13" t="inlineStr">
+      <c r="C99" s="12" t="inlineStr">
         <is>
           <t>/visit/getCustomerInDevRole</t>
         </is>
       </c>
-      <c r="D99" s="13" t="inlineStr">
+      <c r="D99" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E99" s="13" t="inlineStr">
+      <c r="E99" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F99" s="13" t="n"/>
-      <c r="G99" s="13" t="inlineStr">
+      <c r="F99" s="12" t="n"/>
+      <c r="G99" s="12" t="inlineStr">
         <is>
           <t>{"customerId": 0, "devScheduleId": 0}</t>
         </is>
       </c>
     </row>
-    <row r="100" ht="26.4" customHeight="1" s="12">
-      <c r="A100" s="13" t="inlineStr">
+    <row r="100" ht="26.4" customHeight="1" s="11">
+      <c r="A100" s="12" t="inlineStr">
         <is>
           <t>拜访相关接口</t>
         </is>
       </c>
-      <c r="B100" s="13" t="inlineStr">
+      <c r="B100" s="12" t="inlineStr">
         <is>
           <t>可选产品开发会议</t>
         </is>
       </c>
-      <c r="C100" s="13" t="inlineStr">
+      <c r="C100" s="12" t="inlineStr">
         <is>
           <t>/visit/getDevScheduleByClientId</t>
         </is>
       </c>
-      <c r="D100" s="13" t="inlineStr">
+      <c r="D100" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E100" s="13" t="inlineStr">
+      <c r="E100" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F100" s="13" t="n"/>
-      <c r="G100" s="13" t="inlineStr">
+      <c r="F100" s="12" t="n"/>
+      <c r="G100" s="12" t="inlineStr">
         <is>
           <t>{"customerId": 0, "devScheduleId": 0}</t>
         </is>
       </c>
     </row>
-    <row r="101" ht="26.4" customHeight="1" s="12">
-      <c r="A101" s="13" t="inlineStr">
+    <row r="101" ht="26.4" customHeight="1" s="11">
+      <c r="A101" s="12" t="inlineStr">
         <is>
           <t>拜访相关接口</t>
         </is>
       </c>
-      <c r="B101" s="13" t="inlineStr">
+      <c r="B101" s="12" t="inlineStr">
         <is>
           <t>可选会议</t>
         </is>
       </c>
-      <c r="C101" s="13" t="inlineStr">
+      <c r="C101" s="12" t="inlineStr">
         <is>
           <t>/visit/getMeetingByCustomerId</t>
         </is>
       </c>
-      <c r="D101" s="13" t="inlineStr">
+      <c r="D101" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E101" s="13" t="inlineStr">
+      <c r="E101" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F101" s="13" t="n"/>
-      <c r="G101" s="13" t="inlineStr">
+      <c r="F101" s="12" t="n"/>
+      <c r="G101" s="12" t="inlineStr">
         <is>
           <t>{"customerId": 0, "devScheduleId": 0}</t>
         </is>
       </c>
     </row>
-    <row r="102" ht="26.4" customHeight="1" s="12">
-      <c r="A102" s="13" t="inlineStr">
+    <row r="102" ht="26.4" customHeight="1" s="11">
+      <c r="A102" s="12" t="inlineStr">
         <is>
           <t>拜访相关接口</t>
         </is>
       </c>
-      <c r="B102" s="13" t="inlineStr">
+      <c r="B102" s="12" t="inlineStr">
         <is>
           <t>根据拜访id查询拜访详情</t>
         </is>
       </c>
-      <c r="C102" s="13" t="inlineStr">
+      <c r="C102" s="12" t="inlineStr">
         <is>
           <t>/visit/getVisitPurpose</t>
         </is>
       </c>
-      <c r="D102" s="13" t="inlineStr">
+      <c r="D102" s="12" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F102" s="13" t="inlineStr">
+      <c r="F102" s="12" t="inlineStr">
         <is>
           <t>visitId={*integer}</t>
         </is>
       </c>
-      <c r="H102" s="13" t="inlineStr">
+      <c r="H102" s="12" t="inlineStr">
         <is>
           <t>[{'name': 'visitId', 'in': 'query', 'description': 'visitId', 'required': True, 'type': 'integer', 'format': 'int64'}]</t>
         </is>
       </c>
     </row>
-    <row r="103" ht="26.4" customHeight="1" s="12">
-      <c r="A103" s="13" t="inlineStr">
+    <row r="103" ht="26.4" customHeight="1" s="11">
+      <c r="A103" s="12" t="inlineStr">
         <is>
           <t>拜访相关接口</t>
         </is>
       </c>
-      <c r="B103" s="13" t="inlineStr">
+      <c r="B103" s="12" t="inlineStr">
         <is>
           <t>根据拜访目的字段查询市场对应拜访结果</t>
         </is>
       </c>
-      <c r="C103" s="13" t="inlineStr">
+      <c r="C103" s="12" t="inlineStr">
         <is>
           <t>/visit/getVisitPurposeResult</t>
         </is>
       </c>
-      <c r="D103" s="13" t="inlineStr">
+      <c r="D103" s="12" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F103" s="13" t="inlineStr">
+      <c r="F103" s="12" t="inlineStr">
         <is>
           <t>purpose={*string}</t>
         </is>
       </c>
-      <c r="H103" s="13" t="inlineStr">
+      <c r="H103" s="12" t="inlineStr">
         <is>
           <t>[{'name': 'purpose', 'in': 'query', 'description': 'purpose', 'required': True, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
-    <row r="104" ht="26.4" customHeight="1" s="12">
-      <c r="A104" s="13" t="inlineStr">
+    <row r="104" ht="26.4" customHeight="1" s="11">
+      <c r="A104" s="12" t="inlineStr">
         <is>
           <t>拜访相关接口</t>
         </is>
       </c>
-      <c r="B104" s="13" t="inlineStr">
+      <c r="B104" s="12" t="inlineStr">
         <is>
           <t>根据客户id获取产品潜力和竞品信息</t>
         </is>
       </c>
-      <c r="C104" s="13" t="inlineStr">
+      <c r="C104" s="12" t="inlineStr">
         <is>
           <t>/visit/potential</t>
         </is>
       </c>
-      <c r="D104" s="13" t="inlineStr">
+      <c r="D104" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E104" s="13" t="inlineStr">
+      <c r="E104" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F104" s="13" t="n"/>
-      <c r="G104" s="13" t="inlineStr">
+      <c r="F104" s="12" t="n"/>
+      <c r="G104" s="12" t="inlineStr">
         <is>
           <t>{"customerId": 0, "productId": 0, "productName": ""}</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="13" t="inlineStr">
+      <c r="A105" s="12" t="inlineStr">
         <is>
           <t>拜访相关接口</t>
         </is>
       </c>
-      <c r="B105" s="13" t="inlineStr">
+      <c r="B105" s="12" t="inlineStr">
         <is>
           <t>拜访目的</t>
         </is>
       </c>
-      <c r="C105" s="13" t="inlineStr">
+      <c r="C105" s="12" t="inlineStr">
         <is>
           <t>/visit/purpose</t>
         </is>
       </c>
-      <c r="D105" s="13" t="inlineStr">
+      <c r="D105" s="12" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
     </row>
-    <row r="106" ht="26.4" customHeight="1" s="12">
-      <c r="A106" s="13" t="inlineStr">
+    <row r="106" ht="26.4" customHeight="1" s="11">
+      <c r="A106" s="12" t="inlineStr">
         <is>
           <t>拜访相关接口</t>
         </is>
       </c>
-      <c r="B106" s="13" t="inlineStr">
+      <c r="B106" s="12" t="inlineStr">
         <is>
           <t>查询下属拜访计划</t>
         </is>
       </c>
-      <c r="C106" s="13" t="inlineStr">
+      <c r="C106" s="12" t="inlineStr">
         <is>
           <t>/visit/querySubordinatePlan</t>
         </is>
       </c>
-      <c r="D106" s="13" t="inlineStr">
+      <c r="D106" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E106" s="13" t="inlineStr">
+      <c r="E106" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F106" s="13" t="inlineStr">
+      <c r="F106" s="12" t="inlineStr">
         <is>
           <t>searchName={string}</t>
         </is>
       </c>
-      <c r="H106" s="13" t="inlineStr">
+      <c r="H106" s="12" t="inlineStr">
         <is>
           <t>[{'name': 'searchName', 'in': 'query', 'description': '医生、医院、代表', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
-    <row r="107" ht="39.6" customHeight="1" s="12">
-      <c r="A107" s="13" t="inlineStr">
+    <row r="107" ht="39.6" customHeight="1" s="11">
+      <c r="A107" s="12" t="inlineStr">
         <is>
           <t>拜访相关接口</t>
         </is>
       </c>
-      <c r="B107" s="13" t="inlineStr">
+      <c r="B107" s="12" t="inlineStr">
         <is>
           <t>查询下属拜访计划(ERP团队主管)_v2.2</t>
         </is>
       </c>
-      <c r="C107" s="13" t="inlineStr">
+      <c r="C107" s="12" t="inlineStr">
         <is>
           <t>/visit/querySubordinatePlan2</t>
         </is>
       </c>
-      <c r="D107" s="13" t="inlineStr">
+      <c r="D107" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E107" s="13" t="inlineStr">
+      <c r="E107" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F107" s="13" t="inlineStr">
+      <c r="F107" s="12" t="inlineStr">
         <is>
           <t>privName={string}&amp;searchName={string}</t>
         </is>
       </c>
-      <c r="H107" s="13" t="inlineStr">
+      <c r="H107" s="12" t="inlineStr">
         <is>
           <t>[{'name': 'privName', 'in': 'query', 'description': '角色名称', 'required': False, 'type': 'string', 'allowEmptyValue': False}, {'name': 'searchName', 'in': 'query', 'description': '医生、医院、代表', 'required': False, 'type': 'string', 'allowEmptyValue': False}]</t>
         </is>
       </c>
     </row>
-    <row r="108" ht="26.4" customHeight="1" s="12">
-      <c r="A108" s="13" t="inlineStr">
+    <row r="108" ht="26.4" customHeight="1" s="11">
+      <c r="A108" s="12" t="inlineStr">
         <is>
           <t>拜访相关接口</t>
         </is>
       </c>
-      <c r="B108" s="13" t="inlineStr">
+      <c r="B108" s="12" t="inlineStr">
         <is>
           <t>客情关系</t>
         </is>
       </c>
-      <c r="C108" s="13" t="inlineStr">
+      <c r="C108" s="12" t="inlineStr">
         <is>
           <t>/visit/relation</t>
         </is>
       </c>
-      <c r="D108" s="13" t="inlineStr">
+      <c r="D108" s="12" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F108" s="13" t="inlineStr">
+      <c r="F108" s="12" t="inlineStr">
         <is>
           <t>customerId={*integer}</t>
         </is>
       </c>
-      <c r="H108" s="13" t="inlineStr">
+      <c r="H108" s="12" t="inlineStr">
         <is>
           <t>[{'name': 'customerId', 'in': 'query', 'description': 'customerId', 'required': True, 'type': 'integer', 'format': 'int64'}]</t>
         </is>
       </c>
     </row>
-    <row r="109" ht="26.4" customHeight="1" s="12">
-      <c r="A109" s="13" t="inlineStr">
+    <row r="109" ht="26.4" customHeight="1" s="11">
+      <c r="A109" s="12" t="inlineStr">
         <is>
           <t>拜访相关接口</t>
         </is>
       </c>
-      <c r="B109" s="13" t="inlineStr">
+      <c r="B109" s="12" t="inlineStr">
         <is>
           <t>拜访计划状态修改</t>
         </is>
       </c>
-      <c r="C109" s="13" t="inlineStr">
+      <c r="C109" s="12" t="inlineStr">
         <is>
           <t>/visit/updateVisit</t>
         </is>
       </c>
-      <c r="D109" s="13" t="inlineStr">
+      <c r="D109" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E109" s="13" t="inlineStr">
+      <c r="E109" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F109" s="13" t="n"/>
-      <c r="G109" s="13" t="inlineStr">
+      <c r="F109" s="12" t="n"/>
+      <c r="G109" s="12" t="inlineStr">
         <is>
           <t>{"dimensionality": "", "id": 0, "longitude": "", "state": 0}</t>
         </is>
       </c>
     </row>
-    <row r="110" ht="39.6" customHeight="1" s="12">
-      <c r="A110" s="13" t="inlineStr">
+    <row r="110" ht="39.6" customHeight="1" s="11">
+      <c r="A110" s="12" t="inlineStr">
         <is>
           <t>拜访相关接口</t>
         </is>
       </c>
-      <c r="B110" s="13" t="inlineStr">
+      <c r="B110" s="12" t="inlineStr">
         <is>
           <t>拜访分析报表</t>
         </is>
       </c>
-      <c r="C110" s="13" t="inlineStr">
+      <c r="C110" s="12" t="inlineStr">
         <is>
           <t>/visit/visitAnalysis</t>
         </is>
       </c>
-      <c r="D110" s="13" t="inlineStr">
+      <c r="D110" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E110" s="13" t="inlineStr">
+      <c r="E110" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F110" s="13" t="n"/>
-      <c r="G110" s="13" t="inlineStr">
+      <c r="F110" s="12" t="n"/>
+      <c r="G110" s="24" t="inlineStr">
         <is>
           <t>{"currPage": 0, "deptId": "", "endTime": "", "pageSize": 0, "searchId": "", "searchName": "", "starTime": ""}</t>
         </is>
       </c>
     </row>
-    <row r="111" ht="39.6" customHeight="1" s="12">
-      <c r="A111" s="13" t="inlineStr">
+    <row r="111" ht="39.6" customHeight="1" s="11">
+      <c r="A111" s="12" t="inlineStr">
         <is>
           <t>拜访相关接口</t>
         </is>
       </c>
-      <c r="B111" s="13" t="inlineStr">
+      <c r="B111" s="12" t="inlineStr">
         <is>
           <t>拜访分析明细报表</t>
         </is>
       </c>
-      <c r="C111" s="13" t="inlineStr">
+      <c r="C111" s="12" t="inlineStr">
         <is>
           <t>/visit/visitAnalysisInfoList</t>
         </is>
       </c>
-      <c r="D111" s="13" t="inlineStr">
+      <c r="D111" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E111" s="13" t="inlineStr">
+      <c r="E111" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F111" s="13" t="n"/>
-      <c r="G111" s="13" t="inlineStr">
+      <c r="F111" s="12" t="n"/>
+      <c r="G111" s="12" t="inlineStr">
         <is>
           <t>{"currPage": 0, "deptId": "", "endTime": "", "pageSize": 0, "searchId": "", "searchName": "", "starTime": ""}</t>
         </is>
       </c>
     </row>
-    <row r="112" ht="26.4" customHeight="1" s="12">
-      <c r="A112" s="13" t="inlineStr">
+    <row r="112" ht="26.4" customHeight="1" s="11">
+      <c r="A112" s="12" t="inlineStr">
         <is>
           <t>拜访相关接口</t>
         </is>
       </c>
-      <c r="B112" s="13" t="inlineStr">
+      <c r="B112" s="12" t="inlineStr">
         <is>
           <t>拜访计划列表</t>
         </is>
       </c>
-      <c r="C112" s="13" t="inlineStr">
+      <c r="C112" s="12" t="inlineStr">
         <is>
           <t>/visit/visitList</t>
         </is>
       </c>
-      <c r="D112" s="13" t="inlineStr">
+      <c r="D112" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E112" s="13" t="inlineStr">
+      <c r="E112" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F112" s="13" t="n"/>
-      <c r="G112" s="13" t="inlineStr">
+      <c r="F112" s="12" t="n"/>
+      <c r="G112" s="12" t="inlineStr">
         <is>
           <t>{"currPage": 0, "pageSize": 0, "searchParams": "", "type": 0}</t>
         </is>
       </c>
     </row>
-    <row r="113" ht="26.4" customHeight="1" s="12">
-      <c r="A113" s="13" t="inlineStr">
+    <row r="113" ht="26.4" customHeight="1" s="11">
+      <c r="A113" s="12" t="inlineStr">
         <is>
           <t>工作总结</t>
         </is>
       </c>
-      <c r="B113" s="13" t="inlineStr">
+      <c r="B113" s="12" t="inlineStr">
         <is>
           <t>APP-未读总数</t>
         </is>
       </c>
-      <c r="C113" s="13" t="inlineStr">
+      <c r="C113" s="12" t="inlineStr">
         <is>
           <t>/workSummary/getSumOfUnread</t>
         </is>
       </c>
-      <c r="D113" s="13" t="inlineStr">
+      <c r="D113" s="12" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
     </row>
-    <row r="114" ht="26.4" customHeight="1" s="12">
-      <c r="A114" s="13" t="inlineStr">
+    <row r="114" ht="26.4" customHeight="1" s="11">
+      <c r="A114" s="12" t="inlineStr">
         <is>
           <t>工作总结</t>
         </is>
       </c>
-      <c r="B114" s="13" t="inlineStr">
+      <c r="B114" s="12" t="inlineStr">
         <is>
           <t>APP-消息分页列表</t>
         </is>
       </c>
-      <c r="C114" s="13" t="inlineStr">
+      <c r="C114" s="12" t="inlineStr">
         <is>
           <t>/workSummary/pageList</t>
         </is>
       </c>
-      <c r="D114" s="13" t="inlineStr">
+      <c r="D114" s="12" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F114" s="13" t="inlineStr">
+      <c r="F114" s="12" t="inlineStr">
         <is>
           <t>currPage={integer}&amp;pageSize={integer}</t>
         </is>
       </c>
-      <c r="H114" s="13" t="inlineStr">
+      <c r="H114" s="12" t="inlineStr">
         <is>
           <t>[{'name': 'currPage', 'in': 'query', 'required': False, 'type': 'integer', 'format': 'int64'}, {'name': 'pageSize', 'in': 'query', 'required': False, 'type': 'integer', 'format': 'int64'}]</t>
         </is>
       </c>
     </row>
-    <row r="115" ht="26.4" customHeight="1" s="12">
-      <c r="A115" s="13" t="inlineStr">
+    <row r="115" ht="26.4" customHeight="1" s="11">
+      <c r="A115" s="12" t="inlineStr">
         <is>
           <t>工作总结</t>
         </is>
       </c>
-      <c r="B115" s="13" t="inlineStr">
+      <c r="B115" s="12" t="inlineStr">
         <is>
           <t>APP-更新未读为已读</t>
         </is>
       </c>
-      <c r="C115" s="13" t="inlineStr">
+      <c r="C115" s="12" t="inlineStr">
         <is>
           <t>/workSummary/updateUnreadToRead</t>
         </is>
       </c>
-      <c r="D115" s="13" t="inlineStr">
+      <c r="D115" s="12" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E115" s="13" t="inlineStr">
+      <c r="E115" s="12" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
-      <c r="F115" s="13" t="inlineStr">
+      <c r="F115" s="12" t="inlineStr">
         <is>
           <t>readId={integer}</t>
         </is>
       </c>
-      <c r="H115" s="13" t="inlineStr">
+      <c r="H115" s="12" t="inlineStr">
         <is>
           <t>[{'name': 'readId', 'in': 'query', 'description': '消息id（-1表示一键已读）', 'required': False, 'type': 'integer', 'format': 'int32'}]</t>
         </is>
@@ -4349,6 +4372,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -4359,23 +4383,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="20.4" outlineLevelCol="0"/>
   <cols>
     <col width="12" customWidth="1" style="9" min="1" max="1"/>
-    <col width="26.77734375" customWidth="1" style="9" min="2" max="4"/>
-    <col width="30.21875" customWidth="1" style="9" min="5" max="5"/>
-    <col width="30.6640625" customWidth="1" style="9" min="6" max="6"/>
-    <col width="8.88671875" customWidth="1" style="9" min="7" max="41"/>
-    <col width="8.88671875" customWidth="1" style="9" min="42" max="16384"/>
+    <col width="26.77734375" customWidth="1" style="9" min="2" max="2"/>
+    <col width="58.5546875" customWidth="1" style="25" min="3" max="3"/>
+    <col width="41.77734375" customWidth="1" style="9" min="4" max="4"/>
+    <col width="37" customWidth="1" style="9" min="5" max="5"/>
+    <col width="8.88671875" customWidth="1" style="9" min="6" max="47"/>
+    <col width="8.88671875" customWidth="1" style="9" min="48" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.2" customHeight="1" s="12">
+    <row r="1" ht="25.2" customHeight="1" s="11">
       <c r="A1" s="8" t="inlineStr">
         <is>
           <t>isRun</t>
@@ -4388,45 +4413,46 @@
       </c>
       <c r="C1" s="8" t="inlineStr">
         <is>
-          <t>区域</t>
+          <t>参数</t>
         </is>
       </c>
       <c r="D1" s="8" t="inlineStr">
         <is>
-          <t>代表名称</t>
+          <t>参数说明</t>
         </is>
       </c>
       <c r="E1" s="8" t="inlineStr">
         <is>
-          <t>起始日期</t>
-        </is>
-      </c>
-      <c r="F1" s="8" t="inlineStr">
-        <is>
-          <t>结束日期</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="21" customHeight="1" s="12">
+          <t>报表标题中时间区域</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="93.59999999999999" customHeight="1" s="11">
       <c r="B2" s="10" t="inlineStr">
         <is>
           <t>拜访分析报表</t>
         </is>
       </c>
-      <c r="C2" s="10" t="n"/>
-      <c r="D2" s="10" t="n"/>
-      <c r="E2" s="11" t="inlineStr">
-        <is>
-          <t>2022-06-01</t>
-        </is>
-      </c>
-      <c r="F2" s="11" t="inlineStr">
-        <is>
-          <t>2022-06-30</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="21" customHeight="1" s="12">
+      <c r="C2" s="25" t="inlineStr">
+        <is>
+          <t>{"currPage": 0, "deptId": "", "endTime": "2022-06-30 23:59:59", "pageSize": 0, "searchId": "", "searchName": "", "starTime": "2022-06-01"}</t>
+        </is>
+      </c>
+      <c r="D2" s="25" t="inlineStr">
+        <is>
+          <t>starTime：开始时间
+endTime：结束时间
+deptId:区域
+searchId:代表名称</t>
+        </is>
+      </c>
+      <c r="E2" s="9" t="inlineStr">
+        <is>
+          <t>2022-06-01~2022-06-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="79.2" customHeight="1" s="11">
       <c r="A3" s="9" t="inlineStr">
         <is>
           <t>N</t>
@@ -4434,43 +4460,24 @@
       </c>
       <c r="B3" s="10" t="inlineStr">
         <is>
-          <t>拜访分析报表</t>
-        </is>
-      </c>
-      <c r="C3" s="10" t="n"/>
-      <c r="D3" s="10" t="n"/>
-      <c r="E3" s="11" t="inlineStr">
-        <is>
-          <t>2022-01-01</t>
-        </is>
-      </c>
-      <c r="F3" s="11" t="inlineStr">
-        <is>
-          <t>2022-06-30</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="19.8" customHeight="1" s="12">
-      <c r="A4" s="9" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="B4" s="10" t="inlineStr">
-        <is>
-          <t>协防分析</t>
-        </is>
-      </c>
-      <c r="C4" s="10" t="n"/>
-      <c r="D4" s="10" t="n"/>
-      <c r="E4" s="11" t="inlineStr">
-        <is>
-          <t>2022-06-01</t>
-        </is>
-      </c>
-      <c r="F4" s="11" t="inlineStr">
-        <is>
-          <t>2022-06-30</t>
+          <t>协访分析</t>
+        </is>
+      </c>
+      <c r="C3" s="25" t="inlineStr">
+        <is>
+          <t>{"endTime": "2022-06-30  23:59:59", "startTime": "2022-06-01", "uid": 0}</t>
+        </is>
+      </c>
+      <c r="D3" s="25" t="inlineStr">
+        <is>
+          <t>startTime：开始时间
+endTime：结束时间
+uid:区域经理</t>
+        </is>
+      </c>
+      <c r="E3" s="9" t="inlineStr">
+        <is>
+          <t>2022-06-01~2022-06-30</t>
         </is>
       </c>
     </row>
@@ -4491,201 +4498,201 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="17.4" outlineLevelCol="0"/>
   <cols>
-    <col width="6.21875" customWidth="1" style="17" min="1" max="1"/>
-    <col width="24.6640625" customWidth="1" style="17" min="2" max="2"/>
-    <col width="29.44140625" customWidth="1" style="17" min="3" max="3"/>
-    <col width="130.44140625" customWidth="1" style="23" min="4" max="4"/>
-    <col width="8.77734375" customWidth="1" style="22" min="5" max="14"/>
-    <col width="8.77734375" customWidth="1" style="22" min="15" max="16384"/>
+    <col width="6.21875" customWidth="1" style="16" min="1" max="1"/>
+    <col width="24.6640625" customWidth="1" style="16" min="2" max="2"/>
+    <col width="29.44140625" customWidth="1" style="16" min="3" max="3"/>
+    <col width="130.44140625" customWidth="1" style="22" min="4" max="4"/>
+    <col width="8.77734375" customWidth="1" style="21" min="5" max="24"/>
+    <col width="8.77734375" customWidth="1" style="21" min="25" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.45" customFormat="1" customHeight="1" s="21">
-      <c r="A1" s="20" t="inlineStr">
+    <row r="1" ht="33.45" customFormat="1" customHeight="1" s="20">
+      <c r="A1" s="19" t="inlineStr">
         <is>
           <t>执行</t>
         </is>
       </c>
-      <c r="B1" s="20" t="inlineStr">
+      <c r="B1" s="19" t="inlineStr">
         <is>
           <t>字段名</t>
         </is>
       </c>
-      <c r="C1" s="20" t="inlineStr">
+      <c r="C1" s="19" t="inlineStr">
         <is>
           <t>接口返回字段名</t>
         </is>
       </c>
-      <c r="D1" s="20" t="inlineStr">
+      <c r="D1" s="19" t="inlineStr">
         <is>
           <t>sql</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="34.8" customHeight="1" s="12">
-      <c r="B2" s="18" t="inlineStr">
+    <row r="2" ht="34.8" customHeight="1" s="11">
+      <c r="B2" s="17" t="inlineStr">
         <is>
           <t>计划拜访人次</t>
         </is>
       </c>
-      <c r="C2" s="18" t="inlineStr">
+      <c r="C2" s="17" t="inlineStr">
         <is>
           <t>plannedVisitsNumber</t>
         </is>
       </c>
-      <c r="D2" s="19" t="inlineStr">
+      <c r="D2" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve">SELECT count(1) 计划拜访人次 from t_visit WHERE user_id=%s  and valid_status=1 and created_at&gt;='%s' and  created_at&lt;='%s' </t>
         </is>
       </c>
     </row>
-    <row r="3" ht="36" customHeight="1" s="12">
-      <c r="B3" s="18" t="inlineStr">
+    <row r="3" ht="36" customHeight="1" s="11">
+      <c r="B3" s="17" t="inlineStr">
         <is>
           <t>实际拜访人次</t>
         </is>
       </c>
-      <c r="C3" s="18" t="inlineStr">
+      <c r="C3" s="17" t="inlineStr">
         <is>
           <t>actualVisitsNumber</t>
         </is>
       </c>
-      <c r="D3" s="19" t="inlineStr">
+      <c r="D3" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve">SELECT count(1) 实际拜访人次 from t_visit WHERE user_id=%s and state=3 and valid_status=1 and created_at&gt;='%s' and  created_at&lt;='%s' </t>
         </is>
       </c>
     </row>
-    <row r="4" ht="36" customHeight="1" s="12">
-      <c r="B4" s="18" t="inlineStr">
+    <row r="4" ht="36" customHeight="1" s="11">
+      <c r="B4" s="17" t="inlineStr">
         <is>
           <t>实际拜访率</t>
         </is>
       </c>
-      <c r="C4" s="18" t="inlineStr">
+      <c r="C4" s="17" t="inlineStr">
         <is>
           <t>actualVisitRate</t>
         </is>
       </c>
-      <c r="D4" s="19" t="inlineStr">
+      <c r="D4" s="18" t="inlineStr">
         <is>
           <t>actualVisitsNumber/plannedVisitsNumber</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="40.8" customHeight="1" s="12">
-      <c r="B5" s="18" t="inlineStr">
+    <row r="5" ht="40.8" customHeight="1" s="11">
+      <c r="B5" s="17" t="inlineStr">
         <is>
           <t>双A客户实际拜访人次</t>
         </is>
       </c>
-      <c r="C5" s="18" t="inlineStr">
+      <c r="C5" s="17" t="inlineStr">
         <is>
           <t>twoACustomerVisitNumber</t>
         </is>
       </c>
-      <c r="D5" s="19" t="inlineStr">
+      <c r="D5" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve">SELECT  count(1) 双A客户拜访人次 from t_visit WHERE user_id=%s and double_a_mark=1 and state=3 and valid_status=1 and created_at&gt;='%s' and  created_at&lt;='%s' </t>
         </is>
       </c>
     </row>
-    <row r="6" ht="40.8" customHeight="1" s="12">
-      <c r="B6" s="18" t="inlineStr">
+    <row r="6" ht="40.8" customHeight="1" s="11">
+      <c r="B6" s="17" t="inlineStr">
         <is>
           <t>双A客户实际拜访率</t>
         </is>
       </c>
-      <c r="C6" s="18" t="inlineStr">
+      <c r="C6" s="17" t="inlineStr">
         <is>
           <t>twoACustomerVisitRate</t>
         </is>
       </c>
-      <c r="D6" s="19" t="inlineStr">
+      <c r="D6" s="18" t="inlineStr">
         <is>
           <t>twoACustomerVisitNumber/actualVisitsNumber</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="40.8" customHeight="1" s="12">
-      <c r="B7" s="18" t="inlineStr">
+    <row r="7" ht="40.8" customHeight="1" s="11">
+      <c r="B7" s="17" t="inlineStr">
         <is>
           <t>双A客户实际拜访覆盖率</t>
         </is>
       </c>
-      <c r="C7" s="18" t="inlineStr">
+      <c r="C7" s="17" t="inlineStr">
         <is>
           <t>doubleARatioRate</t>
         </is>
       </c>
-      <c r="D7" s="19" t="inlineStr">
+      <c r="D7" s="18" t="inlineStr">
         <is>
           <t>actualConcludeDoubleANumber/doubleTotal</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="40.8" customHeight="1" s="12">
-      <c r="B8" s="18" t="inlineStr">
+    <row r="8" ht="40.8" customHeight="1" s="11">
+      <c r="B8" s="17" t="inlineStr">
         <is>
           <t>双A客户拜访频率</t>
         </is>
       </c>
-      <c r="C8" s="18" t="inlineStr">
+      <c r="C8" s="17" t="inlineStr">
         <is>
           <t>doubleAFrequencyRate</t>
         </is>
       </c>
-      <c r="D8" s="19" t="inlineStr">
+      <c r="D8" s="18" t="inlineStr">
         <is>
           <t>twoACustomerVisitNumber/doubleTotal</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="40.8" customHeight="1" s="12">
-      <c r="B9" s="18" t="inlineStr">
+    <row r="9" ht="40.8" customHeight="1" s="11">
+      <c r="B9" s="17" t="inlineStr">
         <is>
           <t>高潜客户实际拜访人次</t>
         </is>
       </c>
-      <c r="C9" s="18" t="inlineStr">
+      <c r="C9" s="17" t="inlineStr">
         <is>
           <t>highPotentialCustomerVisitNumber</t>
         </is>
       </c>
-      <c r="D9" s="19" t="inlineStr">
+      <c r="D9" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve">SELECT   count(1) 双A客户拜访人次 from t_visit WHERE user_id=%s and potentiality_mark=1 and state=3 and valid_status=1 and created_at&gt;='%s' and  created_at&lt;='%s' </t>
         </is>
       </c>
     </row>
-    <row r="10" ht="40.8" customHeight="1" s="12">
-      <c r="B10" s="18" t="inlineStr">
+    <row r="10" ht="40.8" customHeight="1" s="11">
+      <c r="B10" s="17" t="inlineStr">
         <is>
           <t>高潜客户实际拜访率</t>
         </is>
       </c>
-      <c r="C10" s="18" t="inlineStr">
+      <c r="C10" s="17" t="inlineStr">
         <is>
           <t>highPotentialCustomerVisitRate</t>
         </is>
       </c>
-      <c r="D10" s="19" t="inlineStr">
+      <c r="D10" s="18" t="inlineStr">
         <is>
           <t>highPotentialCustomerVisitNumber/actualVisitsNumber</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="40.8" customHeight="1" s="12">
-      <c r="B11" s="18" t="inlineStr">
+    <row r="11" ht="40.8" customHeight="1" s="11">
+      <c r="B11" s="17" t="inlineStr">
         <is>
           <t>高潜客户实际拜访覆盖率</t>
         </is>
       </c>
-      <c r="C11" s="18" t="inlineStr">
+      <c r="C11" s="17" t="inlineStr">
         <is>
           <t>highRatioRate</t>
         </is>
@@ -4696,236 +4703,236 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="33" customHeight="1" s="12">
-      <c r="B12" s="18" t="inlineStr">
+    <row r="12" ht="33" customHeight="1" s="11">
+      <c r="B12" s="17" t="inlineStr">
         <is>
           <t>高潜客户拜访频率</t>
         </is>
       </c>
-      <c r="C12" s="18" t="inlineStr">
+      <c r="C12" s="17" t="inlineStr">
         <is>
           <t>highFrequencyRate</t>
         </is>
       </c>
-      <c r="D12" s="19" t="inlineStr">
+      <c r="D12" s="18" t="inlineStr">
         <is>
           <t>highPotentialCustomerVisitNumber/potentialityTotal</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="33" customHeight="1" s="12">
-      <c r="B13" s="18" t="inlineStr">
+    <row r="13" ht="33" customHeight="1" s="11">
+      <c r="B13" s="17" t="inlineStr">
         <is>
           <t>新增客户数（位）</t>
         </is>
       </c>
-      <c r="C13" s="18" t="inlineStr">
+      <c r="C13" s="17" t="inlineStr">
         <is>
           <t>newAddCustomerNumber</t>
         </is>
       </c>
-      <c r="D13" s="19" t="inlineStr">
+      <c r="D13" s="18" t="inlineStr">
         <is>
           <t>SELECT count(*)  新增客户数（位） from t_customer_info where delegate_id=%s and create_at&gt;='%s' and  create_at&lt;='%s'  and customer_status=2 and (region_manager_examine =1 or region_manager_examine is null)</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="33" customHeight="1" s="12">
-      <c r="B14" s="18" t="inlineStr">
+    <row r="14" ht="33" customHeight="1" s="11">
+      <c r="B14" s="17" t="inlineStr">
         <is>
           <t>实际拜访客户覆盖率</t>
         </is>
       </c>
-      <c r="C14" s="18" t="inlineStr">
+      <c r="C14" s="17" t="inlineStr">
         <is>
           <t>actualVisitCoverRate</t>
         </is>
       </c>
-      <c r="D14" s="19" t="inlineStr">
+      <c r="D14" s="18" t="inlineStr">
         <is>
           <t>actualVisitsPersonNumber/allNumber</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="44.4" customHeight="1" s="12">
-      <c r="B15" s="18" t="inlineStr">
+    <row r="15" ht="44.4" customHeight="1" s="11">
+      <c r="B15" s="17" t="inlineStr">
         <is>
           <t>计划会议之后跟进人数</t>
         </is>
       </c>
-      <c r="C15" s="18" t="inlineStr">
+      <c r="C15" s="17" t="inlineStr">
         <is>
           <t>plannedMeetingFollowNumber</t>
         </is>
       </c>
-      <c r="D15" s="19" t="inlineStr">
+      <c r="D15" s="18" t="inlineStr">
         <is>
           <t>select count(DISTINCT(t2.customer_id)) from t_meeting_info t1 LEFT  JOIN t_customer_follow t2 on t1.id=t2.meeting_id where t1.apply_people_id=%s and t1.valid_status=1 and t1.create_at&gt;='%s' and t1.create_at&lt;='%s'</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="50.55" customHeight="1" s="12">
-      <c r="B16" s="18" t="inlineStr">
+    <row r="16" ht="50.55" customHeight="1" s="11">
+      <c r="B16" s="17" t="inlineStr">
         <is>
           <t>实际会后跟进人数</t>
         </is>
       </c>
-      <c r="C16" s="18" t="inlineStr">
+      <c r="C16" s="17" t="inlineStr">
         <is>
           <t>actualMeetingFollowNumber</t>
         </is>
       </c>
-      <c r="D16" s="19" t="inlineStr">
+      <c r="D16" s="18" t="inlineStr">
         <is>
           <t>SELECT count(DISTINCT(customer_id))  from t_visit WHERE user_id=%s and meeting_after_mark=1  and created_at&gt;='%s' and created_at&lt;='%s' and valid_status=1</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="31.8" customHeight="1" s="12">
-      <c r="B17" s="18" t="inlineStr">
+    <row r="17" ht="31.8" customHeight="1" s="11">
+      <c r="B17" s="17" t="inlineStr">
         <is>
           <t>会后跟进率</t>
         </is>
       </c>
-      <c r="C17" s="18" t="inlineStr">
+      <c r="C17" s="17" t="inlineStr">
         <is>
           <t>meetingFollowRate</t>
         </is>
       </c>
-      <c r="D17" s="19" t="inlineStr">
+      <c r="D17" s="18" t="inlineStr">
         <is>
           <t>actualMeetingFollowNumber/plannedMeetingFollowNumber</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="31.8" customHeight="1" s="12">
-      <c r="B18" s="18" t="inlineStr">
+    <row r="18" ht="31.8" customHeight="1" s="11">
+      <c r="B18" s="17" t="inlineStr">
         <is>
           <t>达成会后跟进目标人数</t>
         </is>
       </c>
-      <c r="C18" s="14" t="inlineStr">
+      <c r="C18" s="13" t="inlineStr">
         <is>
           <t>actualConcludeMeetingFollowNumber</t>
         </is>
       </c>
-      <c r="D18" s="15" t="inlineStr">
+      <c r="D18" s="14" t="inlineStr">
         <is>
           <t>SELECT count(DISTINCT customer_id) 达成会后跟进目标人数 from t_visit  t1 inner join t_result_basics t2 on t1.id=t2.visit_id WHERE user_id=%s and t2.market_conclude=1  and t1.created_at&gt;='%s' and t1.created_at&lt;='%s' and t1.valid_status=1</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="31.8" customHeight="1" s="12">
-      <c r="B19" s="18" t="inlineStr">
+    <row r="19" ht="31.8" customHeight="1" s="11">
+      <c r="B19" s="17" t="inlineStr">
         <is>
           <t>拜访定位匹配人次</t>
         </is>
       </c>
-      <c r="C19" s="18" t="inlineStr">
+      <c r="C19" s="17" t="inlineStr">
         <is>
           <t>locationMatchNumber</t>
         </is>
       </c>
-      <c r="D19" s="19" t="n"/>
-    </row>
-    <row r="20" ht="31.8" customHeight="1" s="12">
-      <c r="B20" s="18" t="inlineStr">
+      <c r="D19" s="18" t="n"/>
+    </row>
+    <row r="20" ht="31.8" customHeight="1" s="11">
+      <c r="B20" s="17" t="inlineStr">
         <is>
           <t>客户总数</t>
         </is>
       </c>
-      <c r="C20" s="18" t="inlineStr">
+      <c r="C20" s="17" t="inlineStr">
         <is>
           <t>allNumber</t>
         </is>
       </c>
-      <c r="D20" s="19" t="inlineStr">
+      <c r="D20" s="18" t="inlineStr">
         <is>
           <t>SELECT count(distinct a.id) 客户总数 from t_customer_info a join t_visit b on a.delegate_id=b.user_id where b.user_id=%s and (a.region_manager_examine=1 or a.region_manager_examine is null  ) and  a.customer_status=2 and a.valid_status=1</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="31.8" customHeight="1" s="12">
+    <row r="21" ht="31.8" customHeight="1" s="11">
       <c r="B21" s="6" t="inlineStr">
         <is>
           <t>实际拜访人数</t>
         </is>
       </c>
-      <c r="C21" s="18" t="inlineStr">
+      <c r="C21" s="17" t="inlineStr">
         <is>
           <t>actualVisitsPersonNumber</t>
         </is>
       </c>
-      <c r="D21" s="19" t="inlineStr">
+      <c r="D21" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve">SELECT count(DISTINCT(customer_id)) 实际拜访人数 from t_visit WHERE user_id=%s and state=3 and valid_status=1 and created_at&gt;='%s' and  created_at&lt;='%s' </t>
         </is>
       </c>
     </row>
-    <row r="22" ht="31.8" customHeight="1" s="12">
-      <c r="B22" s="18" t="inlineStr">
+    <row r="22" ht="31.8" customHeight="1" s="11">
+      <c r="B22" s="17" t="inlineStr">
         <is>
           <t>客户双A总数</t>
         </is>
       </c>
-      <c r="C22" s="18" t="inlineStr">
+      <c r="C22" s="17" t="inlineStr">
         <is>
           <t>doubleTotal</t>
         </is>
       </c>
-      <c r="D22" s="19" t="inlineStr">
+      <c r="D22" s="18" t="inlineStr">
         <is>
           <t>SELECT count(distinct a.id) 客户双A总数 from t_customer_info a join t_visit b on a.delegate_id=b.user_id where b.user_id=%s and (a.region_manager_examine=1 or a.region_manager_examine is null  ) and  a.customer_status=2 and a.valid_status=1 and a.double_a_mark=1</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="45" customHeight="1" s="12">
+    <row r="23" ht="45" customHeight="1" s="11">
       <c r="B23" s="6" t="inlineStr">
         <is>
           <t>客户高潜总数</t>
         </is>
       </c>
-      <c r="C23" s="18" t="inlineStr">
+      <c r="C23" s="17" t="inlineStr">
         <is>
           <t>potentialityTotal</t>
         </is>
       </c>
-      <c r="D23" s="19" t="inlineStr">
+      <c r="D23" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve">SELECT count(distinct a.id) 客户高潜总数 from t_customer_info a join t_visit b on a.delegate_id=b.user_id where b.user_id=%s and (a.region_manager_examine=1 or a.region_manager_examine is null  ) and  a.customer_status=2 and a.valid_status=1 and a.potentiality_mark=1
 </t>
         </is>
       </c>
     </row>
-    <row r="24" ht="52.2" customHeight="1" s="12">
-      <c r="B24" s="18" t="inlineStr">
+    <row r="24" ht="52.2" customHeight="1" s="11">
+      <c r="B24" s="17" t="inlineStr">
         <is>
           <t>双A客户实际拜访人数（拜访完成大于等于6次的人数）</t>
         </is>
       </c>
-      <c r="C24" s="18" t="inlineStr">
+      <c r="C24" s="17" t="inlineStr">
         <is>
           <t>actualConcludeDoubleANumber</t>
         </is>
       </c>
-      <c r="D24" s="19" t="inlineStr">
+      <c r="D24" s="18" t="inlineStr">
         <is>
           <t>SELECT count(DISTINCT customer_id) 双A客户实际拜访人数 from t_visit WHERE user_id=%s and double_a_mark=1 and state=3 and valid_status=1 and created_at&gt;='%s' and  created_at&lt;='%s' GROUP BY  customer_id  HAVING(count(*)&gt;=6)</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="52.2" customHeight="1" s="12">
+    <row r="25" ht="52.2" customHeight="1" s="11">
       <c r="B25" s="6" t="inlineStr">
         <is>
           <t>高潜客户实际拜访人数（拜访完成大于等于4次的人数）</t>
         </is>
       </c>
-      <c r="C25" s="18" t="inlineStr">
+      <c r="C25" s="17" t="inlineStr">
         <is>
           <t>actualConcludePotentialityNumber</t>
         </is>
       </c>
-      <c r="D25" s="19" t="inlineStr">
+      <c r="D25" s="18" t="inlineStr">
         <is>
           <t>SELECT count(DISTINCT customer_id) 高潜客户实际拜访人数 from t_visit WHERE user_id=%s and potentiality_mark=1 and state=3 and valid_status=1 and created_at&gt;='%s' and  created_at&lt;='%s'GROUP BY  customer_id HAVING(count(*)&gt;=4)</t>
         </is>
@@ -4951,10 +4958,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="17.4" outlineLevelCol="0"/>
@@ -4963,8 +4970,8 @@
     <col width="24.6640625" customWidth="1" style="2" min="2" max="2"/>
     <col width="29.44140625" customWidth="1" style="2" min="3" max="3"/>
     <col width="130.44140625" customWidth="1" style="3" min="4" max="4"/>
-    <col width="8.77734375" customWidth="1" style="4" min="5" max="513"/>
-    <col width="8.77734375" customWidth="1" style="4" min="514" max="16384"/>
+    <col width="8.77734375" customWidth="1" style="4" min="5" max="523"/>
+    <col width="8.77734375" customWidth="1" style="4" min="524" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="33.45" customFormat="1" customHeight="1" s="1">
@@ -4989,7 +4996,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="34.8" customHeight="1" s="12">
+    <row r="2" ht="34.8" customHeight="1" s="11">
       <c r="B2" s="2" t="inlineStr">
         <is>
           <t>计划协访人次</t>
@@ -5006,7 +5013,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="34.8" customHeight="1" s="12">
+    <row r="3" ht="34.8" customHeight="1" s="11">
       <c r="B3" s="2" t="inlineStr">
         <is>
           <t>实际协访人次</t>
@@ -5023,7 +5030,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="34.8" customHeight="1" s="12">
+    <row r="4" ht="34.8" customHeight="1" s="11">
       <c r="B4" s="2" t="inlineStr">
         <is>
           <t>协访完成率</t>
@@ -5036,11 +5043,16 @@
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
+          <t>completeAssistanceNumber/planAssistanceNumber</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
           <t xml:space="preserve">SELECT IFNULL(concat(FORMAT(sum(if(synergy_status=2,1,0)) / count(1)*100,2),'%'),'0.00%') '协访完成率' from t_synergy_plan where valid_status=1 and user_id=%s and created_at&gt;='%s' and  created_at&lt;='%s' </t>
         </is>
       </c>
     </row>
-    <row r="5" ht="34.8" customHeight="1" s="12">
+    <row r="5" ht="34.8" customHeight="1" s="11">
       <c r="B5" s="2" t="inlineStr">
         <is>
           <t>双A客户计划协访人次</t>
@@ -5057,7 +5069,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="34.8" customHeight="1" s="12">
+    <row r="6" ht="34.8" customHeight="1" s="11">
       <c r="B6" s="2" t="inlineStr">
         <is>
           <t>双A客户实际协访人次</t>
@@ -5074,7 +5086,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="69.59999999999999" customHeight="1" s="12">
+    <row r="7" ht="69.59999999999999" customHeight="1" s="11">
       <c r="B7" s="2" t="inlineStr">
         <is>
           <t>双A客户协访完成率</t>
@@ -5087,11 +5099,16 @@
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
+          <t>doubleACompleteAssistanceNumber/doubleAPlanAssistanceNumber</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
           <t xml:space="preserve">SELECT IFNULL(concat(FORMAT( sum(if(v.double_a_mark=1 and t.synergy_status=2,1,0))/sum(if(v.double_a_mark=1,1,0))*100,2),'%'),'0.00%') '双A客户协访完成率' from t_synergy_plan t inner  join t_visit v on t.visit_id = v.id WHERE t.valid_status=1 and t.user_id=%s and t.created_at&gt;='%s' and  t.created_at&lt;='%s' </t>
         </is>
       </c>
     </row>
-    <row r="8" ht="34.8" customHeight="1" s="12">
+    <row r="8" ht="34.8" customHeight="1" s="11">
       <c r="B8" s="2" t="inlineStr">
         <is>
           <t>高潜客户计划协访人次</t>
@@ -5108,7 +5125,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="34.8" customHeight="1" s="12">
+    <row r="9" ht="34.8" customHeight="1" s="11">
       <c r="B9" s="2" t="inlineStr">
         <is>
           <t>高潜客户实际协访人次</t>
@@ -5125,7 +5142,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="69.59999999999999" customHeight="1" s="12">
+    <row r="10" ht="69.59999999999999" customHeight="1" s="11">
       <c r="B10" s="2" t="inlineStr">
         <is>
           <t>高潜客户协访完成率</t>
@@ -5138,11 +5155,16 @@
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
+          <t>highPotentialCompleteAssistanceNumber/highPotentialAssistanceNumber</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
           <t xml:space="preserve">SELECT IFNULL(concat(FORMAT( sum(if(v.potentiality_mark=1 and t.synergy_status=2,1,0))/sum(if(v.potentiality_mark=1,1,0))*100,2),'%'),'0.00%') '高潜客户协访完成率' from t_synergy_plan t inner  join t_visit v on t.visit_id = v.id WHERE t.valid_status=1 and t.user_id=%s and t.created_at&gt;='%s' and  t.created_at&lt;='%s' </t>
         </is>
       </c>
     </row>
-    <row r="11" ht="52.2" customHeight="1" s="12">
+    <row r="11" ht="52.2" customHeight="1" s="11">
       <c r="B11" s="2" t="inlineStr">
         <is>
           <t>计划协访会议次数</t>
@@ -5159,7 +5181,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="52.2" customHeight="1" s="12">
+    <row r="12" ht="52.2" customHeight="1" s="11">
       <c r="B12" s="2" t="inlineStr">
         <is>
           <t>实际协访会议次数</t>
@@ -5176,7 +5198,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="69.59999999999999" customHeight="1" s="12">
+    <row r="13" ht="69.59999999999999" customHeight="1" s="11">
       <c r="B13" s="2" t="inlineStr">
         <is>
           <t>会议协访完成率</t>
@@ -5189,11 +5211,16 @@
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
+          <t>completeMeetingNumber/planMeetingNumber</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
           <t xml:space="preserve">SELECT IFNULL(concat(FORMAT( sum(if(v.meeting_id&gt;0 and t.synergy_status=2,1,0)) /sum(if(v.meeting_id&gt;0,1,0))*100,2),'%'),'0.00%') '会议协访完成率' from t_synergy_plan t inner join t_visit v on t.visit_id = v.id left join t_meeting_info m on v.meeting_id =m.id where t.valid_status=1 and t.user_id=%s and t.created_at&gt;='%s' and  t.created_at&lt;='%s' </t>
         </is>
       </c>
     </row>
-    <row r="14" ht="52.2" customHeight="1" s="12">
+    <row r="14" ht="52.2" customHeight="1" s="11">
       <c r="B14" s="2" t="inlineStr">
         <is>
           <t>计划会后跟进协访人数</t>
@@ -5210,7 +5237,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="52.2" customHeight="1" s="12">
+    <row r="15" ht="52.2" customHeight="1" s="11">
       <c r="B15" s="2" t="inlineStr">
         <is>
           <t>实际会后跟进协访人数</t>
@@ -5227,7 +5254,7 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="69.59999999999999" customHeight="1" s="12">
+    <row r="16" ht="69.59999999999999" customHeight="1" s="11">
       <c r="B16" s="2" t="inlineStr">
         <is>
           <t>会后跟进协访完成率</t>
@@ -5239,6 +5266,11 @@
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>completeFollowNumber/planFollowNumber</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">SELECT IFNULL(concat(FORMAT(count(DISTINCT(case when v.meeting_after_mark=1 and t.synergy_status=2 then v.customer_id end)) / count(DISTINCT(case when v.meeting_after_mark=1 then v.customer_id end ))*100,2),'%'),'0.00%') '会后跟进协访完成率' from t_synergy_plan t inner join t_visit v on t.visit_id = v.id left join t_meeting_info m on v.meeting_id =m.id where t.valid_status=1 and t.user_id=%s and t.created_at&gt;='%s' and  t.created_at&lt;='%s' </t>
         </is>
@@ -5252,6 +5284,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -5402,11 +5435,6 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="24" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>黄新晖(84)</t>
@@ -5481,26 +5509,23 @@
       <c r="S2" t="n">
         <v>0</v>
       </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" s="24" t="inlineStr">
-        <is>
-          <t>185(sql)/0</t>
-        </is>
+      <c r="U2" t="n">
+        <v>185</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" s="24" t="inlineStr">
-        <is>
-          <t>25(sql)/0</t>
-        </is>
-      </c>
-      <c r="X2" s="24" t="inlineStr">
-        <is>
-          <t>53(sql)/0</t>
-        </is>
+      <c r="W2" t="n">
+        <v>25</v>
+      </c>
+      <c r="X2" t="n">
+        <v>53</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -5590,6 +5615,12 @@
       <c r="X3" t="n">
         <v>29</v>
       </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
@@ -5667,7 +5698,7 @@
         <v>4</v>
       </c>
       <c r="U4" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V4" t="n">
         <v>6</v>
@@ -5730,7 +5761,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>12%(计算)/13%</t>
+          <t>13%</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -5772,11 +5803,19 @@
       <c r="X5" t="n">
         <v>8</v>
       </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
       <c r="Z5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6">
+      <c r="A6" s="27" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>周夙(101)</t>
@@ -5851,20 +5890,37 @@
       <c r="S6" t="n">
         <v>0</v>
       </c>
-      <c r="U6" t="n">
-        <v>0</v>
+      <c r="U6" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/101</t>
+        </is>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
+      <c r="W6" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/14</t>
+        </is>
+      </c>
+      <c r="X6" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/27</t>
+        </is>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
+      <c r="A7" s="27" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>沈丹峰(103)</t>
@@ -5939,20 +5995,37 @@
       <c r="S7" t="n">
         <v>0</v>
       </c>
-      <c r="U7" t="n">
-        <v>0</v>
+      <c r="U7" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/106</t>
+        </is>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
+      <c r="W7" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/16</t>
+        </is>
+      </c>
+      <c r="X7" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/29</t>
+        </is>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
+      <c r="A8" s="27" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>万小利(107)</t>
@@ -6027,493 +6100,529 @@
       <c r="S8" t="n">
         <v>0</v>
       </c>
-      <c r="U8" t="n">
-        <v>0</v>
+      <c r="U8" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/108</t>
+        </is>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
+      <c r="W8" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/4</t>
+        </is>
+      </c>
+      <c r="X8" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/29</t>
+        </is>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="24" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>彭琦(111)</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>112</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>15</v>
+      </c>
+      <c r="X9" t="n">
+        <v>36</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>徐丽莉(112)</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>138</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>24</v>
+      </c>
+      <c r="X10" t="n">
+        <v>37</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>孙春艳(113)</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>107</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>11</v>
+      </c>
+      <c r="X11" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="27" t="inlineStr">
         <is>
           <t>error</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>彭琦(111)</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" s="24" t="inlineStr">
-        <is>
-          <t>112(sql)/0</t>
-        </is>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" s="24" t="inlineStr">
-        <is>
-          <t>15(sql)/0</t>
-        </is>
-      </c>
-      <c r="X9" s="24" t="inlineStr">
-        <is>
-          <t>36(sql)/0</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="24" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>汪承文(115)</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/54</t>
+        </is>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/3</t>
+        </is>
+      </c>
+      <c r="X12" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/14</t>
+        </is>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="27" t="inlineStr">
         <is>
           <t>error</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>徐丽莉(112)</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" s="24" t="inlineStr">
-        <is>
-          <t>138(sql)/0</t>
-        </is>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" s="24" t="inlineStr">
-        <is>
-          <t>24(sql)/0</t>
-        </is>
-      </c>
-      <c r="X10" s="24" t="inlineStr">
-        <is>
-          <t>37(sql)/0</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="24" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>孙娟(117)</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/110</t>
+        </is>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/15</t>
+        </is>
+      </c>
+      <c r="X13" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/32</t>
+        </is>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="27" t="inlineStr">
         <is>
           <t>error</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>孙春艳(113)</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" s="24" t="inlineStr">
-        <is>
-          <t>107(sql)/0</t>
-        </is>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" s="24" t="inlineStr">
-        <is>
-          <t>11(sql)/0</t>
-        </is>
-      </c>
-      <c r="X11" s="24" t="inlineStr">
-        <is>
-          <t>28(sql)/0</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>汪承文(115)</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>孙娟(117)</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
       <c r="B14" t="inlineStr">
         <is>
           <t>张红芳(119)</t>
@@ -6588,20 +6697,37 @@
       <c r="S14" t="n">
         <v>0</v>
       </c>
-      <c r="U14" t="n">
-        <v>0</v>
+      <c r="U14" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/91</t>
+        </is>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
+      <c r="W14" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/10</t>
+        </is>
+      </c>
+      <c r="X14" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/26</t>
+        </is>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
+      <c r="A15" s="27" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>宋绍菊(121)</t>
@@ -6676,20 +6802,37 @@
       <c r="S15" t="n">
         <v>0</v>
       </c>
-      <c r="U15" t="n">
-        <v>0</v>
+      <c r="U15" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/132</t>
+        </is>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
+      <c r="W15" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/17</t>
+        </is>
+      </c>
+      <c r="X15" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/43</t>
+        </is>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
+      <c r="A16" s="27" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>李秀广(122)</t>
@@ -6764,20 +6907,37 @@
       <c r="S16" t="n">
         <v>0</v>
       </c>
-      <c r="U16" t="n">
-        <v>0</v>
+      <c r="U16" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/173</t>
+        </is>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
+      <c r="W16" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/29</t>
+        </is>
+      </c>
+      <c r="X16" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/48</t>
+        </is>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
+      <c r="A17" s="27" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>易荣(123)</t>
@@ -6852,20 +7012,37 @@
       <c r="S17" t="n">
         <v>0</v>
       </c>
-      <c r="U17" t="n">
-        <v>0</v>
+      <c r="U17" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/172</t>
+        </is>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
+      <c r="W17" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/17</t>
+        </is>
+      </c>
+      <c r="X17" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/48</t>
+        </is>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
+      <c r="A18" s="27" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>王杰(126)</t>
@@ -6940,20 +7117,37 @@
       <c r="S18" t="n">
         <v>0</v>
       </c>
-      <c r="U18" t="n">
-        <v>0</v>
+      <c r="U18" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/158</t>
+        </is>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
+      <c r="W18" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/19</t>
+        </is>
+      </c>
+      <c r="X18" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/43</t>
+        </is>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
+      <c r="A19" s="27" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>夏友明(127)</t>
@@ -7028,20 +7222,37 @@
       <c r="S19" t="n">
         <v>0</v>
       </c>
-      <c r="U19" t="n">
-        <v>0</v>
+      <c r="U19" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/117</t>
+        </is>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
+      <c r="W19" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/12</t>
+        </is>
+      </c>
+      <c r="X19" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/36</t>
+        </is>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
+      <c r="A20" s="27" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>吴永辉(130)</t>
@@ -7116,20 +7327,37 @@
       <c r="S20" t="n">
         <v>0</v>
       </c>
-      <c r="U20" t="n">
-        <v>0</v>
+      <c r="U20" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/62</t>
+        </is>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
+      <c r="W20" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/12</t>
+        </is>
+      </c>
+      <c r="X20" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/17</t>
+        </is>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
+      <c r="A21" s="27" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>王浩文(247)</t>
@@ -7204,20 +7432,37 @@
       <c r="S21" t="n">
         <v>0</v>
       </c>
-      <c r="U21" t="n">
-        <v>0</v>
+      <c r="U21" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/122</t>
+        </is>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
+      <c r="W21" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/18</t>
+        </is>
+      </c>
+      <c r="X21" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/37</t>
+        </is>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
+      <c r="A22" s="27" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>马俊(250)</t>
@@ -7292,20 +7537,37 @@
       <c r="S22" t="n">
         <v>0</v>
       </c>
-      <c r="U22" t="n">
-        <v>0</v>
+      <c r="U22" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/55</t>
+        </is>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
+      <c r="W22" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/6</t>
+        </is>
+      </c>
+      <c r="X22" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/13</t>
+        </is>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
+      <c r="A23" s="27" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>冯玲(251)</t>
@@ -7380,20 +7642,37 @@
       <c r="S23" t="n">
         <v>0</v>
       </c>
-      <c r="U23" t="n">
-        <v>0</v>
+      <c r="U23" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/71</t>
+        </is>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
+      <c r="W23" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/9</t>
+        </is>
+      </c>
+      <c r="X23" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/19</t>
+        </is>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
+      <c r="A24" s="27" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>王艳玲(252)</t>
@@ -7468,16 +7747,28 @@
       <c r="S24" t="n">
         <v>0</v>
       </c>
-      <c r="U24" t="n">
-        <v>0</v>
+      <c r="U24" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/146</t>
+        </is>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" t="n">
+      <c r="W24" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/11</t>
+        </is>
+      </c>
+      <c r="X24" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/42</t>
+        </is>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7568,11 +7859,19 @@
       <c r="X25" t="n">
         <v>28</v>
       </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
       <c r="Z25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="26">
+      <c r="A26" s="27" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>盛慧芳(254)</t>
@@ -7647,20 +7946,37 @@
       <c r="S26" t="n">
         <v>0</v>
       </c>
-      <c r="U26" t="n">
-        <v>0</v>
+      <c r="U26" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/108</t>
+        </is>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
+      <c r="W26" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/20</t>
+        </is>
+      </c>
+      <c r="X26" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/30</t>
+        </is>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
+      <c r="A27" s="27" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>魏来(255)</t>
@@ -7735,119 +8051,131 @@
       <c r="S27" t="n">
         <v>0</v>
       </c>
-      <c r="U27" t="n">
-        <v>0</v>
+      <c r="U27" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/75</t>
+        </is>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
+      <c r="W27" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/8</t>
+        </is>
+      </c>
+      <c r="X27" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/19</t>
+        </is>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="24" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>黄淼(257)</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>103</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>8</v>
+      </c>
+      <c r="X28" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="27" t="inlineStr">
         <is>
           <t>error</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>黄淼(257)</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" s="24" t="inlineStr">
-        <is>
-          <t>103(sql)/0</t>
-        </is>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" s="24" t="inlineStr">
-        <is>
-          <t>8(sql)/0</t>
-        </is>
-      </c>
-      <c r="X28" s="24" t="inlineStr">
-        <is>
-          <t>29(sql)/0</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
       <c r="B29" t="inlineStr">
         <is>
           <t>黄成名(262)</t>
@@ -7922,119 +8250,131 @@
       <c r="S29" t="n">
         <v>0</v>
       </c>
-      <c r="U29" t="n">
-        <v>0</v>
+      <c r="U29" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/143</t>
+        </is>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
+      <c r="W29" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/20</t>
+        </is>
+      </c>
+      <c r="X29" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/37</t>
+        </is>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="24" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>孙华江(305)</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>177</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>9</v>
+      </c>
+      <c r="X30" t="n">
+        <v>51</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="27" t="inlineStr">
         <is>
           <t>error</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>孙华江(305)</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S30" t="n">
-        <v>0</v>
-      </c>
-      <c r="U30" s="24" t="inlineStr">
-        <is>
-          <t>177(sql)/0</t>
-        </is>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" s="24" t="inlineStr">
-        <is>
-          <t>9(sql)/0</t>
-        </is>
-      </c>
-      <c r="X30" s="24" t="inlineStr">
-        <is>
-          <t>51(sql)/0</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
       <c r="B31" t="inlineStr">
         <is>
           <t>王丽(313)</t>
@@ -8109,20 +8449,37 @@
       <c r="S31" t="n">
         <v>0</v>
       </c>
-      <c r="U31" t="n">
-        <v>0</v>
+      <c r="U31" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/112</t>
+        </is>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
+      <c r="W31" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/10</t>
+        </is>
+      </c>
+      <c r="X31" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/30</t>
+        </is>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
+      <c r="A32" s="27" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>余丽红(314)</t>
@@ -8197,25 +8554,32 @@
       <c r="S32" t="n">
         <v>0</v>
       </c>
-      <c r="U32" t="n">
-        <v>0</v>
+      <c r="U32" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/117</t>
+        </is>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
+      <c r="W32" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/11</t>
+        </is>
+      </c>
+      <c r="X32" s="27" t="inlineStr">
+        <is>
+          <t>0(sql)/29</t>
+        </is>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="24" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>刘淑华(373)</t>
@@ -8290,31 +8654,26 @@
       <c r="S33" t="n">
         <v>0</v>
       </c>
-      <c r="U33" s="24" t="inlineStr">
-        <is>
-          <t>156(sql)/0</t>
-        </is>
+      <c r="U33" t="n">
+        <v>156</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" s="24" t="inlineStr">
-        <is>
-          <t>12(sql)/0</t>
-        </is>
-      </c>
-      <c r="X33" s="24" t="inlineStr">
-        <is>
-          <t>40(sql)/0</t>
-        </is>
+      <c r="W33" t="n">
+        <v>12</v>
+      </c>
+      <c r="X33" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="24" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>郑国英(384)</t>
@@ -8389,23 +8748,23 @@
       <c r="S34" t="n">
         <v>0</v>
       </c>
-      <c r="U34" s="24" t="inlineStr">
-        <is>
-          <t>119(sql)/0</t>
-        </is>
+      <c r="U34" t="n">
+        <v>119</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" s="24" t="inlineStr">
-        <is>
-          <t>20(sql)/0</t>
-        </is>
-      </c>
-      <c r="X34" s="24" t="inlineStr">
-        <is>
-          <t>31(sql)/0</t>
-        </is>
+      <c r="W34" t="n">
+        <v>20</v>
+      </c>
+      <c r="X34" t="n">
+        <v>31</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -8420,38 +8779,54 @@
       <c r="D35" t="n">
         <v>96</v>
       </c>
-      <c r="E35" t="n">
-        <v>89</v>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89%</t>
+        </is>
       </c>
       <c r="F35" t="n">
         <v>26</v>
       </c>
-      <c r="G35" t="n">
-        <v>27</v>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="n">
-        <v>57</v>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>27%</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>6%</t>
+        </is>
       </c>
       <c r="J35" t="n">
         <v>37</v>
       </c>
-      <c r="K35" t="n">
-        <v>39</v>
-      </c>
-      <c r="L35" t="n">
-        <v>3</v>
-      </c>
-      <c r="M35" t="n">
-        <v>36</v>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>39%</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
       </c>
       <c r="N35" t="n">
         <v>14</v>
       </c>
-      <c r="O35" t="n">
-        <v>11</v>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
       </c>
       <c r="P35" t="n">
         <v>8</v>
@@ -8459,23 +8834,31 @@
       <c r="Q35" t="n">
         <v>5</v>
       </c>
-      <c r="R35" t="n">
-        <v>63</v>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>63%</t>
+        </is>
       </c>
       <c r="S35" t="n">
         <v>40</v>
       </c>
-      <c r="U35" t="n">
-        <v>437</v>
+      <c r="U35" s="27" t="inlineStr">
+        <is>
+          <t>1535%(计算)/3868</t>
+        </is>
       </c>
       <c r="V35" t="n">
         <v>48</v>
       </c>
-      <c r="W35" t="n">
-        <v>46</v>
-      </c>
-      <c r="X35" t="n">
-        <v>104</v>
+      <c r="W35" s="27" t="inlineStr">
+        <is>
+          <t>170%(计算)/451</t>
+        </is>
+      </c>
+      <c r="X35" s="27" t="inlineStr">
+        <is>
+          <t>409%(计算)/1057</t>
+        </is>
       </c>
       <c r="Y35" t="n">
         <v>1</v>

--- a/instance/zyjk/ERP/statisticalReturns/i_erp_reportField_case.xlsx
+++ b/instance/zyjk/ERP/statisticalReturns/i_erp_reportField_case.xlsx
@@ -3,14 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22368" windowHeight="9420" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22368" windowHeight="9420" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="default" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="case" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="拜访分析报表" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="协访分析" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="temp" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -337,7 +336,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -4385,8 +4384,8 @@
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="20.4" outlineLevelCol="0"/>
@@ -4396,8 +4395,8 @@
     <col width="58.5546875" customWidth="1" style="25" min="3" max="3"/>
     <col width="41.77734375" customWidth="1" style="9" min="4" max="4"/>
     <col width="37" customWidth="1" style="9" min="5" max="5"/>
-    <col width="8.88671875" customWidth="1" style="9" min="6" max="47"/>
-    <col width="8.88671875" customWidth="1" style="9" min="48" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="9" min="6" max="48"/>
+    <col width="8.88671875" customWidth="1" style="9" min="49" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.2" customHeight="1" s="11">
@@ -4453,11 +4452,6 @@
       </c>
     </row>
     <row r="3" ht="79.2" customHeight="1" s="11">
-      <c r="A3" s="9" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="B3" s="10" t="inlineStr">
         <is>
           <t>协访分析</t>
@@ -4507,8 +4501,8 @@
     <col width="24.6640625" customWidth="1" style="16" min="2" max="2"/>
     <col width="29.44140625" customWidth="1" style="16" min="3" max="3"/>
     <col width="130.44140625" customWidth="1" style="22" min="4" max="4"/>
-    <col width="8.77734375" customWidth="1" style="21" min="5" max="24"/>
-    <col width="8.77734375" customWidth="1" style="21" min="25" max="16384"/>
+    <col width="8.77734375" customWidth="1" style="21" min="5" max="25"/>
+    <col width="8.77734375" customWidth="1" style="21" min="26" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="33.45" customFormat="1" customHeight="1" s="20">
@@ -4970,8 +4964,8 @@
     <col width="24.6640625" customWidth="1" style="2" min="2" max="2"/>
     <col width="29.44140625" customWidth="1" style="2" min="3" max="3"/>
     <col width="130.44140625" customWidth="1" style="3" min="4" max="4"/>
-    <col width="8.77734375" customWidth="1" style="4" min="5" max="523"/>
-    <col width="8.77734375" customWidth="1" style="4" min="524" max="16384"/>
+    <col width="8.77734375" customWidth="1" style="4" min="5" max="524"/>
+    <col width="8.77734375" customWidth="1" style="4" min="525" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="33.45" customFormat="1" customHeight="1" s="1">
@@ -5286,3588 +5280,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:Z35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>结果</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>代表（id）</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>计划拜访人次</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>实际拜访人次</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>实际拜访率</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>双A客户实际拜访人次</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>双A客户实际拜访率</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>双A客户实际拜访覆盖率</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>双A客户拜访频率</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>高潜客户实际拜访人次</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>高潜客户实际拜访率</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>高潜客户实际拜访覆盖率</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>高潜客户拜访频率</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>新增客户数（位）</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>实际拜访客户覆盖率</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>计划会议之后跟进人数</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>实际会后跟进人数</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>会后跟进率</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>达成会后跟进目标人数</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>拜访定位匹配人次</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>客户总数</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>实际拜访人数</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>客户双A总数</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>客户高潜总数</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>双A客户实际拜访人数（拜访完成大于等于6次的人数）</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>高潜客户实际拜访人数（拜访完成大于等于4次的人数）</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>黄新晖(84)</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>185</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>25</v>
-      </c>
-      <c r="X2" t="n">
-        <v>53</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>孙洪霄(90)</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>17%</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="P3" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3</v>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>75%</t>
-        </is>
-      </c>
-      <c r="S3" t="n">
-        <v>2</v>
-      </c>
-      <c r="U3" t="n">
-        <v>107</v>
-      </c>
-      <c r="V3" t="n">
-        <v>5</v>
-      </c>
-      <c r="W3" t="n">
-        <v>6</v>
-      </c>
-      <c r="X3" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>黄代玉(92)</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>43%</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>22%</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
-        <v>9</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>64%</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>23%</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
-        <v>11</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S4" t="n">
-        <v>4</v>
-      </c>
-      <c r="U4" t="n">
-        <v>167</v>
-      </c>
-      <c r="V4" t="n">
-        <v>6</v>
-      </c>
-      <c r="W4" t="n">
-        <v>27</v>
-      </c>
-      <c r="X4" t="n">
-        <v>39</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>盛瑛(96)</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>66</v>
-      </c>
-      <c r="D5" t="n">
-        <v>66</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>14</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>21%</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>233%</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
-        <v>18</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>27%</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>13%</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>225%</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>74%</t>
-        </is>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S5" t="n">
-        <v>32</v>
-      </c>
-      <c r="U5" t="n">
-        <v>43</v>
-      </c>
-      <c r="V5" t="n">
-        <v>32</v>
-      </c>
-      <c r="W5" t="n">
-        <v>6</v>
-      </c>
-      <c r="X5" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="27" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>周夙(101)</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/101</t>
-        </is>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/14</t>
-        </is>
-      </c>
-      <c r="X6" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/27</t>
-        </is>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="27" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>沈丹峰(103)</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/106</t>
-        </is>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/16</t>
-        </is>
-      </c>
-      <c r="X7" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/29</t>
-        </is>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="27" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>万小利(107)</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/108</t>
-        </is>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/4</t>
-        </is>
-      </c>
-      <c r="X8" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/29</t>
-        </is>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>彭琦(111)</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>112</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>15</v>
-      </c>
-      <c r="X9" t="n">
-        <v>36</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>徐丽莉(112)</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>138</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>24</v>
-      </c>
-      <c r="X10" t="n">
-        <v>37</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>孙春艳(113)</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>107</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>11</v>
-      </c>
-      <c r="X11" t="n">
-        <v>28</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="27" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>汪承文(115)</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/54</t>
-        </is>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/3</t>
-        </is>
-      </c>
-      <c r="X12" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/14</t>
-        </is>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="27" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>孙娟(117)</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/110</t>
-        </is>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/15</t>
-        </is>
-      </c>
-      <c r="X13" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/32</t>
-        </is>
-      </c>
-      <c r="Y13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="27" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>张红芳(119)</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/91</t>
-        </is>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/10</t>
-        </is>
-      </c>
-      <c r="X14" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/26</t>
-        </is>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="27" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>宋绍菊(121)</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/132</t>
-        </is>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/17</t>
-        </is>
-      </c>
-      <c r="X15" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/43</t>
-        </is>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="27" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>李秀广(122)</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/173</t>
-        </is>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/29</t>
-        </is>
-      </c>
-      <c r="X16" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/48</t>
-        </is>
-      </c>
-      <c r="Y16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="27" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>易荣(123)</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/172</t>
-        </is>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/17</t>
-        </is>
-      </c>
-      <c r="X17" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/48</t>
-        </is>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="27" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>王杰(126)</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/158</t>
-        </is>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/19</t>
-        </is>
-      </c>
-      <c r="X18" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/43</t>
-        </is>
-      </c>
-      <c r="Y18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="27" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>夏友明(127)</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/117</t>
-        </is>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/12</t>
-        </is>
-      </c>
-      <c r="X19" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/36</t>
-        </is>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="27" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>吴永辉(130)</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/62</t>
-        </is>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/12</t>
-        </is>
-      </c>
-      <c r="X20" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/17</t>
-        </is>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="27" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>王浩文(247)</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/122</t>
-        </is>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/18</t>
-        </is>
-      </c>
-      <c r="X21" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/37</t>
-        </is>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="27" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>马俊(250)</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/55</t>
-        </is>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/6</t>
-        </is>
-      </c>
-      <c r="X22" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/13</t>
-        </is>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="27" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>冯玲(251)</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/71</t>
-        </is>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/9</t>
-        </is>
-      </c>
-      <c r="X23" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/19</t>
-        </is>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="27" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>王艳玲(252)</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/146</t>
-        </is>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/11</t>
-        </is>
-      </c>
-      <c r="X24" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/42</t>
-        </is>
-      </c>
-      <c r="Y24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>王亚东(253)</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>22</v>
-      </c>
-      <c r="D25" t="n">
-        <v>10</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>45%</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>6</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>60%</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>86%</t>
-        </is>
-      </c>
-      <c r="J25" t="n">
-        <v>9</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>90%</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>32%</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
-        <v>3</v>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="P25" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2</v>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
-      </c>
-      <c r="S25" t="n">
-        <v>2</v>
-      </c>
-      <c r="U25" t="n">
-        <v>121</v>
-      </c>
-      <c r="V25" t="n">
-        <v>5</v>
-      </c>
-      <c r="W25" t="n">
-        <v>7</v>
-      </c>
-      <c r="X25" t="n">
-        <v>28</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="27" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>盛慧芳(254)</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/108</t>
-        </is>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/20</t>
-        </is>
-      </c>
-      <c r="X26" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/30</t>
-        </is>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="27" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>魏来(255)</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/75</t>
-        </is>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/8</t>
-        </is>
-      </c>
-      <c r="X27" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/19</t>
-        </is>
-      </c>
-      <c r="Y27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>黄淼(257)</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>103</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>8</v>
-      </c>
-      <c r="X28" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="27" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>黄成名(262)</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/143</t>
-        </is>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/20</t>
-        </is>
-      </c>
-      <c r="X29" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/37</t>
-        </is>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>孙华江(305)</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S30" t="n">
-        <v>0</v>
-      </c>
-      <c r="U30" t="n">
-        <v>177</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="n">
-        <v>9</v>
-      </c>
-      <c r="X30" t="n">
-        <v>51</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="27" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>王丽(313)</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/112</t>
-        </is>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/10</t>
-        </is>
-      </c>
-      <c r="X31" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/30</t>
-        </is>
-      </c>
-      <c r="Y31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="27" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>余丽红(314)</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/117</t>
-        </is>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/11</t>
-        </is>
-      </c>
-      <c r="X32" s="27" t="inlineStr">
-        <is>
-          <t>0(sql)/29</t>
-        </is>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>刘淑华(373)</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
-      </c>
-      <c r="U33" t="n">
-        <v>156</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="n">
-        <v>12</v>
-      </c>
-      <c r="X33" t="n">
-        <v>40</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>郑国英(384)</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>119</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>20</v>
-      </c>
-      <c r="X34" t="n">
-        <v>31</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>总计</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>108</v>
-      </c>
-      <c r="D35" t="n">
-        <v>96</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>89%</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>26</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>27%</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>6%</t>
-        </is>
-      </c>
-      <c r="J35" t="n">
-        <v>37</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>39%</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
-        <v>14</v>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="P35" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>63%</t>
-        </is>
-      </c>
-      <c r="S35" t="n">
-        <v>40</v>
-      </c>
-      <c r="U35" s="27" t="inlineStr">
-        <is>
-          <t>1535%(计算)/3868</t>
-        </is>
-      </c>
-      <c r="V35" t="n">
-        <v>48</v>
-      </c>
-      <c r="W35" s="27" t="inlineStr">
-        <is>
-          <t>170%(计算)/451</t>
-        </is>
-      </c>
-      <c r="X35" s="27" t="inlineStr">
-        <is>
-          <t>409%(计算)/1057</t>
-        </is>
-      </c>
-      <c r="Y35" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/instance/zyjk/ERP/statisticalReturns/i_erp_reportField_case.xlsx
+++ b/instance/zyjk/ERP/statisticalReturns/i_erp_reportField_case.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="case" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="拜访分析报表" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="协访分析" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="temp" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="开发计划总揽" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="temp" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -20,7 +21,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="18">
     <font>
       <name val="Arial"/>
       <charset val="134"/>
@@ -103,6 +104,34 @@
       <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+      <color theme="0" tint="-0.09997863704336681"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <sz val="10"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -156,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -232,6 +261,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -574,8 +624,8 @@
   <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2" outlineLevelCol="0"/>
@@ -2936,7 +2986,7 @@
           <t>产品开发进度单</t>
         </is>
       </c>
-      <c r="B71" s="12" t="inlineStr">
+      <c r="B71" s="31" t="inlineStr">
         <is>
           <t>开发计划总揽</t>
         </is>
@@ -2974,7 +3024,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F72" s="12" t="inlineStr">
+      <c r="F72" s="32" t="inlineStr">
         <is>
           <t>devHeadName={string}&amp;hospitalName={string}&amp;pageNum={integer}&amp;pageSize={integer}&amp;status={string}&amp;text={string}&amp;upBillDeptStatus={string}&amp;updTimeEnd={string}&amp;updTimeStart={string}</t>
         </is>
@@ -4362,10 +4412,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="20.4" outlineLevelCol="0"/>
@@ -4375,8 +4425,8 @@
     <col width="58.5546875" customWidth="1" style="22" min="3" max="3"/>
     <col width="41.77734375" customWidth="1" style="9" min="4" max="4"/>
     <col width="37" customWidth="1" style="9" min="5" max="5"/>
-    <col width="8.88671875" customWidth="1" style="9" min="6" max="63"/>
-    <col width="8.88671875" customWidth="1" style="9" min="64" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="9" min="6" max="68"/>
+    <col width="8.88671875" customWidth="1" style="9" min="69" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.2" customHeight="1" s="11">
@@ -4432,11 +4482,16 @@
       </c>
       <c r="E2" s="9" t="inlineStr">
         <is>
-          <t>2022-06-01~2022-06-30</t>
+          <t>2022-01-01~2022-06-30</t>
         </is>
       </c>
     </row>
     <row r="3" ht="79.2" customHeight="1" s="11">
+      <c r="A3" s="9" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="B3" s="10" t="inlineStr">
         <is>
           <t>协访分析</t>
@@ -4456,7 +4511,24 @@
       </c>
       <c r="E3" s="9" t="inlineStr">
         <is>
-          <t>2022-06-01~2022-06-30</t>
+          <t>2022-01-01~2022-06-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="10" t="inlineStr">
+        <is>
+          <t>开发计划总揽</t>
+        </is>
+      </c>
+      <c r="C4" s="22" t="inlineStr">
+        <is>
+          <t>{"productId":1,"area_manager_id":85}</t>
+        </is>
+      </c>
+      <c r="D4" s="9" t="inlineStr">
+        <is>
+          <t>依叶=1，氨叶=2</t>
         </is>
       </c>
     </row>
@@ -4488,8 +4560,8 @@
     <col width="51.44140625" customWidth="1" style="21" min="4" max="4"/>
     <col width="45.33203125" customWidth="1" style="15" min="5" max="5"/>
     <col width="42.88671875" customWidth="1" style="15" min="6" max="6"/>
-    <col width="8.77734375" customWidth="1" style="20" min="7" max="38"/>
-    <col width="8.77734375" customWidth="1" style="20" min="39" max="16384"/>
+    <col width="8.77734375" customWidth="1" style="20" min="7" max="43"/>
+    <col width="8.77734375" customWidth="1" style="20" min="44" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="33.45" customFormat="1" customHeight="1" s="19">
@@ -5070,8 +5142,8 @@
     <col width="37.77734375" customWidth="1" style="24" min="5" max="5"/>
     <col width="29.33203125" customWidth="1" style="2" min="6" max="6"/>
     <col width="22.44140625" customWidth="1" style="2" min="7" max="7"/>
-    <col width="8.77734375" customWidth="1" style="4" min="8" max="539"/>
-    <col width="8.77734375" customWidth="1" style="4" min="540" max="16384"/>
+    <col width="8.77734375" customWidth="1" style="4" min="8" max="544"/>
+    <col width="8.77734375" customWidth="1" style="4" min="545" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="33.45" customFormat="1" customHeight="1" s="1">
@@ -5516,10 +5588,225 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor theme="5"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="17.4" outlineLevelCol="0"/>
+  <cols>
+    <col width="6.21875" customWidth="1" style="28" min="1" max="1"/>
+    <col width="24.6640625" customWidth="1" style="28" min="2" max="2"/>
+    <col width="29.44140625" customWidth="1" style="28" min="3" max="3"/>
+    <col width="130.44140625" customWidth="1" style="29" min="4" max="4"/>
+    <col width="8.77734375" customWidth="1" style="30" min="5" max="7"/>
+    <col width="8.77734375" customWidth="1" style="30" min="8" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" s="27">
+      <c r="A1" s="26" t="inlineStr">
+        <is>
+          <t>执行</t>
+        </is>
+      </c>
+      <c r="B1" s="26" t="inlineStr">
+        <is>
+          <t>字段名</t>
+        </is>
+      </c>
+      <c r="C1" s="26" t="inlineStr">
+        <is>
+          <t>接口返回字段名</t>
+        </is>
+      </c>
+      <c r="D1" s="26" t="inlineStr">
+        <is>
+          <t>sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="34.8" customHeight="1" s="11">
+      <c r="B2" s="28" t="inlineStr">
+        <is>
+          <t>区域</t>
+        </is>
+      </c>
+      <c r="C2" s="28" t="inlineStr">
+        <is>
+          <t>areaManagerName</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>select distinct area_manager_name FROM `t_product_dev_schedule` WHERE area_manager_id=%s and valid_status=1 and product_id=%s</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="52.2" customHeight="1" s="11">
+      <c r="B3" s="28" t="inlineStr">
+        <is>
+          <t>开户目标总数</t>
+        </is>
+      </c>
+      <c r="C3" s="28" t="inlineStr">
+        <is>
+          <t>devTargetTotal</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SELECT count(*) '开户目标总数' FROM `t_product_dev_schedule` WHERE area_manager_id=%s and valid_status=1 and product_id=%s
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="34.8" customHeight="1" s="11">
+      <c r="B4" s="28" t="inlineStr">
+        <is>
+          <t>已采购数</t>
+        </is>
+      </c>
+      <c r="C4" s="28" t="inlineStr">
+        <is>
+          <t>purchaseNum</t>
+        </is>
+      </c>
+      <c r="D4" s="29" t="inlineStr">
+        <is>
+          <t>SELECT count(*)'已采购数' FROM `t_product_dev_schedule` WHERE area_manager_id=%s  and purchase_time is not null and purchase_time != '' and valid_status=1 and product_id=%s</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="28" t="inlineStr">
+        <is>
+          <t>完成率</t>
+        </is>
+      </c>
+      <c r="C5" s="28" t="inlineStr">
+        <is>
+          <t>completionRate</t>
+        </is>
+      </c>
+      <c r="D5" s="29" t="inlineStr">
+        <is>
+          <t>purchaseNum/devTargetTotal</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="52.2" customHeight="1" s="11">
+      <c r="B6" s="28" t="inlineStr">
+        <is>
+          <t>已提单或已锁定数</t>
+        </is>
+      </c>
+      <c r="C6" s="28" t="inlineStr">
+        <is>
+          <t>upBillNum</t>
+        </is>
+      </c>
+      <c r="D6" s="29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SELECT count(*) '已提单或已锁定数' FROM `t_product_dev_schedule` WHERE area_manager_id=%s  and up_bill_dept_status in (01,04,05) and valid_status=1 and product_id=%s
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="52.2" customHeight="1" s="11">
+      <c r="B7" s="28" t="inlineStr">
+        <is>
+          <t>未提单但已承诺数</t>
+        </is>
+      </c>
+      <c r="C7" s="28" t="inlineStr">
+        <is>
+          <t>upBillNum2</t>
+        </is>
+      </c>
+      <c r="D7" s="29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SELECT count(*) '未提单但已承诺数' FROM `t_product_dev_schedule` WHERE area_manager_id=%s  and up_bill_dept_status in (02,03) and valid_status=1 and product_id=%s
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="52.2" customHeight="1" s="11">
+      <c r="B8" s="28" t="inlineStr">
+        <is>
+          <t>下次/拒绝/考虑中数</t>
+        </is>
+      </c>
+      <c r="C8" s="28" t="inlineStr">
+        <is>
+          <t>noBillNum</t>
+        </is>
+      </c>
+      <c r="D8" s="29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SELECT count(*) '下次/拒绝/考虑中数' FROM `t_product_dev_schedule` WHERE area_manager_id=%s  and up_bill_dept_status in (06,07,08) and valid_status=1 and product_id=%s
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="52.2" customHeight="1" s="11">
+      <c r="B9" s="28" t="inlineStr">
+        <is>
+          <t>无需提单/候补数</t>
+        </is>
+      </c>
+      <c r="C9" s="28" t="inlineStr">
+        <is>
+          <t>noNeedBillNum</t>
+        </is>
+      </c>
+      <c r="D9" s="29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SELECT count(*) '无需提单/候补数' FROM `t_product_dev_schedule` WHERE area_manager_id=%s  and up_bill_dept_status in (09,10) and valid_status=1 and product_id=%s
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="52.2" customHeight="1" s="11">
+      <c r="B10" s="28" t="inlineStr">
+        <is>
+          <t>开发拜访次数</t>
+        </is>
+      </c>
+      <c r="C10" s="28" t="inlineStr">
+        <is>
+          <t>devVisitNum</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SELECT count(*) '开发拜访次数' FROM `t_visit` t1 inner join user t2 on t1.manager_name=t2.USER_NAME WHERE  t1.purpose_type like '%3%' and t1.valid_status=1 and t2.USER_ID=%s
+</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation sqref="B37:B47 B48:C1048576 A2:A1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation sqref="C2:C47 B2:B36" showErrorMessage="1" showInputMessage="1" allowBlank="0"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5540,680 +5827,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>计划协访人次</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>实际协访人次</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>协访完成率</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>双A客户计划协访人次</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>双A客户实际协访人次</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>双A客户协访完成率</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>高潜客户计划协访人次</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>高潜客户实际协访人次</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>高潜客户协访完成率</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>计划协访会议次数</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>实际协访会议次数</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>会议协访完成率</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>计划会后跟进协访人数</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>实际会后跟进协访人数</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>会后跟进协访完成率</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>钮学彬(81)</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G2" t="n">
-        <v>4</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J2" t="n">
-        <v>7</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>刘挺(85)</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>145</v>
-      </c>
-      <c r="D3" t="n">
-        <v>145</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>45</v>
-      </c>
-      <c r="G3" t="n">
-        <v>45</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>63</v>
-      </c>
-      <c r="J3" t="n">
-        <v>63</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="O3" t="n">
-        <v>4</v>
-      </c>
-      <c r="P3" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>饶顺荣(86)</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>4</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>薛伟(87)</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>173</v>
-      </c>
-      <c r="D5" t="n">
-        <v>173</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>39</v>
-      </c>
-      <c r="G5" t="n">
-        <v>39</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>88</v>
-      </c>
-      <c r="J5" t="n">
-        <v>88</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="O5" t="n">
-        <v>6</v>
-      </c>
-      <c r="P5" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>张慧涛(88)</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>14</v>
-      </c>
-      <c r="D6" t="n">
-        <v>14</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
-      </c>
-      <c r="G6" t="n">
-        <v>3</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>10</v>
-      </c>
-      <c r="J6" t="n">
-        <v>10</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>廖荣平(233)</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>66</v>
-      </c>
-      <c r="D7" t="n">
-        <v>47</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>71%</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>23</v>
-      </c>
-      <c r="G7" t="n">
-        <v>19</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>83%</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>43</v>
-      </c>
-      <c r="J7" t="n">
-        <v>31</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>72%</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>邓向阳(292)</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>127</v>
-      </c>
-      <c r="D8" t="n">
-        <v>127</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>30</v>
-      </c>
-      <c r="G8" t="n">
-        <v>30</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>48</v>
-      </c>
-      <c r="J8" t="n">
-        <v>48</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="O8" t="n">
-        <v>3</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>陈东升(353)</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>总计</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>554</v>
-      </c>
-      <c r="D10" t="n">
-        <v>535</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>97%</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>145</v>
-      </c>
-      <c r="G10" t="n">
-        <v>141</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>97%</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>263</v>
-      </c>
-      <c r="J10" t="n">
-        <v>251</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>95%</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="O10" t="n">
-        <v>13</v>
-      </c>
-      <c r="P10" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>100%</t>
+          <t>区域</t>
         </is>
       </c>
     </row>

--- a/instance/zyjk/ERP/statisticalReturns/i_erp_reportField_case.xlsx
+++ b/instance/zyjk/ERP/statisticalReturns/i_erp_reportField_case.xlsx
@@ -4412,10 +4412,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="20.4" outlineLevelCol="0"/>
@@ -4425,8 +4425,8 @@
     <col width="58.5546875" customWidth="1" style="22" min="3" max="3"/>
     <col width="41.77734375" customWidth="1" style="9" min="4" max="4"/>
     <col width="37" customWidth="1" style="9" min="5" max="5"/>
-    <col width="8.88671875" customWidth="1" style="9" min="6" max="68"/>
-    <col width="8.88671875" customWidth="1" style="9" min="69" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="9" min="6" max="69"/>
+    <col width="8.88671875" customWidth="1" style="9" min="70" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.2" customHeight="1" s="11">
@@ -4457,11 +4457,6 @@
       </c>
     </row>
     <row r="2" ht="93.59999999999999" customHeight="1" s="11">
-      <c r="A2" s="9" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
       <c r="B2" s="10" t="inlineStr">
         <is>
           <t>拜访分析报表</t>
@@ -4512,23 +4507,6 @@
       <c r="E3" s="9" t="inlineStr">
         <is>
           <t>2022-01-01~2022-06-30</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="10" t="inlineStr">
-        <is>
-          <t>开发计划总揽</t>
-        </is>
-      </c>
-      <c r="C4" s="22" t="inlineStr">
-        <is>
-          <t>{"productId":1,"area_manager_id":85}</t>
-        </is>
-      </c>
-      <c r="D4" s="9" t="inlineStr">
-        <is>
-          <t>依叶=1，氨叶=2</t>
         </is>
       </c>
     </row>
@@ -4560,8 +4538,8 @@
     <col width="51.44140625" customWidth="1" style="21" min="4" max="4"/>
     <col width="45.33203125" customWidth="1" style="15" min="5" max="5"/>
     <col width="42.88671875" customWidth="1" style="15" min="6" max="6"/>
-    <col width="8.77734375" customWidth="1" style="20" min="7" max="43"/>
-    <col width="8.77734375" customWidth="1" style="20" min="44" max="16384"/>
+    <col width="8.77734375" customWidth="1" style="20" min="7" max="44"/>
+    <col width="8.77734375" customWidth="1" style="20" min="45" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="33.45" customFormat="1" customHeight="1" s="19">
@@ -5142,8 +5120,8 @@
     <col width="37.77734375" customWidth="1" style="24" min="5" max="5"/>
     <col width="29.33203125" customWidth="1" style="2" min="6" max="6"/>
     <col width="22.44140625" customWidth="1" style="2" min="7" max="7"/>
-    <col width="8.77734375" customWidth="1" style="4" min="8" max="544"/>
-    <col width="8.77734375" customWidth="1" style="4" min="545" max="16384"/>
+    <col width="8.77734375" customWidth="1" style="4" min="8" max="545"/>
+    <col width="8.77734375" customWidth="1" style="4" min="546" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="33.45" customFormat="1" customHeight="1" s="1">
@@ -5604,8 +5582,8 @@
     <col width="24.6640625" customWidth="1" style="28" min="2" max="2"/>
     <col width="29.44140625" customWidth="1" style="28" min="3" max="3"/>
     <col width="130.44140625" customWidth="1" style="29" min="4" max="4"/>
-    <col width="8.77734375" customWidth="1" style="30" min="5" max="7"/>
-    <col width="8.77734375" customWidth="1" style="30" min="8" max="16384"/>
+    <col width="8.77734375" customWidth="1" style="30" min="5" max="8"/>
+    <col width="8.77734375" customWidth="1" style="30" min="9" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="27">
@@ -5806,7 +5784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:Z35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5827,8 +5805,3489 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>区域</t>
-        </is>
+          <t>计划拜访人次</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>实际拜访人次</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>实际拜访率</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>双A客户实际拜访人次</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>双A客户实际拜访率</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>双A客户实际拜访覆盖率</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>双A客户拜访频率</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>高潜客户实际拜访人次</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>高潜客户实际拜访率</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>高潜客户实际拜访覆盖率</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>高潜客户拜访频率</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>新增客户数（位）</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>实际拜访客户覆盖率</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>计划会议之后跟进人数</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>实际会后跟进人数</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>会后跟进率</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>达成会后跟进目标人数</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>拜访定位匹配人次</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>客户总数</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>实际拜访人数</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>客户双A总数</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>客户高潜总数</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>双A客户实际拜访人数（拜访完成大于等于6次的人数）</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>高潜客户实际拜访人数（拜访完成大于等于4次的人数）</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>黄新晖(84)</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>273</v>
+      </c>
+      <c r="D2" t="n">
+        <v>273</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>76</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>28%</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>12%</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>304%</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>135</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>49%</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>255%</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>52%</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S2" t="n">
+        <v>23</v>
+      </c>
+      <c r="U2" t="n">
+        <v>189</v>
+      </c>
+      <c r="V2" t="n">
+        <v>99</v>
+      </c>
+      <c r="W2" t="n">
+        <v>25</v>
+      </c>
+      <c r="X2" t="n">
+        <v>53</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>孙洪霄(90)</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>243</v>
+      </c>
+      <c r="D3" t="n">
+        <v>243</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>37</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>67%</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>617%</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>97</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>36%</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>346%</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>12</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>121</v>
+      </c>
+      <c r="V3" t="n">
+        <v>61</v>
+      </c>
+      <c r="W3" t="n">
+        <v>6</v>
+      </c>
+      <c r="X3" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>黄代玉(92)</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>281</v>
+      </c>
+      <c r="D4" t="n">
+        <v>281</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>83</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>23%</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>319%</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>118</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>47%</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>311%</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>63%</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v>88</v>
+      </c>
+      <c r="U4" t="n">
+        <v>146</v>
+      </c>
+      <c r="V4" t="n">
+        <v>92</v>
+      </c>
+      <c r="W4" t="n">
+        <v>26</v>
+      </c>
+      <c r="X4" t="n">
+        <v>38</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>盛瑛(96)</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>162</v>
+      </c>
+      <c r="D5" t="n">
+        <v>162</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>37</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>23%</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>57%</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>529%</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>45</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>28%</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>56%</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>500%</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>64%</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v>30</v>
+      </c>
+      <c r="U5" t="n">
+        <v>47</v>
+      </c>
+      <c r="V5" t="n">
+        <v>30</v>
+      </c>
+      <c r="W5" t="n">
+        <v>7</v>
+      </c>
+      <c r="X5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>周夙(101)</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>262</v>
+      </c>
+      <c r="D6" t="n">
+        <v>262</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>55</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>21%</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>14%</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>393%</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>87</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>33%</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>41%</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>322%</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>2</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>92%</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v>95</v>
+      </c>
+      <c r="U6" t="n">
+        <v>103</v>
+      </c>
+      <c r="V6" t="n">
+        <v>95</v>
+      </c>
+      <c r="W6" t="n">
+        <v>14</v>
+      </c>
+      <c r="X6" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>沈丹峰(103)</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>267</v>
+      </c>
+      <c r="D7" t="n">
+        <v>267</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>72</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>27%</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>19%</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>450%</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>120</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>45%</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>55%</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>414%</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>77%</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
+        <v>82</v>
+      </c>
+      <c r="U7" t="n">
+        <v>106</v>
+      </c>
+      <c r="V7" t="n">
+        <v>82</v>
+      </c>
+      <c r="W7" t="n">
+        <v>16</v>
+      </c>
+      <c r="X7" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>万小利(107)</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>253</v>
+      </c>
+      <c r="D8" t="n">
+        <v>253</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>55</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>22%</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>21%</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>393%</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>155</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>61%</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>79%</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>534%</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
+        <v>81</v>
+      </c>
+      <c r="U8" t="n">
+        <v>108</v>
+      </c>
+      <c r="V8" t="n">
+        <v>81</v>
+      </c>
+      <c r="W8" t="n">
+        <v>14</v>
+      </c>
+      <c r="X8" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>彭琦(111)</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>226</v>
+      </c>
+      <c r="D9" t="n">
+        <v>226</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>63</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>28%</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>27%</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>420%</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>75</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>33%</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>63%</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>395%</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>2</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>57%</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v>64</v>
+      </c>
+      <c r="U9" t="n">
+        <v>114</v>
+      </c>
+      <c r="V9" t="n">
+        <v>65</v>
+      </c>
+      <c r="W9" t="n">
+        <v>15</v>
+      </c>
+      <c r="X9" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>徐丽莉(112)</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>288</v>
+      </c>
+      <c r="D10" t="n">
+        <v>288</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>110</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>38%</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>33%</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>458%</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>144</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>411%</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>8</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>72%</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v>8</v>
+      </c>
+      <c r="U10" t="n">
+        <v>145</v>
+      </c>
+      <c r="V10" t="n">
+        <v>104</v>
+      </c>
+      <c r="W10" t="n">
+        <v>24</v>
+      </c>
+      <c r="X10" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>孙春艳(113)</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>212</v>
+      </c>
+      <c r="D11" t="n">
+        <v>212</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>43</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>36%</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>391%</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>71</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>33%</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>31%</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>273%</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
+        <v>67</v>
+      </c>
+      <c r="U11" t="n">
+        <v>104</v>
+      </c>
+      <c r="V11" t="n">
+        <v>73</v>
+      </c>
+      <c r="W11" t="n">
+        <v>11</v>
+      </c>
+      <c r="X11" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>汪承文(115)</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>176</v>
+      </c>
+      <c r="D12" t="n">
+        <v>175</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99%</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>7</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>233%</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>38</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>22%</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>45%</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>345%</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>72%</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S12" t="n">
+        <v>39</v>
+      </c>
+      <c r="U12" t="n">
+        <v>54</v>
+      </c>
+      <c r="V12" t="n">
+        <v>39</v>
+      </c>
+      <c r="W12" t="n">
+        <v>3</v>
+      </c>
+      <c r="X12" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>孙娟(117)</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>200</v>
+      </c>
+      <c r="D13" t="n">
+        <v>200</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>39</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>279%</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>86</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>43%</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>36%</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>344%</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>68%</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
+        <v>74</v>
+      </c>
+      <c r="U13" t="n">
+        <v>110</v>
+      </c>
+      <c r="V13" t="n">
+        <v>75</v>
+      </c>
+      <c r="W13" t="n">
+        <v>14</v>
+      </c>
+      <c r="X13" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>张红芳(119)</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>208</v>
+      </c>
+      <c r="D14" t="n">
+        <v>208</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>51</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>510%</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>93</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>45%</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>404%</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>79%</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S14" t="n">
+        <v>72</v>
+      </c>
+      <c r="U14" t="n">
+        <v>91</v>
+      </c>
+      <c r="V14" t="n">
+        <v>72</v>
+      </c>
+      <c r="W14" t="n">
+        <v>10</v>
+      </c>
+      <c r="X14" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>宋绍菊(121)</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>302</v>
+      </c>
+      <c r="D15" t="n">
+        <v>302</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>82</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>27%</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>357%</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>134</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>38%</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>335%</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>77%</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>8</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="S15" t="n">
+        <v>113</v>
+      </c>
+      <c r="U15" t="n">
+        <v>158</v>
+      </c>
+      <c r="V15" t="n">
+        <v>121</v>
+      </c>
+      <c r="W15" t="n">
+        <v>23</v>
+      </c>
+      <c r="X15" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>李秀广(122)</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>265</v>
+      </c>
+      <c r="D16" t="n">
+        <v>265</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>38%</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>333%</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>144</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>54%</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>31%</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>300%</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>62%</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>63%</t>
+        </is>
+      </c>
+      <c r="S16" t="n">
+        <v>113</v>
+      </c>
+      <c r="U16" t="n">
+        <v>183</v>
+      </c>
+      <c r="V16" t="n">
+        <v>113</v>
+      </c>
+      <c r="W16" t="n">
+        <v>30</v>
+      </c>
+      <c r="X16" t="n">
+        <v>48</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>易荣(123)</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>204</v>
+      </c>
+      <c r="D17" t="n">
+        <v>204</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>43</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>21%</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>14%</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>195%</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>118</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>58%</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>9%</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>215%</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>6</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>55%</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>71%</t>
+        </is>
+      </c>
+      <c r="S17" t="n">
+        <v>106</v>
+      </c>
+      <c r="U17" t="n">
+        <v>197</v>
+      </c>
+      <c r="V17" t="n">
+        <v>108</v>
+      </c>
+      <c r="W17" t="n">
+        <v>22</v>
+      </c>
+      <c r="X17" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>王杰(126)</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>254</v>
+      </c>
+      <c r="D18" t="n">
+        <v>252</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99%</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>54</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>21%</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>18%</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>318%</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>122</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>48%</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>37%</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>321%</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S18" t="n">
+        <v>116</v>
+      </c>
+      <c r="U18" t="n">
+        <v>145</v>
+      </c>
+      <c r="V18" t="n">
+        <v>116</v>
+      </c>
+      <c r="W18" t="n">
+        <v>17</v>
+      </c>
+      <c r="X18" t="n">
+        <v>38</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>夏友明(127)</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>220</v>
+      </c>
+      <c r="D19" t="n">
+        <v>220</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>42</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>19%</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>27%</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>382%</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>97</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>323%</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S19" t="n">
+        <v>38</v>
+      </c>
+      <c r="U19" t="n">
+        <v>119</v>
+      </c>
+      <c r="V19" t="n">
+        <v>95</v>
+      </c>
+      <c r="W19" t="n">
+        <v>11</v>
+      </c>
+      <c r="X19" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>吴永辉(130)</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>261</v>
+      </c>
+      <c r="D20" t="n">
+        <v>261</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>49</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>19%</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>408%</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>79</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>59%</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>465%</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>85%</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S20" t="n">
+        <v>53</v>
+      </c>
+      <c r="U20" t="n">
+        <v>62</v>
+      </c>
+      <c r="V20" t="n">
+        <v>53</v>
+      </c>
+      <c r="W20" t="n">
+        <v>12</v>
+      </c>
+      <c r="X20" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>王浩文(247)</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>275</v>
+      </c>
+      <c r="D21" t="n">
+        <v>275</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>83</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>23%</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>377%</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>142</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>52%</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>34%</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>374%</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>3</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>66%</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>9</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="S21" t="n">
+        <v>106</v>
+      </c>
+      <c r="U21" t="n">
+        <v>171</v>
+      </c>
+      <c r="V21" t="n">
+        <v>113</v>
+      </c>
+      <c r="W21" t="n">
+        <v>22</v>
+      </c>
+      <c r="X21" t="n">
+        <v>38</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>马俊(250)</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>110</v>
+      </c>
+      <c r="D22" t="n">
+        <v>110</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>19</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>17%</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>317%</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>39</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>35%</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>58%</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>325%</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>78%</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S22" t="n">
+        <v>43</v>
+      </c>
+      <c r="U22" t="n">
+        <v>55</v>
+      </c>
+      <c r="V22" t="n">
+        <v>43</v>
+      </c>
+      <c r="W22" t="n">
+        <v>6</v>
+      </c>
+      <c r="X22" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>冯玲(251)</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>267</v>
+      </c>
+      <c r="D23" t="n">
+        <v>267</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>100</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>37%</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>1111%</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>180</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>67%</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>947%</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>77%</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S23" t="n">
+        <v>52</v>
+      </c>
+      <c r="U23" t="n">
+        <v>71</v>
+      </c>
+      <c r="V23" t="n">
+        <v>55</v>
+      </c>
+      <c r="W23" t="n">
+        <v>9</v>
+      </c>
+      <c r="X23" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>王艳玲(252)</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>268</v>
+      </c>
+      <c r="D24" t="n">
+        <v>268</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>43</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>16%</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>27%</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>391%</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>112</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>31%</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>267%</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S24" t="n">
+        <v>87</v>
+      </c>
+      <c r="U24" t="n">
+        <v>146</v>
+      </c>
+      <c r="V24" t="n">
+        <v>87</v>
+      </c>
+      <c r="W24" t="n">
+        <v>11</v>
+      </c>
+      <c r="X24" t="n">
+        <v>42</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>王亚东(253)</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>262</v>
+      </c>
+      <c r="D25" t="n">
+        <v>262</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>52</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>867%</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>123</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>47%</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>52%</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>456%</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>3</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="S25" t="n">
+        <v>75</v>
+      </c>
+      <c r="U25" t="n">
+        <v>108</v>
+      </c>
+      <c r="V25" t="n">
+        <v>76</v>
+      </c>
+      <c r="W25" t="n">
+        <v>6</v>
+      </c>
+      <c r="X25" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>盛慧芳(254)</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>278</v>
+      </c>
+      <c r="D26" t="n">
+        <v>278</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>84</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>420%</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>107</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>38%</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>33%</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>357%</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>76%</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S26" t="n">
+        <v>82</v>
+      </c>
+      <c r="U26" t="n">
+        <v>108</v>
+      </c>
+      <c r="V26" t="n">
+        <v>82</v>
+      </c>
+      <c r="W26" t="n">
+        <v>20</v>
+      </c>
+      <c r="X26" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>魏来(255)</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>293</v>
+      </c>
+      <c r="D27" t="n">
+        <v>293</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>74</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>88%</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>925%</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>134</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>79%</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>705%</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>72%</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S27" t="n">
+        <v>54</v>
+      </c>
+      <c r="U27" t="n">
+        <v>75</v>
+      </c>
+      <c r="V27" t="n">
+        <v>54</v>
+      </c>
+      <c r="W27" t="n">
+        <v>8</v>
+      </c>
+      <c r="X27" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>黄淼(257)</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>214</v>
+      </c>
+      <c r="D28" t="n">
+        <v>214</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>27</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>13%</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>450%</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>65</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>260%</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>61%</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S28" t="n">
+        <v>56</v>
+      </c>
+      <c r="U28" t="n">
+        <v>100</v>
+      </c>
+      <c r="V28" t="n">
+        <v>61</v>
+      </c>
+      <c r="W28" t="n">
+        <v>6</v>
+      </c>
+      <c r="X28" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>黄成名(262)</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>252</v>
+      </c>
+      <c r="D29" t="n">
+        <v>252</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>70</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>28%</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>350%</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>121</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>48%</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>38%</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>327%</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>57%</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S29" t="n">
+        <v>73</v>
+      </c>
+      <c r="U29" t="n">
+        <v>143</v>
+      </c>
+      <c r="V29" t="n">
+        <v>81</v>
+      </c>
+      <c r="W29" t="n">
+        <v>20</v>
+      </c>
+      <c r="X29" t="n">
+        <v>37</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>孙华江(305)</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>284</v>
+      </c>
+      <c r="D30" t="n">
+        <v>284</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>38</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>13%</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>422%</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>169</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>352%</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>47%</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S30" t="n">
+        <v>83</v>
+      </c>
+      <c r="U30" t="n">
+        <v>177</v>
+      </c>
+      <c r="V30" t="n">
+        <v>84</v>
+      </c>
+      <c r="W30" t="n">
+        <v>9</v>
+      </c>
+      <c r="X30" t="n">
+        <v>48</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>王丽(313)</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>209</v>
+      </c>
+      <c r="D31" t="n">
+        <v>209</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>53</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>530%</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>120</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>57%</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>57%</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>429%</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>48%</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S31" t="n">
+        <v>51</v>
+      </c>
+      <c r="U31" t="n">
+        <v>112</v>
+      </c>
+      <c r="V31" t="n">
+        <v>54</v>
+      </c>
+      <c r="W31" t="n">
+        <v>10</v>
+      </c>
+      <c r="X31" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>余丽红(314)</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>174</v>
+      </c>
+      <c r="D32" t="n">
+        <v>174</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>23</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>13%</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>209%</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>62</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>36%</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>17%</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>214%</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>8</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>63%</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S32" t="n">
+        <v>79</v>
+      </c>
+      <c r="U32" t="n">
+        <v>125</v>
+      </c>
+      <c r="V32" t="n">
+        <v>79</v>
+      </c>
+      <c r="W32" t="n">
+        <v>11</v>
+      </c>
+      <c r="X32" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>刘淑华(373)</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>266</v>
+      </c>
+      <c r="D33" t="n">
+        <v>266</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>49</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>18%</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>408%</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
+        <v>125</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>47%</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>45%</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>313%</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>66%</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="S33" t="n">
+        <v>82</v>
+      </c>
+      <c r="U33" t="n">
+        <v>156</v>
+      </c>
+      <c r="V33" t="n">
+        <v>103</v>
+      </c>
+      <c r="W33" t="n">
+        <v>12</v>
+      </c>
+      <c r="X33" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>郑国英(384)</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>225</v>
+      </c>
+      <c r="D34" t="n">
+        <v>225</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>99</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>521%</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>155</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>69%</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>83%</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>517%</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>13</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>9</v>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>53%</t>
+        </is>
+      </c>
+      <c r="S34" t="n">
+        <v>60</v>
+      </c>
+      <c r="U34" t="n">
+        <v>154</v>
+      </c>
+      <c r="V34" t="n">
+        <v>62</v>
+      </c>
+      <c r="W34" t="n">
+        <v>19</v>
+      </c>
+      <c r="X34" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>总计</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>7934</v>
+      </c>
+      <c r="D35" t="n">
+        <v>7931</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>1912</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>24%</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>26%</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>408%</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>3612</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>360%</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>47</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>65%</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>81</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>55</v>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>68%</t>
+        </is>
+      </c>
+      <c r="S35" t="n">
+        <v>2245</v>
+      </c>
+      <c r="U35" t="n">
+        <v>4003</v>
+      </c>
+      <c r="V35" t="n">
+        <v>2608</v>
+      </c>
+      <c r="W35" t="n">
+        <v>469</v>
+      </c>
+      <c r="X35" t="n">
+        <v>1004</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>121</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>438</v>
       </c>
     </row>
   </sheetData>

--- a/instance/zyjk/ERP/statisticalReturns/i_erp_reportField_case.xlsx
+++ b/instance/zyjk/ERP/statisticalReturns/i_erp_reportField_case.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22368" windowHeight="9420" tabRatio="527" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22368" windowHeight="9420" tabRatio="527" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="default" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,10 +11,11 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="拜访分析报表" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="协访分析" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="开发计划总揽" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="temp" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="interface" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="browser" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" calcMode="manual" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -133,7 +134,7 @@
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -155,6 +156,21 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ff0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -185,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -283,6 +299,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4414,8 +4434,8 @@
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="20.4" outlineLevelCol="0"/>
@@ -4425,8 +4445,8 @@
     <col width="58.5546875" customWidth="1" style="22" min="3" max="3"/>
     <col width="41.77734375" customWidth="1" style="9" min="4" max="4"/>
     <col width="37" customWidth="1" style="9" min="5" max="5"/>
-    <col width="8.88671875" customWidth="1" style="9" min="6" max="69"/>
-    <col width="8.88671875" customWidth="1" style="9" min="70" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="9" min="6" max="80"/>
+    <col width="8.88671875" customWidth="1" style="9" min="81" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.2" customHeight="1" s="11">
@@ -4464,7 +4484,7 @@
       </c>
       <c r="C2" s="22" t="inlineStr">
         <is>
-          <t>{"currPage": 0, "deptId": "", "endTime": "2022-06-30 23:59:59", "pageSize": 0, "searchId": "", "searchName": "", "starTime": "2022-06-01"}</t>
+          <t>{"currPage": 0, "deptId": "", "endTime": "2022-07-25 23:59:59", "pageSize": 0, "searchId": "", "searchName": "", "starTime": "2022-07-01"}</t>
         </is>
       </c>
       <c r="D2" s="22" t="inlineStr">
@@ -4477,7 +4497,7 @@
       </c>
       <c r="E2" s="9" t="inlineStr">
         <is>
-          <t>2022-01-01~2022-06-30</t>
+          <t>2022-07-01~2022-07-25</t>
         </is>
       </c>
     </row>
@@ -4526,8 +4546,8 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="17.4" outlineLevelCol="0"/>
@@ -4538,8 +4558,8 @@
     <col width="51.44140625" customWidth="1" style="21" min="4" max="4"/>
     <col width="45.33203125" customWidth="1" style="15" min="5" max="5"/>
     <col width="42.88671875" customWidth="1" style="15" min="6" max="6"/>
-    <col width="8.77734375" customWidth="1" style="20" min="7" max="44"/>
-    <col width="8.77734375" customWidth="1" style="20" min="45" max="16384"/>
+    <col width="8.77734375" customWidth="1" style="20" min="7" max="55"/>
+    <col width="8.77734375" customWidth="1" style="20" min="56" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="33.45" customFormat="1" customHeight="1" s="19">
@@ -4821,9 +4841,9 @@
       </c>
     </row>
     <row r="15" ht="44.4" customHeight="1" s="11">
-      <c r="B15" s="16" t="inlineStr">
-        <is>
-          <t>计划会议之后跟进人数</t>
+      <c r="B15" s="6" t="inlineStr">
+        <is>
+          <t>计划会后跟进人数</t>
         </is>
       </c>
       <c r="C15" s="16" t="inlineStr">
@@ -4831,7 +4851,7 @@
           <t>plannedMeetingFollowNumber</t>
         </is>
       </c>
-      <c r="D15" s="17" t="inlineStr">
+      <c r="D15" s="7" t="inlineStr">
         <is>
           <t>select count(DISTINCT(t2.customer_id)) from t_meeting_info t1 LEFT  JOIN t_customer_follow t2 on t1.id=t2.meeting_id where t1.apply_people_id=%s and t1.valid_status=1 and t1.create_at&gt;='%s' and t1.create_at&lt;='%s'</t>
         </is>
@@ -4887,9 +4907,9 @@
       </c>
     </row>
     <row r="18" ht="31.8" customHeight="1" s="11">
-      <c r="B18" s="16" t="inlineStr">
-        <is>
-          <t>达成会后跟进目标人数</t>
+      <c r="B18" s="6" t="inlineStr">
+        <is>
+          <t>达成会后跟进人数</t>
         </is>
       </c>
       <c r="C18" s="13" t="inlineStr">
@@ -4899,7 +4919,7 @@
       </c>
       <c r="D18" s="14" t="inlineStr">
         <is>
-          <t>select count(DISTINCT customer_id) 达成会后跟进目标人数 from t_visit  t1 inner join t_result_basics t2 on t1.id=t2.visit_id WHERE user_id=%s and t2.market_conclude=1  and t1.created_at&gt;='%s' and t1.created_at&lt;='%s' and t1.valid_status=1</t>
+          <t>select count(DISTINCT customer_id) 达成会后跟进人数 from t_visit  t1 inner join t_result_basics t2 on t1.id=t2.visit_id WHERE user_id=%s and t2.market_conclude=1  and t1.created_at&gt;='%s' and t1.created_at&lt;='%s' and t1.valid_status=1</t>
         </is>
       </c>
       <c r="E18" s="24" t="inlineStr">
@@ -5120,8 +5140,8 @@
     <col width="37.77734375" customWidth="1" style="24" min="5" max="5"/>
     <col width="29.33203125" customWidth="1" style="2" min="6" max="6"/>
     <col width="22.44140625" customWidth="1" style="2" min="7" max="7"/>
-    <col width="8.77734375" customWidth="1" style="4" min="8" max="545"/>
-    <col width="8.77734375" customWidth="1" style="4" min="546" max="16384"/>
+    <col width="8.77734375" customWidth="1" style="4" min="8" max="556"/>
+    <col width="8.77734375" customWidth="1" style="4" min="557" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="33.45" customFormat="1" customHeight="1" s="1">
@@ -5582,8 +5602,8 @@
     <col width="24.6640625" customWidth="1" style="28" min="2" max="2"/>
     <col width="29.44140625" customWidth="1" style="28" min="3" max="3"/>
     <col width="130.44140625" customWidth="1" style="29" min="4" max="4"/>
-    <col width="8.77734375" customWidth="1" style="30" min="5" max="8"/>
-    <col width="8.77734375" customWidth="1" style="30" min="9" max="16384"/>
+    <col width="8.77734375" customWidth="1" style="30" min="5" max="19"/>
+    <col width="8.77734375" customWidth="1" style="30" min="20" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="27">
@@ -5784,7 +5804,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z35"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5800,2108 +5820,2138 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>代表（id）</t>
+          <t>区域</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>代表</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>计划拜访人次</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>实际拜访人次</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>实际拜访率</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>双A客户实际拜访人次</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>双A客户实际拜访率</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>双A客户实际拜访覆盖率</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>双A客户拜访频率</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>高潜客户实际拜访人次</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>高潜客户实际拜访率</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>高潜客户实际拜访覆盖率</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>高潜客户拜访频率</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>新增客户数（位）</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>实际拜访客户覆盖率</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>计划会议之后跟进人数</t>
-        </is>
-      </c>
       <c r="Q1" t="inlineStr">
         <is>
+          <t>计划会后跟进人数</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
           <t>实际会后跟进人数</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>会后跟进率</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>达成会后跟进目标人数</t>
-        </is>
-      </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>拜访定位匹配人次</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>客户总数</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>实际拜访人数</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>客户双A总数</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>客户高潜总数</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>双A客户实际拜访人数（拜访完成大于等于6次的人数）</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>高潜客户实际拜访人数（拜访完成大于等于4次的人数）</t>
+          <t>达成会后跟进人数</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>黄新晖(84)</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>273</v>
-      </c>
-      <c r="D2" t="n">
-        <v>273</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B2" s="36" t="inlineStr">
+        <is>
+          <t>廖荣平</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>黄新晖</t>
+        </is>
+      </c>
+      <c r="D2" s="35" t="inlineStr">
+        <is>
+          <t>黄新晖</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>76</v>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>89%</t>
+        </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>28%</t>
+          <t>16</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>12%</t>
+          <t>17%</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>304%</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
-        <v>135</v>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>64%</t>
+        </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>49%</t>
+          <t>37</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>39%</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>255%</t>
-        </is>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
+          <t>2%</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>70%</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>52%</t>
-        </is>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>29%</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S2" t="n">
-        <v>23</v>
-      </c>
-      <c r="U2" t="n">
-        <v>189</v>
-      </c>
-      <c r="V2" t="n">
-        <v>99</v>
-      </c>
-      <c r="W2" t="n">
-        <v>25</v>
-      </c>
-      <c r="X2" t="n">
-        <v>53</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>13</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T2" s="35" t="inlineStr">
+        <is>
+          <t>20(sql)/0</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>孙洪霄(90)</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>243</v>
-      </c>
-      <c r="D3" t="n">
-        <v>243</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B3" s="36" t="inlineStr">
+        <is>
+          <t>钮学彬</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>孙洪霄</t>
+        </is>
+      </c>
+      <c r="D3" s="35" t="inlineStr">
+        <is>
+          <t>孙洪霄</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>37</v>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>15%</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>617%</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>97</v>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>133%</t>
+        </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>35%</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>104%</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
           <t>40%</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>36%</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>346%</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
-      </c>
-      <c r="P3" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>12</v>
+      <c r="Q3" s="35" t="inlineStr">
+        <is>
+          <t>4(sql)/14</t>
+        </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>92%</t>
-        </is>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>121</v>
-      </c>
-      <c r="V3" t="n">
-        <v>61</v>
-      </c>
-      <c r="W3" t="n">
-        <v>6</v>
-      </c>
-      <c r="X3" t="n">
-        <v>28</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>10</v>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="T3" s="35" t="inlineStr">
+        <is>
+          <t>1(sql)/0</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>黄代玉(92)</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>281</v>
-      </c>
-      <c r="D4" t="n">
-        <v>281</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B4" s="36" t="inlineStr">
+        <is>
+          <t>钮学彬</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>黄代玉</t>
+        </is>
+      </c>
+      <c r="D4" s="35" t="inlineStr">
+        <is>
+          <t>黄代玉</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>83</v>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>37</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>23%</t>
+          <t>32%</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>319%</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
-        <v>118</v>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>142%</t>
+        </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>42%</t>
+          <t>52</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>47%</t>
+          <t>44%</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>311%</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>137%</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>63%</t>
-        </is>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>54%</t>
+        </is>
+      </c>
+      <c r="Q4" s="35" t="inlineStr">
+        <is>
+          <t>5(sql)/1</t>
+        </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S4" t="n">
-        <v>88</v>
-      </c>
-      <c r="U4" t="n">
-        <v>146</v>
-      </c>
-      <c r="V4" t="n">
-        <v>92</v>
-      </c>
-      <c r="W4" t="n">
-        <v>26</v>
-      </c>
-      <c r="X4" t="n">
-        <v>38</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>18</v>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="T4" s="35" t="inlineStr">
+        <is>
+          <t>78(sql)/0</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>盛瑛(96)</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>162</v>
-      </c>
-      <c r="D5" t="n">
-        <v>162</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B5" s="36" t="inlineStr">
+        <is>
+          <t>陈东升</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>盛瑛</t>
+        </is>
+      </c>
+      <c r="D5" s="35" t="inlineStr">
+        <is>
+          <t>盛瑛</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>37</v>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>89%</t>
+        </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>23%</t>
+          <t>23</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>57%</t>
+          <t>22%</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>529%</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
-        <v>45</v>
+          <t>14%</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>329%</t>
+        </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>28%</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>56%</t>
-        </is>
-      </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>500%</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
-        <v>1</v>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>322%</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>64%</t>
-        </is>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S5" t="n">
-        <v>30</v>
-      </c>
-      <c r="U5" t="n">
-        <v>47</v>
-      </c>
-      <c r="V5" t="n">
-        <v>30</v>
-      </c>
-      <c r="W5" t="n">
-        <v>7</v>
-      </c>
-      <c r="X5" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>5</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T5" s="35" t="inlineStr">
+        <is>
+          <t>33(sql)/0</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>周夙(101)</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>262</v>
-      </c>
-      <c r="D6" t="n">
-        <v>262</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B6" s="36" t="inlineStr">
+        <is>
+          <t>邓向阳</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>周夙</t>
+        </is>
+      </c>
+      <c r="D6" s="35" t="inlineStr">
+        <is>
+          <t>周夙</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>55</v>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>21%</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>14%</t>
+          <t>34%</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>393%</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
-        <v>87</v>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>250%</t>
+        </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>46</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>41%</t>
+          <t>44%</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>322%</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
-        <v>2</v>
+          <t>22%</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>170%</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>92%</t>
-        </is>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>49%</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S6" t="n">
-        <v>95</v>
-      </c>
-      <c r="U6" t="n">
-        <v>103</v>
-      </c>
-      <c r="V6" t="n">
-        <v>95</v>
-      </c>
-      <c r="W6" t="n">
-        <v>14</v>
-      </c>
-      <c r="X6" t="n">
-        <v>27</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>11</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T6" s="35" t="inlineStr">
+        <is>
+          <t>49(sql)/0</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>沈丹峰(103)</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>267</v>
-      </c>
-      <c r="D7" t="n">
-        <v>267</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B7" s="36" t="inlineStr">
+        <is>
+          <t>邓向阳</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>沈丹峰</t>
+        </is>
+      </c>
+      <c r="D7" s="35" t="inlineStr">
+        <is>
+          <t>沈丹峰</t>
+        </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>72</v>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>98%</t>
+        </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>27%</t>
+          <t>31</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>19%</t>
+          <t>31%</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>450%</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
-        <v>120</v>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>194%</t>
+        </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>45%</t>
+          <t>61</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>55%</t>
+          <t>62%</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>414%</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
+          <t>14%</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>210%</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>77%</t>
-        </is>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>53%</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S7" t="n">
-        <v>82</v>
-      </c>
-      <c r="U7" t="n">
-        <v>106</v>
-      </c>
-      <c r="V7" t="n">
-        <v>82</v>
-      </c>
-      <c r="W7" t="n">
-        <v>16</v>
-      </c>
-      <c r="X7" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>16</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T7" s="35" t="inlineStr">
+        <is>
+          <t>56(sql)/0</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>万小利(107)</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>253</v>
-      </c>
-      <c r="D8" t="n">
-        <v>253</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B8" s="36" t="inlineStr">
+        <is>
+          <t>廖荣平</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万小利</t>
+        </is>
+      </c>
+      <c r="D8" s="35" t="inlineStr">
+        <is>
+          <t>万小利</t>
+        </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>55</v>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>22%</t>
+          <t>24</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>21%</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>393%</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
-        <v>155</v>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>171%</t>
+        </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>61%</t>
+          <t>55</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>57%</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>534%</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
+          <t>7%</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>190%</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>75%</t>
-        </is>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>56%</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S8" t="n">
-        <v>81</v>
-      </c>
-      <c r="U8" t="n">
-        <v>108</v>
-      </c>
-      <c r="V8" t="n">
-        <v>81</v>
-      </c>
-      <c r="W8" t="n">
-        <v>14</v>
-      </c>
-      <c r="X8" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>23</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T8" s="35" t="inlineStr">
+        <is>
+          <t>61(sql)/0</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>彭琦(111)</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>226</v>
-      </c>
-      <c r="D9" t="n">
-        <v>226</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B9" s="36" t="inlineStr">
+        <is>
+          <t>薛伟</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>彭琦</t>
+        </is>
+      </c>
+      <c r="D9" s="35" t="inlineStr">
+        <is>
+          <t>彭琦</t>
+        </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="F9" t="n">
-        <v>63</v>
-      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>28%</t>
+          <t>33</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>27%</t>
+          <t>42%</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>420%</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
-        <v>75</v>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>220%</t>
+        </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>41</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>53%</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>395%</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
-        <v>2</v>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>216%</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>57%</t>
-        </is>
-      </c>
-      <c r="P9" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>32%</t>
+        </is>
+      </c>
+      <c r="Q9" s="35" t="inlineStr">
+        <is>
+          <t>0(sql)/2</t>
+        </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S9" t="n">
-        <v>64</v>
-      </c>
-      <c r="U9" t="n">
-        <v>114</v>
-      </c>
-      <c r="V9" t="n">
-        <v>65</v>
-      </c>
-      <c r="W9" t="n">
-        <v>15</v>
-      </c>
-      <c r="X9" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>12</v>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="T9" s="35" t="inlineStr">
+        <is>
+          <t>34(sql)/2</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>徐丽莉(112)</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>288</v>
-      </c>
-      <c r="D10" t="n">
-        <v>288</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B10" s="36" t="inlineStr">
+        <is>
+          <t>刘挺</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>徐丽莉</t>
+        </is>
+      </c>
+      <c r="D10" s="35" t="inlineStr">
+        <is>
+          <t>徐丽莉</t>
+        </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>110</v>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>94%</t>
+        </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>38%</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>57%</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>458%</t>
-        </is>
-      </c>
-      <c r="J10" t="n">
-        <v>144</v>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>213%</t>
+        </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>57</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>60%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>411%</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
-        <v>8</v>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>163%</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>72%</t>
-        </is>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>34%</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S10" t="n">
-        <v>8</v>
-      </c>
-      <c r="U10" t="n">
-        <v>145</v>
-      </c>
-      <c r="V10" t="n">
-        <v>104</v>
-      </c>
-      <c r="W10" t="n">
-        <v>24</v>
-      </c>
-      <c r="X10" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>21</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T10" s="35" t="inlineStr">
+        <is>
+          <t>5(sql)/0</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>孙春艳(113)</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>212</v>
-      </c>
-      <c r="D11" t="n">
-        <v>212</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B11" s="36" t="inlineStr">
+        <is>
+          <t>刘挺</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>孙春艳</t>
+        </is>
+      </c>
+      <c r="D11" s="35" t="inlineStr">
+        <is>
+          <t>孙春艳</t>
+        </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="F11" t="n">
-        <v>43</v>
-      </c>
       <c r="G11" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>20%</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>36%</t>
-        </is>
-      </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>391%</t>
-        </is>
-      </c>
-      <c r="J11" t="n">
-        <v>71</v>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>109%</t>
+        </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>33</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>31%</t>
+          <t>55%</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>273%</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>127%</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>70%</t>
-        </is>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S11" t="n">
-        <v>67</v>
-      </c>
-      <c r="U11" t="n">
-        <v>104</v>
-      </c>
-      <c r="V11" t="n">
-        <v>73</v>
-      </c>
-      <c r="W11" t="n">
-        <v>11</v>
-      </c>
-      <c r="X11" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>8</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T11" s="35" t="inlineStr">
+        <is>
+          <t>44(sql)/0</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>汪承文(115)</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>176</v>
-      </c>
-      <c r="D12" t="n">
-        <v>175</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B12" s="36" t="inlineStr">
+        <is>
+          <t>薛伟</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汪承文</t>
+        </is>
+      </c>
+      <c r="D12" s="35" t="inlineStr">
+        <is>
+          <t>汪承文</t>
+        </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>99%</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>233%</t>
-        </is>
-      </c>
-      <c r="J12" t="n">
-        <v>38</v>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>33%</t>
+        </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>22%</t>
+          <t>12</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>45%</t>
+          <t>24%</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>345%</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>109%</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>72%</t>
-        </is>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>48%</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S12" t="n">
-        <v>39</v>
-      </c>
-      <c r="U12" t="n">
-        <v>54</v>
-      </c>
-      <c r="V12" t="n">
-        <v>39</v>
-      </c>
-      <c r="W12" t="n">
-        <v>3</v>
-      </c>
-      <c r="X12" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>5</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T12" s="35" t="inlineStr">
+        <is>
+          <t>26(sql)/0</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>孙娟(117)</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>200</v>
-      </c>
-      <c r="D13" t="n">
-        <v>200</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B13" s="36" t="inlineStr">
+        <is>
+          <t>饶顺荣</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>孙娟</t>
+        </is>
+      </c>
+      <c r="D13" s="35" t="inlineStr">
+        <is>
+          <t>孙娟</t>
+        </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>39</v>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>74%</t>
+        </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>42%</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>279%</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v>86</v>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>136%</t>
+        </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>43%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>36%</t>
+          <t>42%</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>344%</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>76%</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>68%</t>
-        </is>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S13" t="n">
-        <v>74</v>
-      </c>
-      <c r="U13" t="n">
-        <v>110</v>
-      </c>
-      <c r="V13" t="n">
-        <v>75</v>
-      </c>
-      <c r="W13" t="n">
-        <v>14</v>
-      </c>
-      <c r="X13" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>9</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T13" s="35" t="inlineStr">
+        <is>
+          <t>27(sql)/0</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>张红芳(119)</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>208</v>
-      </c>
-      <c r="D14" t="n">
-        <v>208</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B14" s="36" t="inlineStr">
+        <is>
+          <t>饶顺荣</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>张红芳</t>
+        </is>
+      </c>
+      <c r="D14" s="35" t="inlineStr">
+        <is>
+          <t>张红芳</t>
+        </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="F14" t="n">
-        <v>51</v>
-      </c>
       <c r="G14" t="inlineStr">
         <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
           <t>25%</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>40%</t>
-        </is>
-      </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>510%</t>
-        </is>
-      </c>
-      <c r="J14" t="n">
-        <v>93</v>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>240%</t>
+        </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>45%</t>
+          <t>43</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>44%</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>404%</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>187%</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>79%</t>
-        </is>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>67%</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S14" t="n">
-        <v>72</v>
-      </c>
-      <c r="U14" t="n">
-        <v>91</v>
-      </c>
-      <c r="V14" t="n">
-        <v>72</v>
-      </c>
-      <c r="W14" t="n">
-        <v>10</v>
-      </c>
-      <c r="X14" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>16</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T14" s="35" t="inlineStr">
+        <is>
+          <t>61(sql)/0</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>宋绍菊(121)</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>302</v>
-      </c>
-      <c r="D15" t="n">
-        <v>302</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B15" s="36" t="inlineStr">
+        <is>
+          <t>薛伟</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>宋绍菊</t>
+        </is>
+      </c>
+      <c r="D15" s="35" t="inlineStr">
+        <is>
+          <t>宋绍菊</t>
+        </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="F15" t="n">
-        <v>82</v>
-      </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>27%</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>357%</t>
-        </is>
-      </c>
-      <c r="J15" t="n">
-        <v>134</v>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>283%</t>
+        </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>69%</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>228%</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
           <t>44%</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>38%</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>335%</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>77%</t>
-        </is>
-      </c>
-      <c r="P15" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>8</v>
+      <c r="Q15" s="35" t="inlineStr">
+        <is>
+          <t>0(sql)/8</t>
+        </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="S15" t="n">
-        <v>113</v>
-      </c>
-      <c r="U15" t="n">
-        <v>158</v>
-      </c>
-      <c r="V15" t="n">
-        <v>121</v>
-      </c>
-      <c r="W15" t="n">
-        <v>23</v>
-      </c>
-      <c r="X15" t="n">
-        <v>40</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>15</v>
+      <c r="T15" s="35" t="inlineStr">
+        <is>
+          <t>70(sql)/8</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>李秀广(122)</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>265</v>
-      </c>
-      <c r="D16" t="n">
-        <v>265</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B16" s="36" t="inlineStr">
+        <is>
+          <t>薛伟</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>李秀广</t>
+        </is>
+      </c>
+      <c r="D16" s="35" t="inlineStr">
+        <is>
+          <t>李秀广</t>
+        </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>38%</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>43%</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>333%</t>
-        </is>
-      </c>
-      <c r="J16" t="n">
-        <v>144</v>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>170%</t>
+        </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>54%</t>
+          <t>81</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>31%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>300%</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
+          <t>2%</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>169%</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>62%</t>
-        </is>
-      </c>
-      <c r="P16" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>5</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="Q16" s="35" t="inlineStr">
+        <is>
+          <t>0(sql)/7</t>
+        </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>63%</t>
-        </is>
-      </c>
-      <c r="S16" t="n">
-        <v>113</v>
-      </c>
-      <c r="U16" t="n">
-        <v>183</v>
-      </c>
-      <c r="V16" t="n">
-        <v>113</v>
-      </c>
-      <c r="W16" t="n">
-        <v>30</v>
-      </c>
-      <c r="X16" t="n">
-        <v>48</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>15</v>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="T16" s="35" t="inlineStr">
+        <is>
+          <t>81(sql)/7</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>易荣(123)</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>204</v>
-      </c>
-      <c r="D17" t="n">
-        <v>204</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B17" s="36" t="inlineStr">
+        <is>
+          <t>薛伟</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易荣</t>
+        </is>
+      </c>
+      <c r="D17" s="35" t="inlineStr">
+        <is>
+          <t>易荣</t>
+        </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>94%</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>33%</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>159%</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>82%</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>158%</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>37%</t>
+        </is>
+      </c>
+      <c r="Q17" s="35" t="inlineStr">
+        <is>
+          <t>0(sql)/7</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="F17" t="n">
-        <v>43</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>21%</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>14%</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>195%</t>
-        </is>
-      </c>
-      <c r="J17" t="n">
-        <v>118</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>58%</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>9%</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>215%</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
-        <v>6</v>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>55%</t>
-        </is>
-      </c>
-      <c r="P17" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>5</v>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>71%</t>
-        </is>
-      </c>
-      <c r="S17" t="n">
-        <v>106</v>
-      </c>
-      <c r="U17" t="n">
-        <v>197</v>
-      </c>
-      <c r="V17" t="n">
-        <v>108</v>
-      </c>
-      <c r="W17" t="n">
-        <v>22</v>
-      </c>
-      <c r="X17" t="n">
-        <v>55</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>5</v>
+      <c r="T17" s="35" t="inlineStr">
+        <is>
+          <t>70(sql)/7</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>王杰(126)</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>254</v>
-      </c>
-      <c r="D18" t="n">
-        <v>252</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B18" s="36" t="inlineStr">
+        <is>
+          <t>张慧涛</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>王杰</t>
+        </is>
+      </c>
+      <c r="D18" s="35" t="inlineStr">
+        <is>
+          <t>王杰</t>
+        </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>99%</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>54</v>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>21%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>18%</t>
+          <t>19%</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>318%</t>
-        </is>
-      </c>
-      <c r="J18" t="n">
-        <v>122</v>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>112%</t>
+        </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>48%</t>
+          <t>39</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>37%</t>
+          <t>40%</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>321%</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>103%</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>80%</t>
-        </is>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>49%</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S18" t="n">
-        <v>116</v>
-      </c>
-      <c r="U18" t="n">
-        <v>145</v>
-      </c>
-      <c r="V18" t="n">
-        <v>116</v>
-      </c>
-      <c r="W18" t="n">
-        <v>17</v>
-      </c>
-      <c r="X18" t="n">
-        <v>38</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>14</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T18" s="35" t="inlineStr">
+        <is>
+          <t>71(sql)/0</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>夏友明(127)</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>220</v>
-      </c>
-      <c r="D19" t="n">
-        <v>220</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B19" s="36" t="inlineStr">
+        <is>
+          <t>张慧涛</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>夏友明</t>
+        </is>
+      </c>
+      <c r="D19" s="35" t="inlineStr">
+        <is>
+          <t>夏友明</t>
+        </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>84%</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>19%</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="F19" t="n">
-        <v>42</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>19%</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>27%</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>382%</t>
-        </is>
-      </c>
-      <c r="J19" t="n">
-        <v>97</v>
-      </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>44%</t>
+          <t>31</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>40%</t>
+          <t>53%</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>323%</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>103%</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>80%</t>
-        </is>
-      </c>
-      <c r="P19" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>39%</t>
+        </is>
+      </c>
+      <c r="Q19" s="35" t="inlineStr">
+        <is>
+          <t>0(sql)/1</t>
+        </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S19" t="n">
-        <v>38</v>
-      </c>
-      <c r="U19" t="n">
-        <v>119</v>
-      </c>
-      <c r="V19" t="n">
-        <v>95</v>
-      </c>
-      <c r="W19" t="n">
-        <v>11</v>
-      </c>
-      <c r="X19" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>12</v>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="T19" s="35" t="inlineStr">
+        <is>
+          <t>15(sql)/1</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>吴永辉(130)</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>261</v>
-      </c>
-      <c r="D20" t="n">
-        <v>261</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B20" s="36" t="inlineStr">
+        <is>
+          <t>邓向阳</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>吴永辉</t>
+        </is>
+      </c>
+      <c r="D20" s="35" t="inlineStr">
+        <is>
+          <t>吴永辉</t>
+        </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>49</v>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>89%</t>
+        </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>19%</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>42%</t>
+          <t>21%</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>408%</t>
-        </is>
-      </c>
-      <c r="J20" t="n">
-        <v>79</v>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>167%</t>
+        </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>28</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>59%</t>
+          <t>29%</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>465%</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
+          <t>18%</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>165%</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>85%</t>
-        </is>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>63%</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S20" t="n">
-        <v>53</v>
-      </c>
-      <c r="U20" t="n">
-        <v>62</v>
-      </c>
-      <c r="V20" t="n">
-        <v>53</v>
-      </c>
-      <c r="W20" t="n">
-        <v>12</v>
-      </c>
-      <c r="X20" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>10</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T20" s="35" t="inlineStr">
+        <is>
+          <t>39(sql)/0</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>王浩文(247)</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>275</v>
-      </c>
-      <c r="D21" t="n">
-        <v>275</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B21" s="36" t="inlineStr">
+        <is>
+          <t>薛伟</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>王浩文</t>
+        </is>
+      </c>
+      <c r="D21" s="35" t="inlineStr">
+        <is>
+          <t>王浩文</t>
+        </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>273%</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>79%</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>13%</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>253%</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>33%</t>
+        </is>
+      </c>
+      <c r="Q21" s="35" t="inlineStr">
+        <is>
+          <t>1(sql)/10</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="F21" t="n">
-        <v>83</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>23%</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>377%</t>
-        </is>
-      </c>
-      <c r="J21" t="n">
-        <v>142</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>52%</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>34%</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>374%</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
-        <v>3</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>66%</t>
-        </is>
-      </c>
-      <c r="P21" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>9</v>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>90%</t>
-        </is>
-      </c>
-      <c r="S21" t="n">
-        <v>106</v>
-      </c>
-      <c r="U21" t="n">
-        <v>171</v>
-      </c>
-      <c r="V21" t="n">
-        <v>113</v>
-      </c>
-      <c r="W21" t="n">
-        <v>22</v>
-      </c>
-      <c r="X21" t="n">
-        <v>38</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>13</v>
+      <c r="T21" s="35" t="inlineStr">
+        <is>
+          <t>56(sql)/10</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -7912,26 +7962,32 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>马俊(250)</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>110</v>
-      </c>
-      <c r="D22" t="n">
-        <v>110</v>
+          <t>廖荣平</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>马俊</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>19</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>17%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -7941,858 +7997,879 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>317%</t>
-        </is>
-      </c>
-      <c r="J22" t="n">
-        <v>39</v>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>35%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>325%</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>78%</t>
-        </is>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S22" t="n">
-        <v>43</v>
-      </c>
-      <c r="U22" t="n">
-        <v>55</v>
-      </c>
-      <c r="V22" t="n">
-        <v>43</v>
-      </c>
-      <c r="W22" t="n">
-        <v>6</v>
-      </c>
-      <c r="X22" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>7</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>冯玲(251)</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>267</v>
-      </c>
-      <c r="D23" t="n">
-        <v>267</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B23" s="36" t="inlineStr">
+        <is>
+          <t>廖荣平</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>冯玲</t>
+        </is>
+      </c>
+      <c r="D23" s="35" t="inlineStr">
+        <is>
+          <t>冯玲</t>
+        </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="F23" t="n">
-        <v>100</v>
-      </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>37%</t>
+          <t>46</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>52%</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1111%</t>
-        </is>
-      </c>
-      <c r="J23" t="n">
-        <v>180</v>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>511%</t>
+        </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>77</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>87%</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>947%</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
+          <t>58%</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>405%</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>77%</t>
-        </is>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>35%</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S23" t="n">
-        <v>52</v>
-      </c>
-      <c r="U23" t="n">
-        <v>71</v>
-      </c>
-      <c r="V23" t="n">
-        <v>55</v>
-      </c>
-      <c r="W23" t="n">
-        <v>9</v>
-      </c>
-      <c r="X23" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>19</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T23" s="35" t="inlineStr">
+        <is>
+          <t>24(sql)/0</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>王艳玲(252)</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>268</v>
-      </c>
-      <c r="D24" t="n">
-        <v>268</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B24" s="36" t="inlineStr">
+        <is>
+          <t>钮学彬</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>王艳玲</t>
+        </is>
+      </c>
+      <c r="D24" s="35" t="inlineStr">
+        <is>
+          <t>王艳玲</t>
+        </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>43</v>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>16%</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>27%</t>
+          <t>17%</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>391%</t>
-        </is>
-      </c>
-      <c r="J24" t="n">
-        <v>112</v>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>18%</t>
+        </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>42%</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>31%</t>
+          <t>58%</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>267%</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>17%</t>
+        </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>60%</t>
-        </is>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="Q24" s="35" t="inlineStr">
+        <is>
+          <t>1(sql)/0</t>
+        </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S24" t="n">
-        <v>87</v>
-      </c>
-      <c r="U24" t="n">
-        <v>146</v>
-      </c>
-      <c r="V24" t="n">
-        <v>87</v>
-      </c>
-      <c r="W24" t="n">
-        <v>11</v>
-      </c>
-      <c r="X24" t="n">
-        <v>42</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>13</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T24" s="35" t="inlineStr">
+        <is>
+          <t>12(sql)/0</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>王亚东(253)</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>262</v>
-      </c>
-      <c r="D25" t="n">
-        <v>262</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B25" s="36" t="inlineStr">
+        <is>
+          <t>钮学彬</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>王亚东</t>
+        </is>
+      </c>
+      <c r="D25" s="35" t="inlineStr">
+        <is>
+          <t>王亚东</t>
+        </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>76%</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>31%</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>200%</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>56%</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>81%</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>26%</t>
+        </is>
+      </c>
+      <c r="Q25" s="35" t="inlineStr">
+        <is>
+          <t>1(sql)/2</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="F25" t="n">
-        <v>52</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>867%</t>
-        </is>
-      </c>
-      <c r="J25" t="n">
-        <v>123</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>47%</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>52%</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>456%</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
-        <v>3</v>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>70%</t>
-        </is>
-      </c>
-      <c r="P25" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2</v>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="S25" t="n">
-        <v>75</v>
-      </c>
-      <c r="U25" t="n">
-        <v>108</v>
-      </c>
-      <c r="V25" t="n">
-        <v>76</v>
-      </c>
-      <c r="W25" t="n">
-        <v>6</v>
-      </c>
-      <c r="X25" t="n">
-        <v>27</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>14</v>
+      <c r="T25" s="35" t="inlineStr">
+        <is>
+          <t>28(sql)/2</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>盛慧芳(254)</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>278</v>
-      </c>
-      <c r="D26" t="n">
-        <v>278</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B26" s="36" t="inlineStr">
+        <is>
+          <t>邓向阳</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>盛慧芳</t>
+        </is>
+      </c>
+      <c r="D26" s="35" t="inlineStr">
+        <is>
+          <t>盛慧芳</t>
+        </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="F26" t="n">
-        <v>84</v>
-      </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>37</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>36%</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>420%</t>
-        </is>
-      </c>
-      <c r="J26" t="n">
-        <v>107</v>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>185%</t>
+        </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>38%</t>
+          <t>55</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>54%</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>357%</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>183%</t>
+        </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>76%</t>
-        </is>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>59%</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S26" t="n">
-        <v>82</v>
-      </c>
-      <c r="U26" t="n">
-        <v>108</v>
-      </c>
-      <c r="V26" t="n">
-        <v>82</v>
-      </c>
-      <c r="W26" t="n">
-        <v>20</v>
-      </c>
-      <c r="X26" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>10</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T26" s="35" t="inlineStr">
+        <is>
+          <t>64(sql)/0</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>魏来(255)</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>293</v>
-      </c>
-      <c r="D27" t="n">
-        <v>293</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B27" s="36" t="inlineStr">
+        <is>
+          <t>邓向阳</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>魏来</t>
+        </is>
+      </c>
+      <c r="D27" s="35" t="inlineStr">
+        <is>
+          <t>魏来</t>
+        </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>74</v>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>94%</t>
+        </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>31</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>88%</t>
+          <t>26%</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>925%</t>
-        </is>
-      </c>
-      <c r="J27" t="n">
-        <v>134</v>
+          <t>38%</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>388%</t>
+        </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>56</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>47%</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>705%</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
+          <t>26%</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>295%</t>
+        </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>72%</t>
-        </is>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>61%</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S27" t="n">
-        <v>54</v>
-      </c>
-      <c r="U27" t="n">
-        <v>75</v>
-      </c>
-      <c r="V27" t="n">
-        <v>54</v>
-      </c>
-      <c r="W27" t="n">
-        <v>8</v>
-      </c>
-      <c r="X27" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>15</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T27" s="35" t="inlineStr">
+        <is>
+          <t>46(sql)/0</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>黄淼(257)</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>214</v>
-      </c>
-      <c r="D28" t="n">
-        <v>214</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B28" s="36" t="inlineStr">
+        <is>
+          <t>刘挺</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>黄淼</t>
+        </is>
+      </c>
+      <c r="D28" s="35" t="inlineStr">
+        <is>
+          <t>黄淼</t>
+        </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="F28" t="n">
-        <v>27</v>
-      </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>13%</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>6%</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>450%</t>
-        </is>
-      </c>
-      <c r="J28" t="n">
-        <v>65</v>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>67%</t>
+        </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>17</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>44%</t>
+          <t>24%</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>260%</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>68%</t>
+        </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>61%</t>
-        </is>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>54%</t>
+        </is>
+      </c>
+      <c r="Q28" s="35" t="inlineStr">
+        <is>
+          <t>2(sql)/0</t>
+        </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S28" t="n">
-        <v>56</v>
-      </c>
-      <c r="U28" t="n">
-        <v>100</v>
-      </c>
-      <c r="V28" t="n">
-        <v>61</v>
-      </c>
-      <c r="W28" t="n">
-        <v>6</v>
-      </c>
-      <c r="X28" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>11</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T28" s="35" t="inlineStr">
+        <is>
+          <t>28(sql)/0</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>黄成名(262)</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>252</v>
-      </c>
-      <c r="D29" t="n">
-        <v>252</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B29" s="36" t="inlineStr">
+        <is>
+          <t>廖荣平</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>黄成名</t>
+        </is>
+      </c>
+      <c r="D29" s="35" t="inlineStr">
+        <is>
+          <t>黄成名</t>
+        </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="F29" t="n">
-        <v>70</v>
-      </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>28%</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>15%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>350%</t>
-        </is>
-      </c>
-      <c r="J29" t="n">
-        <v>121</v>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>48%</t>
+          <t>32</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>38%</t>
+          <t>53%</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>327%</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>86%</t>
+        </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>57%</t>
-        </is>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>29%</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S29" t="n">
-        <v>73</v>
-      </c>
-      <c r="U29" t="n">
-        <v>143</v>
-      </c>
-      <c r="V29" t="n">
-        <v>81</v>
-      </c>
-      <c r="W29" t="n">
-        <v>20</v>
-      </c>
-      <c r="X29" t="n">
-        <v>37</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>14</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T29" s="35" t="inlineStr">
+        <is>
+          <t>41(sql)/0</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>孙华江(305)</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>284</v>
-      </c>
-      <c r="D30" t="n">
-        <v>284</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B30" s="36" t="inlineStr">
+        <is>
+          <t>饶顺荣</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>孙华江</t>
+        </is>
+      </c>
+      <c r="D30" s="35" t="inlineStr">
+        <is>
+          <t>孙华江</t>
+        </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>38</v>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>89%</t>
+        </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
           <t>13%</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>44%</t>
-        </is>
-      </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>422%</t>
-        </is>
-      </c>
-      <c r="J30" t="n">
-        <v>169</v>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>133%</t>
+        </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>60%</t>
+          <t>50</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>42%</t>
+          <t>52%</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>352%</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>104%</t>
+        </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>47%</t>
-        </is>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S30" t="n">
-        <v>83</v>
-      </c>
-      <c r="U30" t="n">
-        <v>177</v>
-      </c>
-      <c r="V30" t="n">
-        <v>84</v>
-      </c>
-      <c r="W30" t="n">
-        <v>9</v>
-      </c>
-      <c r="X30" t="n">
-        <v>48</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>20</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T30" s="35" t="inlineStr">
+        <is>
+          <t>53(sql)/0</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -8803,491 +8880,3912 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>王丽(313)</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>209</v>
-      </c>
-      <c r="D31" t="n">
-        <v>209</v>
+          <t>饶顺荣</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>王丽</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>53</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>60%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>530%</t>
-        </is>
-      </c>
-      <c r="J31" t="n">
-        <v>120</v>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>57%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>57%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>429%</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>48%</t>
-        </is>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S31" t="n">
-        <v>51</v>
-      </c>
-      <c r="U31" t="n">
-        <v>112</v>
-      </c>
-      <c r="V31" t="n">
-        <v>54</v>
-      </c>
-      <c r="W31" t="n">
-        <v>10</v>
-      </c>
-      <c r="X31" t="n">
-        <v>28</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>16</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>余丽红(314)</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>174</v>
-      </c>
-      <c r="D32" t="n">
-        <v>174</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B32" s="36" t="inlineStr">
+        <is>
+          <t>饶顺荣</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>余丽红</t>
+        </is>
+      </c>
+      <c r="D32" s="35" t="inlineStr">
+        <is>
+          <t>余丽红</t>
+        </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="F32" t="n">
-        <v>23</v>
-      </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>13%</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>11%</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>209%</t>
-        </is>
-      </c>
-      <c r="J32" t="n">
-        <v>62</v>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>55%</t>
+        </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>36%</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>17%</t>
+          <t>27%</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>214%</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
-        <v>8</v>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>52%</t>
+        </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>63%</t>
-        </is>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="S32" t="n">
-        <v>79</v>
-      </c>
-      <c r="U32" t="n">
-        <v>125</v>
-      </c>
-      <c r="V32" t="n">
-        <v>79</v>
-      </c>
-      <c r="W32" t="n">
-        <v>11</v>
-      </c>
-      <c r="X32" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>5</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T32" s="35" t="inlineStr">
+        <is>
+          <t>55(sql)/0</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>刘淑华(373)</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>266</v>
-      </c>
-      <c r="D33" t="n">
-        <v>266</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B33" s="36" t="inlineStr">
+        <is>
+          <t>邓向阳</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>刘淑华</t>
+        </is>
+      </c>
+      <c r="D33" s="35" t="inlineStr">
+        <is>
+          <t>刘淑华</t>
+        </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>32%</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>267%</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>77%</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>193%</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>37%</t>
+        </is>
+      </c>
+      <c r="Q33" s="35" t="inlineStr">
+        <is>
+          <t>3(sql)/8</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="F33" t="n">
-        <v>49</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>18%</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>8%</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>408%</t>
-        </is>
-      </c>
-      <c r="J33" t="n">
-        <v>125</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>47%</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>45%</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>313%</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>66%</t>
-        </is>
-      </c>
-      <c r="P33" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>5</v>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
-      </c>
-      <c r="S33" t="n">
-        <v>82</v>
-      </c>
-      <c r="U33" t="n">
-        <v>156</v>
-      </c>
-      <c r="V33" t="n">
-        <v>103</v>
-      </c>
-      <c r="W33" t="n">
-        <v>12</v>
-      </c>
-      <c r="X33" t="n">
-        <v>40</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>18</v>
+      <c r="T33" s="35" t="inlineStr">
+        <is>
+          <t>39(sql)/5</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>郑国英(384)</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>225</v>
-      </c>
-      <c r="D34" t="n">
-        <v>225</v>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B34" s="36" t="inlineStr">
+        <is>
+          <t>刘挺</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>郑国英</t>
+        </is>
+      </c>
+      <c r="D34" s="35" t="inlineStr">
+        <is>
+          <t>郑国英</t>
+        </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>88%</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>195%</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>72%</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>210%</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>34%</t>
+        </is>
+      </c>
+      <c r="Q34" s="35" t="inlineStr">
+        <is>
+          <t>4(sql)/15</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="F34" t="n">
-        <v>99</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>44%</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>42%</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>521%</t>
-        </is>
-      </c>
-      <c r="J34" t="n">
-        <v>155</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>69%</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>83%</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>517%</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
-        <v>13</v>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>40%</t>
-        </is>
-      </c>
-      <c r="P34" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>9</v>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>53%</t>
-        </is>
-      </c>
-      <c r="S34" t="n">
-        <v>60</v>
-      </c>
-      <c r="U34" t="n">
-        <v>154</v>
-      </c>
-      <c r="V34" t="n">
-        <v>62</v>
-      </c>
-      <c r="W34" t="n">
-        <v>19</v>
-      </c>
-      <c r="X34" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>25</v>
+      <c r="T34" s="35" t="inlineStr">
+        <is>
+          <t>52(sql)/15</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B35" s="36" t="inlineStr">
         <is>
           <t>总计</t>
         </is>
       </c>
-      <c r="C35" t="n">
-        <v>7934</v>
-      </c>
-      <c r="D35" t="n">
-        <v>7931</v>
+      <c r="C35" s="35" t="n"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2837</t>
+        </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
+          <t>2677</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>94%</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>814</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>174%</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>1438</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>54%</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>6%</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>143%</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>39%</t>
+        </is>
+      </c>
+      <c r="Q35" s="35" t="inlineStr">
+        <is>
+          <t>21%(计算1)/75</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="F35" t="n">
-        <v>1912</v>
+      <c r="T35" s="35" t="inlineStr">
+        <is>
+          <t>1339%(计算1)/57</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:S35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>区域</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>代表</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>计划拜访人次</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>实际拜访人次</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>实际拜访率</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>双A客户实际拜访人次</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>双A客户实际拜访率</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>双A客户实际拜访覆盖率</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>双A客户拜访频率</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>高潜客户实际拜访人次</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>高潜客户实际拜访率</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>高潜客户实际拜访覆盖率</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>高潜客户拜访频率</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>新增客户数（位）</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>实际拜访客户覆盖率</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>计划会后跟进人数</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>实际会后跟进人数</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>会后跟进率</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>达成会后跟进人数</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>廖荣平</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>黄新晖</t>
+        </is>
+      </c>
+      <c r="C2" s="35" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>17%</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>64%</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>39%</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>29%</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S2" s="35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>钮学彬</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>孙洪霄</t>
+        </is>
+      </c>
+      <c r="C3" s="35" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>133%</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>35%</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>104%</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="P3" s="35" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="S3" s="35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>钮学彬</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>黄代玉</t>
+        </is>
+      </c>
+      <c r="C4" s="35" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>32%</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>142%</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>137%</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>54%</t>
+        </is>
+      </c>
+      <c r="P4" s="35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="S4" s="35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>陈东升</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>盛瑛</t>
+        </is>
+      </c>
+      <c r="C5" s="35" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>22%</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>14%</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>329%</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>28%</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>322%</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S5" s="35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>邓向阳</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>周夙</t>
+        </is>
+      </c>
+      <c r="C6" s="35" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>34%</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>250%</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>22%</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>170%</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>49%</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S6" s="35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>邓向阳</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>沈丹峰</t>
+        </is>
+      </c>
+      <c r="C7" s="35" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>31%</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>194%</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>62%</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>14%</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>210%</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>53%</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S7" s="35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>廖荣平</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>万小利</t>
+        </is>
+      </c>
+      <c r="C8" s="35" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>171%</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>57%</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>7%</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>190%</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>56%</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S8" s="35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>薛伟</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>彭琦</t>
+        </is>
+      </c>
+      <c r="C9" s="35" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>220%</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>53%</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>216%</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>32%</t>
+        </is>
+      </c>
+      <c r="P9" s="35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="S9" s="35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>刘挺</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>徐丽莉</t>
+        </is>
+      </c>
+      <c r="C10" s="35" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>57%</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>213%</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>64%</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>163%</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>34%</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S10" s="35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>刘挺</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>孙春艳</t>
+        </is>
+      </c>
+      <c r="C11" s="35" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>109%</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>55%</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>127%</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S11" s="35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>薛伟</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>汪承文</t>
+        </is>
+      </c>
+      <c r="C12" s="35" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>33%</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>24%</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>109%</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>48%</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S12" s="35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>饶顺荣</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>孙娟</t>
+        </is>
+      </c>
+      <c r="C13" s="35" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>74%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>136%</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>76%</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S13" s="35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>饶顺荣</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>张红芳</t>
+        </is>
+      </c>
+      <c r="C14" s="35" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>240%</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>187%</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>67%</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S14" s="35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>薛伟</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>宋绍菊</t>
+        </is>
+      </c>
+      <c r="C15" s="35" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>283%</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>69%</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>228%</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="P15" s="35" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="S15" s="35" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>薛伟</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>李秀广</t>
+        </is>
+      </c>
+      <c r="C16" s="35" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>43%</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>170%</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>68%</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>169%</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="P16" s="35" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="S16" s="35" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>薛伟</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>易荣</t>
+        </is>
+      </c>
+      <c r="C17" s="35" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>33%</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>159%</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>82%</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>158%</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>37%</t>
+        </is>
+      </c>
+      <c r="P17" s="35" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="S17" s="35" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>张慧涛</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>王杰</t>
+        </is>
+      </c>
+      <c r="C18" s="35" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>19%</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>112%</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>103%</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>49%</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S18" s="35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>张慧涛</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>夏友明</t>
+        </is>
+      </c>
+      <c r="C19" s="35" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>19%</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>53%</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>103%</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>39%</t>
+        </is>
+      </c>
+      <c r="P19" s="35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="S19" s="35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>邓向阳</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>吴永辉</t>
+        </is>
+      </c>
+      <c r="C20" s="35" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>21%</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>167%</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>29%</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>18%</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>165%</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>63%</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S20" s="35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>薛伟</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>王浩文</t>
+        </is>
+      </c>
+      <c r="C21" s="35" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>273%</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>79%</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>13%</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>253%</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>33%</t>
+        </is>
+      </c>
+      <c r="P21" s="35" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="S21" s="35" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>廖荣平</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>马俊</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>廖荣平</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>冯玲</t>
+        </is>
+      </c>
+      <c r="C23" s="35" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>52%</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>511%</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>87%</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>58%</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>405%</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>35%</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S23" s="35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>钮学彬</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>王艳玲</t>
+        </is>
+      </c>
+      <c r="C24" s="35" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>17%</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>18%</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>58%</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>17%</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="P24" s="35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S24" s="35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>钮学彬</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>王亚东</t>
+        </is>
+      </c>
+      <c r="C25" s="35" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>76%</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>31%</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>200%</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>56%</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>81%</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>26%</t>
+        </is>
+      </c>
+      <c r="P25" s="35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="S25" s="35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>邓向阳</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>盛慧芳</t>
+        </is>
+      </c>
+      <c r="C26" s="35" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>36%</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>185%</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>54%</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>183%</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>59%</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S26" s="35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>邓向阳</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>魏来</t>
+        </is>
+      </c>
+      <c r="C27" s="35" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94%</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>26%</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>38%</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>388%</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>47%</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>26%</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>295%</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>61%</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S27" s="35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>刘挺</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>黄淼</t>
+        </is>
+      </c>
+      <c r="C28" s="35" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>6%</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>67%</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>24%</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>68%</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>54%</t>
+        </is>
+      </c>
+      <c r="P28" s="35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S28" s="35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>廖荣平</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>黄成名</t>
+        </is>
+      </c>
+      <c r="C29" s="35" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>33%</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>53%</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>86%</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>29%</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S29" s="35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>饶顺荣</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>孙华江</t>
+        </is>
+      </c>
+      <c r="C30" s="35" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89%</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>13%</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>133%</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>52%</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>104%</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S30" s="35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>饶顺荣</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>王丽</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>饶顺荣</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>余丽红</t>
+        </is>
+      </c>
+      <c r="C32" s="35" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>11%</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>55%</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>27%</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>52%</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S32" s="35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>邓向阳</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>刘淑华</t>
+        </is>
+      </c>
+      <c r="C33" s="35" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>32%</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>267%</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>77%</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>193%</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>37%</t>
+        </is>
+      </c>
+      <c r="P33" s="35" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="S33" s="35" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>刘挺</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>郑国英</t>
+        </is>
+      </c>
+      <c r="C34" s="35" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88%</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>195%</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>72%</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>210%</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>34%</t>
+        </is>
+      </c>
+      <c r="P34" s="35" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="S34" s="35" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>总计</t>
+        </is>
+      </c>
+      <c r="B35" s="35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2837</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2677</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94%</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>814</t>
+        </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>24%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>26%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>408%</t>
-        </is>
-      </c>
-      <c r="J35" t="n">
-        <v>3612</v>
+          <t>174%</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>1438</t>
+        </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>54%</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>44%</t>
+          <t>6%</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>360%</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
-        <v>47</v>
+          <t>143%</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>65%</t>
-        </is>
-      </c>
-      <c r="P35" t="n">
-        <v>81</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>55</v>
+          <t>39%</t>
+        </is>
+      </c>
+      <c r="P35" s="35" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>68%</t>
-        </is>
-      </c>
-      <c r="S35" t="n">
-        <v>2245</v>
-      </c>
-      <c r="U35" t="n">
-        <v>4003</v>
-      </c>
-      <c r="V35" t="n">
-        <v>2608</v>
-      </c>
-      <c r="W35" t="n">
-        <v>469</v>
-      </c>
-      <c r="X35" t="n">
-        <v>1004</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>121</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>438</v>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="S35" s="35" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/instance/zyjk/ERP/statisticalReturns/i_erp_reportField_case.xlsx
+++ b/instance/zyjk/ERP/statisticalReturns/i_erp_reportField_case.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22368" windowHeight="9420" tabRatio="527" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22368" windowHeight="9420" tabRatio="527" firstSheet="1" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="default" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,8 +11,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="拜访分析报表" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="协访分析" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="开发计划总揽" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="interface" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="browser" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="i" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="b" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="i%b" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" calcMode="manual" fullCalcOnLoad="1"/>
@@ -134,7 +135,7 @@
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -151,11 +152,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.8998992889187292"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -201,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -300,8 +296,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -387,7 +381,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -663,7 +657,7 @@
       </c>
       <c r="B1" s="23" t="inlineStr">
         <is>
-          <t>summary</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C1" s="23" t="inlineStr">
@@ -705,7 +699,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>新增竞品信息</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -738,7 +732,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>删除竞品信息</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -775,7 +769,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>竞品信息列表</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -812,7 +806,7 @@
       </c>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>竞品信息分页列表</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
@@ -845,7 +839,7 @@
       </c>
       <c r="B6" s="12" t="inlineStr">
         <is>
-          <t>修改竞品信息</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C6" s="12" t="inlineStr">
@@ -878,7 +872,7 @@
       </c>
       <c r="B7" s="12" t="inlineStr">
         <is>
-          <t>新增客户-APP_v2.2</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C7" s="12" t="inlineStr">
@@ -911,7 +905,7 @@
       </c>
       <c r="B8" s="12" t="inlineStr">
         <is>
-          <t>病例录入-APP</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C8" s="12" t="inlineStr">
@@ -944,7 +938,7 @@
       </c>
       <c r="B9" s="12" t="inlineStr">
         <is>
-          <t>编辑客户-APP_v2.2</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C9" s="12" t="inlineStr">
@@ -977,7 +971,7 @@
       </c>
       <c r="B10" s="12" t="inlineStr">
         <is>
-          <t>编辑医院库存-APP_v2.2</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C10" s="12" t="inlineStr">
@@ -1010,7 +1004,7 @@
       </c>
       <c r="B11" s="12" t="inlineStr">
         <is>
-          <t>新客户审批-APP</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C11" s="12" t="inlineStr">
@@ -1043,7 +1037,7 @@
       </c>
       <c r="B12" s="12" t="inlineStr">
         <is>
-          <t>客户名称搜索</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C12" s="12" t="inlineStr">
@@ -1075,7 +1069,7 @@
       </c>
       <c r="B13" s="12" t="inlineStr">
         <is>
-          <t>获取客户列表</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C13" s="12" t="inlineStr">
@@ -1098,7 +1092,7 @@
       </c>
       <c r="B14" s="12" t="inlineStr">
         <is>
-          <t>通过医院id获取医院库存-APP_v2.2</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C14" s="12" t="inlineStr">
@@ -1135,7 +1129,7 @@
       </c>
       <c r="B15" s="12" t="inlineStr">
         <is>
-          <t>新客户待审批列表-APP</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C15" s="12" t="inlineStr">
@@ -1168,7 +1162,7 @@
       </c>
       <c r="B16" s="12" t="inlineStr">
         <is>
-          <t>根据客户id获取详情信息</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C16" s="12" t="inlineStr">
@@ -1205,7 +1199,7 @@
       </c>
       <c r="B17" s="12" t="inlineStr">
         <is>
-          <t>客户列表-APP_v2.2</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C17" s="12" t="inlineStr">
@@ -1238,7 +1232,7 @@
       </c>
       <c r="B18" s="12" t="inlineStr">
         <is>
-          <t>客户下拉列表</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C18" s="12" t="inlineStr">
@@ -1271,7 +1265,7 @@
       </c>
       <c r="B19" s="12" t="inlineStr">
         <is>
-          <t>根据客户id获取最新高血压数量</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C19" s="12" t="inlineStr">
@@ -1308,7 +1302,7 @@
       </c>
       <c r="B20" s="12" t="inlineStr">
         <is>
-          <t>病例列表-PC</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C20" s="12" t="inlineStr">
@@ -1341,7 +1335,7 @@
       </c>
       <c r="B21" s="12" t="inlineStr">
         <is>
-          <t>病例管理-PC</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C21" s="12" t="inlineStr">
@@ -1374,7 +1368,7 @@
       </c>
       <c r="B22" s="12" t="inlineStr">
         <is>
-          <t>根据客户id获取产品下拉</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C22" s="12" t="inlineStr">
@@ -1411,7 +1405,7 @@
       </c>
       <c r="B23" s="12" t="inlineStr">
         <is>
-          <t>修改客情关系评分</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C23" s="12" t="inlineStr">
@@ -1448,7 +1442,7 @@
       </c>
       <c r="B24" s="12" t="inlineStr">
         <is>
-          <t>客户Excel导入</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C24" s="12" t="inlineStr">
@@ -1481,7 +1475,7 @@
       </c>
       <c r="B25" s="12" t="inlineStr">
         <is>
-          <t>新增医院信息</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C25" s="12" t="inlineStr">
@@ -1514,7 +1508,7 @@
       </c>
       <c r="B26" s="12" t="inlineStr">
         <is>
-          <t>根据医院id删除本条数据</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C26" s="12" t="inlineStr">
@@ -1551,7 +1545,7 @@
       </c>
       <c r="B27" s="12" t="inlineStr">
         <is>
-          <t>根据客户获取医院列表信息</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C27" s="12" t="inlineStr">
@@ -1574,7 +1568,7 @@
       </c>
       <c r="B28" s="12" t="inlineStr">
         <is>
-          <t>查询医院列表</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C28" s="12" t="inlineStr">
@@ -1607,7 +1601,7 @@
       </c>
       <c r="B29" s="12" t="inlineStr">
         <is>
-          <t>根据会议名称获取医院列表信息</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C29" s="12" t="inlineStr">
@@ -1644,7 +1638,7 @@
       </c>
       <c r="B30" s="12" t="inlineStr">
         <is>
-          <t>根据医院id修改本条数据</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C30" s="12" t="inlineStr">
@@ -1677,7 +1671,7 @@
       </c>
       <c r="B31" s="12" t="inlineStr">
         <is>
-          <t>会议反馈-APP</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C31" s="12" t="inlineStr">
@@ -1710,7 +1704,7 @@
       </c>
       <c r="B32" s="12" t="inlineStr">
         <is>
-          <t>会议反馈修改-APP</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C32" s="12" t="inlineStr">
@@ -1743,7 +1737,7 @@
       </c>
       <c r="B33" s="12" t="inlineStr">
         <is>
-          <t>会议反馈详情查询-APP</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C33" s="12" t="inlineStr">
@@ -1780,7 +1774,7 @@
       </c>
       <c r="B34" s="12" t="inlineStr">
         <is>
-          <t>根据会议id获取会议信息-APP</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C34" s="12" t="inlineStr">
@@ -1817,7 +1811,7 @@
       </c>
       <c r="B35" s="12" t="inlineStr">
         <is>
-          <t>会议列表-APP</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C35" s="12" t="inlineStr">
@@ -4434,8 +4428,8 @@
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.88671875" defaultRowHeight="20.4" outlineLevelCol="0"/>
@@ -4445,8 +4439,8 @@
     <col width="58.5546875" customWidth="1" style="22" min="3" max="3"/>
     <col width="41.77734375" customWidth="1" style="9" min="4" max="4"/>
     <col width="37" customWidth="1" style="9" min="5" max="5"/>
-    <col width="8.88671875" customWidth="1" style="9" min="6" max="80"/>
-    <col width="8.88671875" customWidth="1" style="9" min="81" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="9" min="6" max="94"/>
+    <col width="8.88671875" customWidth="1" style="9" min="95" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.2" customHeight="1" s="11">
@@ -4484,7 +4478,7 @@
       </c>
       <c r="C2" s="22" t="inlineStr">
         <is>
-          <t>{"currPage": 0, "deptId": "", "endTime": "2022-07-25 23:59:59", "pageSize": 0, "searchId": "", "searchName": "", "starTime": "2022-07-01"}</t>
+          <t>{"currPage": 0, "deptId": "", "endTime": "2022-07-27 23:59:59", "pageSize": 0, "searchId": "", "searchName": "", "starTime": "2022-07-01"}</t>
         </is>
       </c>
       <c r="D2" s="22" t="inlineStr">
@@ -4497,7 +4491,7 @@
       </c>
       <c r="E2" s="9" t="inlineStr">
         <is>
-          <t>2022-07-01~2022-07-25</t>
+          <t>2022-07-01~2022-07-27</t>
         </is>
       </c>
     </row>
@@ -4514,7 +4508,7 @@
       </c>
       <c r="C3" s="22" t="inlineStr">
         <is>
-          <t>{"endTime": "2022-06-30  23:59:59", "startTime": "2022-06-01", "uid": 0}</t>
+          <t>{"endTime": "2022-07-27  23:59:59", "startTime": "2022-07-01", "uid": 0}</t>
         </is>
       </c>
       <c r="D3" s="22" t="inlineStr">
@@ -4526,7 +4520,7 @@
       </c>
       <c r="E3" s="9" t="inlineStr">
         <is>
-          <t>2022-01-01~2022-06-30</t>
+          <t>2022-07-01~2022-07-27</t>
         </is>
       </c>
     </row>
@@ -4547,7 +4541,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="17.4" outlineLevelCol="0"/>
@@ -4558,8 +4552,8 @@
     <col width="51.44140625" customWidth="1" style="21" min="4" max="4"/>
     <col width="45.33203125" customWidth="1" style="15" min="5" max="5"/>
     <col width="42.88671875" customWidth="1" style="15" min="6" max="6"/>
-    <col width="8.77734375" customWidth="1" style="20" min="7" max="55"/>
-    <col width="8.77734375" customWidth="1" style="20" min="56" max="16384"/>
+    <col width="8.77734375" customWidth="1" style="20" min="7" max="69"/>
+    <col width="8.77734375" customWidth="1" style="20" min="70" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="33.45" customFormat="1" customHeight="1" s="19">
@@ -5140,8 +5134,8 @@
     <col width="37.77734375" customWidth="1" style="24" min="5" max="5"/>
     <col width="29.33203125" customWidth="1" style="2" min="6" max="6"/>
     <col width="22.44140625" customWidth="1" style="2" min="7" max="7"/>
-    <col width="8.77734375" customWidth="1" style="4" min="8" max="556"/>
-    <col width="8.77734375" customWidth="1" style="4" min="557" max="16384"/>
+    <col width="8.77734375" customWidth="1" style="4" min="8" max="570"/>
+    <col width="8.77734375" customWidth="1" style="4" min="571" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="33.45" customFormat="1" customHeight="1" s="1">
@@ -5593,7 +5587,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="17.4" outlineLevelCol="0"/>
@@ -5602,8 +5596,8 @@
     <col width="24.6640625" customWidth="1" style="28" min="2" max="2"/>
     <col width="29.44140625" customWidth="1" style="28" min="3" max="3"/>
     <col width="130.44140625" customWidth="1" style="29" min="4" max="4"/>
-    <col width="8.77734375" customWidth="1" style="30" min="5" max="19"/>
-    <col width="8.77734375" customWidth="1" style="30" min="20" max="16384"/>
+    <col width="8.77734375" customWidth="1" style="30" min="5" max="33"/>
+    <col width="8.77734375" customWidth="1" style="30" min="34" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="27">
@@ -5804,7 +5798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T35"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5815,100 +5809,95 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>结果</t>
+          <t>区域</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>区域</t>
+          <t>代表</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>代表</t>
+          <t>计划拜访人次</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>计划拜访人次</t>
+          <t>实际拜访人次</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>实际拜访人次</t>
+          <t>实际拜访率</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>实际拜访率</t>
+          <t>双A客户实际拜访人次</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>双A客户实际拜访人次</t>
+          <t>双A客户实际拜访率</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>双A客户实际拜访率</t>
+          <t>双A客户实际拜访覆盖率</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>双A客户实际拜访覆盖率</t>
+          <t>双A客户拜访频率</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>双A客户拜访频率</t>
+          <t>高潜客户实际拜访人次</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>高潜客户实际拜访人次</t>
+          <t>高潜客户实际拜访率</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>高潜客户实际拜访率</t>
+          <t>高潜客户实际拜访覆盖率</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>高潜客户实际拜访覆盖率</t>
+          <t>高潜客户拜访频率</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>高潜客户拜访频率</t>
+          <t>新增客户数（位）</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>新增客户数（位）</t>
+          <t>实际拜访客户覆盖率</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>实际拜访客户覆盖率</t>
+          <t>计划会后跟进人数</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>计划会后跟进人数</t>
+          <t>实际会后跟进人数</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>实际会后跟进人数</t>
+          <t>会后跟进率</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
-        <is>
-          <t>会后跟进率</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
         <is>
           <t>达成会后跟进人数</t>
         </is>
@@ -5917,82 +5906,82 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="B2" s="36" t="inlineStr">
-        <is>
           <t>廖荣平</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>黄新晖</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>黄新晖</t>
-        </is>
-      </c>
-      <c r="D2" s="35" t="inlineStr">
-        <is>
-          <t>黄新晖</t>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>96</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>89%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>89%</t>
+          <t>16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17%</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>17%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>37</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>39%</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>39%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>3</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>29%</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>29%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -6002,15 +5991,10 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="T2" s="35" t="inlineStr">
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S2" s="33" t="inlineStr">
         <is>
           <t>20(sql)/0</t>
         </is>
@@ -6019,100 +6003,95 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="B3" s="36" t="inlineStr">
-        <is>
           <t>钮学彬</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>孙洪霄</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>孙洪霄</t>
-        </is>
-      </c>
-      <c r="D3" s="35" t="inlineStr">
-        <is>
-          <t>孙洪霄</t>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>82</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>133%</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>133%</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>35%</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>35%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>104%</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>104%</t>
+          <t>15</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>40%</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>40%</t>
-        </is>
-      </c>
-      <c r="Q3" s="35" t="inlineStr">
-        <is>
-          <t>4(sql)/14</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Q3" s="33" t="inlineStr">
+        <is>
+          <t>14(sql)/1</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="T3" s="35" t="inlineStr">
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="S3" s="33" t="inlineStr">
         <is>
           <t>1(sql)/0</t>
         </is>
@@ -6121,100 +6100,95 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="B4" s="36" t="inlineStr">
-        <is>
           <t>钮学彬</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>黄代玉</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>黄代玉</t>
-        </is>
-      </c>
-      <c r="D4" s="35" t="inlineStr">
-        <is>
-          <t>黄代玉</t>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>117</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>37</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>32%</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>32%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>142%</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>142%</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>44%</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>44%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>137%</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>137%</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>54%</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>54%</t>
-        </is>
-      </c>
-      <c r="Q4" s="35" t="inlineStr">
-        <is>
-          <t>5(sql)/1</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Q4" s="33" t="inlineStr">
+        <is>
+          <t>1(sql)/0</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="T4" s="35" t="inlineStr">
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S4" s="33" t="inlineStr">
         <is>
           <t>78(sql)/0</t>
         </is>
@@ -6223,82 +6197,82 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="B5" s="36" t="inlineStr">
-        <is>
           <t>陈东升</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>盛瑛</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>盛瑛</t>
-        </is>
-      </c>
-      <c r="D5" s="35" t="inlineStr">
-        <is>
-          <t>盛瑛</t>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>103</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>89%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>89%</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22%</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>22%</t>
+          <t>14%</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>14%</t>
+          <t>329%</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>329%</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>28%</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>28%</t>
+          <t>44%</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>44%</t>
+          <t>322%</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>322%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -6308,15 +6282,10 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="T5" s="35" t="inlineStr">
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S5" s="33" t="inlineStr">
         <is>
           <t>33(sql)/0</t>
         </is>
@@ -6325,82 +6294,82 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="B6" s="36" t="inlineStr">
-        <is>
           <t>邓向阳</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>周夙</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>周夙</t>
-        </is>
-      </c>
-      <c r="D6" s="35" t="inlineStr">
-        <is>
-          <t>周夙</t>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>104</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>95%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>95%</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34%</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>34%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>250%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>250%</t>
+          <t>46</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>44%</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>44%</t>
+          <t>22%</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>22%</t>
+          <t>170%</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>170%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>49%</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>49%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -6410,15 +6379,10 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="T6" s="35" t="inlineStr">
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S6" s="33" t="inlineStr">
         <is>
           <t>49(sql)/0</t>
         </is>
@@ -6427,82 +6391,82 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="B7" s="36" t="inlineStr">
-        <is>
           <t>邓向阳</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>沈丹峰</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>沈丹峰</t>
-        </is>
-      </c>
-      <c r="D7" s="35" t="inlineStr">
-        <is>
-          <t>沈丹峰</t>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>98%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>98%</t>
+          <t>31</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>31%</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>31%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>194%</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>194%</t>
+          <t>61</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>62%</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>62%</t>
+          <t>14%</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>14%</t>
+          <t>210%</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>210%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>53%</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>53%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -6512,15 +6476,10 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="T7" s="35" t="inlineStr">
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S7" s="33" t="inlineStr">
         <is>
           <t>56(sql)/0</t>
         </is>
@@ -6529,82 +6488,82 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="B8" s="36" t="inlineStr">
-        <is>
           <t>廖荣平</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>万小利</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>万小利</t>
-        </is>
-      </c>
-      <c r="D8" s="35" t="inlineStr">
-        <is>
-          <t>万小利</t>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>96</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>93%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>93%</t>
+          <t>24</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>171%</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>171%</t>
+          <t>55</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>57%</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>57%</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>190%</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>190%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>56%</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>56%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -6614,15 +6573,10 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="T8" s="35" t="inlineStr">
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S8" s="33" t="inlineStr">
         <is>
           <t>61(sql)/0</t>
         </is>
@@ -6631,184 +6585,179 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="B9" s="36" t="inlineStr">
-        <is>
           <t>薛伟</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>彭琦</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>彭琦</t>
-        </is>
-      </c>
-      <c r="D9" s="35" t="inlineStr">
-        <is>
-          <t>彭琦</t>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>78</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>33</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>42%</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>42%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>220%</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>220%</t>
+          <t>41</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>53%</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>53%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>216%</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>216%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>32%</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>32%</t>
-        </is>
-      </c>
-      <c r="Q9" s="35" t="inlineStr">
-        <is>
-          <t>0(sql)/2</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q9" s="33" t="inlineStr">
+        <is>
+          <t>2(sql)/0</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="T9" s="35" t="inlineStr">
-        <is>
-          <t>34(sql)/2</t>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S9" s="33" t="inlineStr">
+        <is>
+          <t>34(sql)/0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="B10" s="36" t="inlineStr">
-        <is>
           <t>刘挺</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>徐丽莉</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>徐丽莉</t>
-        </is>
-      </c>
-      <c r="D10" s="35" t="inlineStr">
-        <is>
-          <t>徐丽莉</t>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>89</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>94%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>94%</t>
+          <t>51</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>57%</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>57%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>213%</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>213%</t>
+          <t>57</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>163%</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>163%</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>34%</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>34%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -6818,15 +6767,10 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="T10" s="35" t="inlineStr">
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S10" s="33" t="inlineStr">
         <is>
           <t>5(sql)/0</t>
         </is>
@@ -6835,82 +6779,82 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="B11" s="36" t="inlineStr">
-        <is>
           <t>刘挺</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>孙春艳</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>孙春艳</t>
-        </is>
-      </c>
-      <c r="D11" s="35" t="inlineStr">
-        <is>
-          <t>孙春艳</t>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>60</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>109%</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>109%</t>
+          <t>33</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>55%</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>55%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>127%</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>127%</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>42%</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>42%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -6920,15 +6864,10 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="T11" s="35" t="inlineStr">
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S11" s="33" t="inlineStr">
         <is>
           <t>44(sql)/0</t>
         </is>
@@ -6937,82 +6876,82 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="B12" s="36" t="inlineStr">
-        <is>
           <t>薛伟</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>汪承文</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>汪承文</t>
-        </is>
-      </c>
-      <c r="D12" s="35" t="inlineStr">
-        <is>
-          <t>汪承文</t>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>49</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>24%</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>24%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>109%</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>109%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>48%</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>48%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -7022,15 +6961,10 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="T12" s="35" t="inlineStr">
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S12" s="33" t="inlineStr">
         <is>
           <t>26(sql)/0</t>
         </is>
@@ -7039,82 +6973,82 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="B13" s="36" t="inlineStr">
-        <is>
           <t>饶顺荣</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>孙娟</t>
+        </is>
+      </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>孙娟</t>
-        </is>
-      </c>
-      <c r="D13" s="35" t="inlineStr">
-        <is>
-          <t>孙娟</t>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>45</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>74%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>74%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>136%</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>19</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>42%</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>136%</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>42%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>76%</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>76%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -7124,15 +7058,10 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="T13" s="35" t="inlineStr">
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S13" s="33" t="inlineStr">
         <is>
           <t>27(sql)/0</t>
         </is>
@@ -7141,82 +7070,82 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="B14" s="36" t="inlineStr">
-        <is>
           <t>饶顺荣</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>张红芳</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>张红芳</t>
-        </is>
-      </c>
-      <c r="D14" s="35" t="inlineStr">
-        <is>
-          <t>张红芳</t>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>97</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>24</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>240%</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>240%</t>
+          <t>43</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>44%</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>44%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>187%</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>187%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -7226,15 +7155,10 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="T14" s="35" t="inlineStr">
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S14" s="33" t="inlineStr">
         <is>
           <t>61(sql)/0</t>
         </is>
@@ -7243,388 +7167,373 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="B15" s="36" t="inlineStr">
-        <is>
           <t>薛伟</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>宋绍菊</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>宋绍菊</t>
-        </is>
-      </c>
-      <c r="D15" s="35" t="inlineStr">
-        <is>
-          <t>宋绍菊</t>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>131</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>65</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>283%</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>283%</t>
+          <t>91</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>69%</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>69%</t>
+          <t>15%</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>15%</t>
+          <t>228%</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>228%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>44%</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>44%</t>
-        </is>
-      </c>
-      <c r="Q15" s="35" t="inlineStr">
-        <is>
-          <t>0(sql)/8</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" s="33" t="inlineStr">
+        <is>
+          <t>8(sql)/0</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="T15" s="35" t="inlineStr">
-        <is>
-          <t>70(sql)/8</t>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S15" s="33" t="inlineStr">
+        <is>
+          <t>70(sql)/0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="B16" s="36" t="inlineStr">
-        <is>
           <t>薛伟</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>李秀广</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>李秀广</t>
-        </is>
-      </c>
-      <c r="D16" s="35" t="inlineStr">
-        <is>
-          <t>李秀广</t>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>120</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>51</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>43%</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>43%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>170%</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>170%</t>
+          <t>81</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>169%</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>169%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>44%</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>44%</t>
-        </is>
-      </c>
-      <c r="Q16" s="35" t="inlineStr">
-        <is>
-          <t>0(sql)/7</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" s="33" t="inlineStr">
+        <is>
+          <t>7(sql)/0</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="T16" s="35" t="inlineStr">
-        <is>
-          <t>81(sql)/7</t>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S16" s="33" t="inlineStr">
+        <is>
+          <t>81(sql)/0</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="B17" s="36" t="inlineStr">
-        <is>
           <t>薛伟</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>易荣</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>易荣</t>
-        </is>
-      </c>
-      <c r="D17" s="35" t="inlineStr">
-        <is>
-          <t>易荣</t>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>106</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>94%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>94%</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>159%</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>159%</t>
+          <t>87</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>82%</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>82%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>158%</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>158%</t>
+          <t>5</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>37%</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>37%</t>
-        </is>
-      </c>
-      <c r="Q17" s="35" t="inlineStr">
-        <is>
-          <t>0(sql)/7</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q17" s="33" t="inlineStr">
+        <is>
+          <t>7(sql)/0</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="T17" s="35" t="inlineStr">
-        <is>
-          <t>70(sql)/7</t>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S17" s="33" t="inlineStr">
+        <is>
+          <t>70(sql)/0</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="B18" s="36" t="inlineStr">
-        <is>
           <t>张慧涛</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>王杰</t>
+        </is>
+      </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>王杰</t>
-        </is>
-      </c>
-      <c r="D18" s="35" t="inlineStr">
-        <is>
-          <t>王杰</t>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>98</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>19%</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>19%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>112%</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>112%</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40%</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>40%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>103%</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>103%</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>49%</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>49%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -7634,15 +7543,10 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="T18" s="35" t="inlineStr">
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S18" s="33" t="inlineStr">
         <is>
           <t>71(sql)/0</t>
         </is>
@@ -7651,184 +7555,179 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="B19" s="36" t="inlineStr">
-        <is>
           <t>张慧涛</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>夏友明</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>夏友明</t>
-        </is>
-      </c>
-      <c r="D19" s="35" t="inlineStr">
-        <is>
-          <t>夏友明</t>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>59</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>84%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>84%</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19%</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>19%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>53%</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>53%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>103%</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>103%</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>39%</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>39%</t>
-        </is>
-      </c>
-      <c r="Q19" s="35" t="inlineStr">
-        <is>
-          <t>0(sql)/1</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q19" s="33" t="inlineStr">
+        <is>
+          <t>1(sql)/0</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="T19" s="35" t="inlineStr">
-        <is>
-          <t>15(sql)/1</t>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S19" s="33" t="inlineStr">
+        <is>
+          <t>15(sql)/0</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="B20" s="36" t="inlineStr">
-        <is>
           <t>邓向阳</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>吴永辉</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>吴永辉</t>
-        </is>
-      </c>
-      <c r="D20" s="35" t="inlineStr">
-        <is>
-          <t>吴永辉</t>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>97</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>89%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>89%</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21%</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>21%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>167%</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>167%</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29%</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>29%</t>
+          <t>18%</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>18%</t>
+          <t>165%</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>165%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -7838,15 +7737,10 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="T20" s="35" t="inlineStr">
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S20" s="33" t="inlineStr">
         <is>
           <t>39(sql)/0</t>
         </is>
@@ -7855,119 +7749,114 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="B21" s="36" t="inlineStr">
-        <is>
           <t>薛伟</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>王浩文</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>王浩文</t>
-        </is>
-      </c>
-      <c r="D21" s="35" t="inlineStr">
-        <is>
-          <t>王浩文</t>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>121</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>93%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>93%</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>273%</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>273%</t>
+          <t>96</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>79%</t>
+          <t>13%</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>13%</t>
+          <t>253%</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>253%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>33%</t>
-        </is>
-      </c>
-      <c r="Q21" s="35" t="inlineStr">
-        <is>
-          <t>1(sql)/10</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q21" s="33" t="inlineStr">
+        <is>
+          <t>10(sql)/1</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="T21" s="35" t="inlineStr">
-        <is>
-          <t>56(sql)/10</t>
+      <c r="S21" s="33" t="inlineStr">
+        <is>
+          <t>56(sql)/1</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>廖荣平</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>廖荣平</t>
+          <t>马俊</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>马俊</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -7977,17 +7866,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -8002,12 +7891,12 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -8022,17 +7911,17 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -8042,15 +7931,10 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -8059,82 +7943,82 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="B23" s="36" t="inlineStr">
-        <is>
           <t>廖荣平</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>冯玲</t>
+        </is>
+      </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>冯玲</t>
-        </is>
-      </c>
-      <c r="D23" s="35" t="inlineStr">
-        <is>
-          <t>冯玲</t>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>89</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>46</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>52%</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>52%</t>
+          <t>44%</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>44%</t>
+          <t>511%</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>511%</t>
+          <t>77</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>87%</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>87%</t>
+          <t>58%</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>405%</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>405%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>35%</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>35%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -8144,15 +8028,10 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="T23" s="35" t="inlineStr">
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S23" s="33" t="inlineStr">
         <is>
           <t>24(sql)/0</t>
         </is>
@@ -8161,100 +8040,95 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="B24" s="36" t="inlineStr">
-        <is>
           <t>钮学彬</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>王艳玲</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>王艳玲</t>
-        </is>
-      </c>
-      <c r="D24" s="35" t="inlineStr">
-        <is>
-          <t>王艳玲</t>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>17%</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>18%</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>58%</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
           <t>17%</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>18%</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>58%</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>17%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8%</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>8%</t>
-        </is>
-      </c>
-      <c r="Q24" s="35" t="inlineStr">
-        <is>
-          <t>1(sql)/0</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="T24" s="35" t="inlineStr">
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S24" s="33" t="inlineStr">
         <is>
           <t>12(sql)/0</t>
         </is>
@@ -8263,184 +8137,179 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="B25" s="36" t="inlineStr">
-        <is>
           <t>钮学彬</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>王亚东</t>
+        </is>
+      </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>王亚东</t>
-        </is>
-      </c>
-      <c r="D25" s="35" t="inlineStr">
-        <is>
-          <t>王亚东</t>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>39</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>76%</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>76%</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>31%</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>31%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>200%</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>200%</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>56%</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>56%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>81%</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>81%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26%</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>26%</t>
-        </is>
-      </c>
-      <c r="Q25" s="35" t="inlineStr">
-        <is>
-          <t>1(sql)/2</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q25" s="33" t="inlineStr">
+        <is>
+          <t>2(sql)/0</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="T25" s="35" t="inlineStr">
-        <is>
-          <t>28(sql)/2</t>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S25" s="33" t="inlineStr">
+        <is>
+          <t>28(sql)/0</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="B26" s="36" t="inlineStr">
-        <is>
           <t>邓向阳</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>盛慧芳</t>
+        </is>
+      </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>盛慧芳</t>
-        </is>
-      </c>
-      <c r="D26" s="35" t="inlineStr">
-        <is>
-          <t>盛慧芳</t>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>102</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>37</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36%</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>36%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>185%</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>185%</t>
+          <t>55</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54%</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>54%</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>183%</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>183%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>59%</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>59%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -8450,15 +8319,10 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="T26" s="35" t="inlineStr">
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S26" s="33" t="inlineStr">
         <is>
           <t>64(sql)/0</t>
         </is>
@@ -8467,82 +8331,82 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="B27" s="36" t="inlineStr">
-        <is>
           <t>邓向阳</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>魏来</t>
+        </is>
+      </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>魏来</t>
-        </is>
-      </c>
-      <c r="D27" s="35" t="inlineStr">
-        <is>
-          <t>魏来</t>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>119</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>94%</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>94%</t>
+          <t>31</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>26%</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
+          <t>38%</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>388%</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>47%</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
           <t>26%</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>38%</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>388%</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>47%</t>
-        </is>
-      </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>26%</t>
+          <t>295%</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>295%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>61%</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>61%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
@@ -8552,15 +8416,10 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="T27" s="35" t="inlineStr">
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S27" s="33" t="inlineStr">
         <is>
           <t>46(sql)/0</t>
         </is>
@@ -8569,100 +8428,95 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="B28" s="36" t="inlineStr">
-        <is>
           <t>刘挺</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>黄淼</t>
+        </is>
+      </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>黄淼</t>
-        </is>
-      </c>
-      <c r="D28" s="35" t="inlineStr">
-        <is>
-          <t>黄淼</t>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>70</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6%</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>6%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>24%</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>24%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>54%</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>54%</t>
-        </is>
-      </c>
-      <c r="Q28" s="35" t="inlineStr">
-        <is>
-          <t>2(sql)/0</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="T28" s="35" t="inlineStr">
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S28" s="33" t="inlineStr">
         <is>
           <t>28(sql)/0</t>
         </is>
@@ -8671,82 +8525,82 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="B29" s="36" t="inlineStr">
-        <is>
           <t>廖荣平</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>黄成名</t>
+        </is>
+      </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>黄成名</t>
-        </is>
-      </c>
-      <c r="D29" s="35" t="inlineStr">
-        <is>
-          <t>黄成名</t>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>60</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>33%</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>33%</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>32</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>53%</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>53%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>86%</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>86%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>29%</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>29%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
@@ -8756,15 +8610,10 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="T29" s="35" t="inlineStr">
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S29" s="33" t="inlineStr">
         <is>
           <t>41(sql)/0</t>
         </is>
@@ -8773,82 +8622,82 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="B30" s="36" t="inlineStr">
-        <is>
           <t>饶顺荣</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>孙华江</t>
+        </is>
+      </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>孙华江</t>
-        </is>
-      </c>
-      <c r="D30" s="35" t="inlineStr">
-        <is>
-          <t>孙华江</t>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>96</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>89%</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>89%</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13%</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>13%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>133%</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>133%</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>52%</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>52%</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>104%</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>104%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
@@ -8858,15 +8707,10 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="T30" s="35" t="inlineStr">
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S30" s="33" t="inlineStr">
         <is>
           <t>53(sql)/0</t>
         </is>
@@ -8875,17 +8719,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>饶顺荣</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>饶顺荣</t>
+          <t>王丽</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>王丽</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -8895,17 +8739,17 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -8920,12 +8764,12 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -8940,17 +8784,17 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
@@ -8960,15 +8804,10 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -8977,82 +8816,82 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="B32" s="36" t="inlineStr">
-        <is>
           <t>饶顺荣</t>
         </is>
       </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>余丽红</t>
+        </is>
+      </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>余丽红</t>
-        </is>
-      </c>
-      <c r="D32" s="35" t="inlineStr">
-        <is>
-          <t>余丽红</t>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>55</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11%</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>11%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>55%</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>55%</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>27%</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>27%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>52%</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>52%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>44%</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>44%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -9062,15 +8901,10 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="T32" s="35" t="inlineStr">
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S32" s="33" t="inlineStr">
         <is>
           <t>55(sql)/0</t>
         </is>
@@ -9079,302 +8913,291 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="B33" s="36" t="inlineStr">
-        <is>
           <t>邓向阳</t>
         </is>
       </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>刘淑华</t>
+        </is>
+      </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>刘淑华</t>
-        </is>
-      </c>
-      <c r="D33" s="35" t="inlineStr">
-        <is>
-          <t>刘淑华</t>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>100</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>95%</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>95%</t>
+          <t>32</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>32%</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>32%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>267%</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>267%</t>
+          <t>77</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>77%</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>77%</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>193%</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>193%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>37%</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>37%</t>
-        </is>
-      </c>
-      <c r="Q33" s="35" t="inlineStr">
-        <is>
-          <t>3(sql)/8</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q33" s="33" t="inlineStr">
+        <is>
+          <t>8(sql)/2</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="T33" s="35" t="inlineStr">
-        <is>
-          <t>39(sql)/5</t>
+          <t>67%</t>
+        </is>
+      </c>
+      <c r="S33" s="33" t="inlineStr">
+        <is>
+          <t>39(sql)/1</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="B34" s="36" t="inlineStr">
-        <is>
           <t>刘挺</t>
         </is>
       </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>郑国英</t>
+        </is>
+      </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>郑国英</t>
-        </is>
-      </c>
-      <c r="D34" s="35" t="inlineStr">
-        <is>
-          <t>郑国英</t>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>88</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>88%</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>88%</t>
+          <t>37</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>42%</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>42%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>195%</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>195%</t>
+          <t>63</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>72%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>210%</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>210%</t>
+          <t>25</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>34%</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>34%</t>
-        </is>
-      </c>
-      <c r="Q34" s="35" t="inlineStr">
-        <is>
-          <t>4(sql)/15</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="Q34" s="33" t="inlineStr">
+        <is>
+          <t>15(sql)/0</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="T34" s="35" t="inlineStr">
-        <is>
-          <t>52(sql)/15</t>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S34" s="33" t="inlineStr">
+        <is>
+          <t>52(sql)/0</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="B35" s="36" t="inlineStr">
-        <is>
           <t>总计</t>
         </is>
       </c>
-      <c r="C35" s="35" t="n"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2837</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2837</t>
+          <t>2677</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2677</t>
+          <t>94%</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>94%</t>
+          <t>814</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>814</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>174%</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>174%</t>
+          <t>1438</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>1438</t>
+          <t>54%</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>54%</t>
+          <t>6%</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>6%</t>
+          <t>143%</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>143%</t>
+          <t>56</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>39%</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>39%</t>
-        </is>
-      </c>
-      <c r="Q35" s="35" t="inlineStr">
-        <is>
-          <t>21%(计算1)/75</t>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="Q35" s="33" t="inlineStr">
+        <is>
+          <t>75%(计算1)/4</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="T35" s="35" t="inlineStr">
-        <is>
-          <t>1339%(计算1)/57</t>
+          <t>19%</t>
+        </is>
+      </c>
+      <c r="S35" s="33" t="inlineStr">
+        <is>
+          <t>1339%(计算1)/2</t>
         </is>
       </c>
     </row>
@@ -9505,7 +9328,7 @@
           <t>黄新晖</t>
         </is>
       </c>
-      <c r="C2" s="35" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>108</t>
         </is>
@@ -9585,7 +9408,7 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="S2" s="35" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9602,7 +9425,7 @@
           <t>孙洪霄</t>
         </is>
       </c>
-      <c r="C3" s="35" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>82</t>
         </is>
@@ -9667,22 +9490,22 @@
           <t>40%</t>
         </is>
       </c>
-      <c r="P3" s="35" t="inlineStr">
-        <is>
-          <t>14</t>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="S3" s="35" t="inlineStr">
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9699,7 +9522,7 @@
           <t>黄代玉</t>
         </is>
       </c>
-      <c r="C4" s="35" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>117</t>
         </is>
@@ -9764,22 +9587,22 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="P4" s="35" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="S4" s="35" t="inlineStr">
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9796,7 +9619,7 @@
           <t>盛瑛</t>
         </is>
       </c>
-      <c r="C5" s="35" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>116</t>
         </is>
@@ -9876,7 +9699,7 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="S5" s="35" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9893,7 +9716,7 @@
           <t>周夙</t>
         </is>
       </c>
-      <c r="C6" s="35" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>109</t>
         </is>
@@ -9973,7 +9796,7 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="S6" s="35" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9990,7 +9813,7 @@
           <t>沈丹峰</t>
         </is>
       </c>
-      <c r="C7" s="35" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>101</t>
         </is>
@@ -10070,7 +9893,7 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="S7" s="35" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -10087,7 +9910,7 @@
           <t>万小利</t>
         </is>
       </c>
-      <c r="C8" s="35" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>103</t>
         </is>
@@ -10167,7 +9990,7 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="S8" s="35" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -10184,7 +10007,7 @@
           <t>彭琦</t>
         </is>
       </c>
-      <c r="C9" s="35" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>78</t>
         </is>
@@ -10249,24 +10072,24 @@
           <t>32%</t>
         </is>
       </c>
-      <c r="P9" s="35" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="S9" s="35" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -10281,7 +10104,7 @@
           <t>徐丽莉</t>
         </is>
       </c>
-      <c r="C10" s="35" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>95</t>
         </is>
@@ -10361,7 +10184,7 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="S10" s="35" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -10378,7 +10201,7 @@
           <t>孙春艳</t>
         </is>
       </c>
-      <c r="C11" s="35" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>60</t>
         </is>
@@ -10458,7 +10281,7 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="S11" s="35" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -10475,7 +10298,7 @@
           <t>汪承文</t>
         </is>
       </c>
-      <c r="C12" s="35" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>49</t>
         </is>
@@ -10555,7 +10378,7 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="S12" s="35" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -10572,7 +10395,7 @@
           <t>孙娟</t>
         </is>
       </c>
-      <c r="C13" s="35" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>61</t>
         </is>
@@ -10652,7 +10475,7 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="S13" s="35" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -10669,7 +10492,7 @@
           <t>张红芳</t>
         </is>
       </c>
-      <c r="C14" s="35" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>97</t>
         </is>
@@ -10749,7 +10572,7 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="S14" s="35" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -10766,7 +10589,7 @@
           <t>宋绍菊</t>
         </is>
       </c>
-      <c r="C15" s="35" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>131</t>
         </is>
@@ -10831,24 +10654,24 @@
           <t>44%</t>
         </is>
       </c>
-      <c r="P15" s="35" t="inlineStr">
-        <is>
-          <t>8</t>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="S15" s="35" t="inlineStr">
-        <is>
-          <t>8</t>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -10863,7 +10686,7 @@
           <t>李秀广</t>
         </is>
       </c>
-      <c r="C16" s="35" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>120</t>
         </is>
@@ -10928,24 +10751,24 @@
           <t>44%</t>
         </is>
       </c>
-      <c r="P16" s="35" t="inlineStr">
-        <is>
-          <t>7</t>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="S16" s="35" t="inlineStr">
-        <is>
-          <t>7</t>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -10960,7 +10783,7 @@
           <t>易荣</t>
         </is>
       </c>
-      <c r="C17" s="35" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>113</t>
         </is>
@@ -11025,24 +10848,24 @@
           <t>37%</t>
         </is>
       </c>
-      <c r="P17" s="35" t="inlineStr">
-        <is>
-          <t>7</t>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="S17" s="35" t="inlineStr">
-        <is>
-          <t>7</t>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -11057,7 +10880,7 @@
           <t>王杰</t>
         </is>
       </c>
-      <c r="C18" s="35" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>98</t>
         </is>
@@ -11137,7 +10960,7 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="S18" s="35" t="inlineStr">
+      <c r="S18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -11154,7 +10977,7 @@
           <t>夏友明</t>
         </is>
       </c>
-      <c r="C19" s="35" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>70</t>
         </is>
@@ -11219,24 +11042,24 @@
           <t>39%</t>
         </is>
       </c>
-      <c r="P19" s="35" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="S19" s="35" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -11251,7 +11074,7 @@
           <t>吴永辉</t>
         </is>
       </c>
-      <c r="C20" s="35" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>109</t>
         </is>
@@ -11331,7 +11154,7 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="S20" s="35" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -11348,7 +11171,7 @@
           <t>王浩文</t>
         </is>
       </c>
-      <c r="C21" s="35" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>130</t>
         </is>
@@ -11413,14 +11236,14 @@
           <t>33%</t>
         </is>
       </c>
-      <c r="P21" s="35" t="inlineStr">
-        <is>
-          <t>10</t>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -11428,9 +11251,9 @@
           <t>100%</t>
         </is>
       </c>
-      <c r="S21" s="35" t="inlineStr">
-        <is>
-          <t>10</t>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -11542,7 +11365,7 @@
           <t>冯玲</t>
         </is>
       </c>
-      <c r="C23" s="35" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>89</t>
         </is>
@@ -11622,7 +11445,7 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="S23" s="35" t="inlineStr">
+      <c r="S23" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -11639,7 +11462,7 @@
           <t>王艳玲</t>
         </is>
       </c>
-      <c r="C24" s="35" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>24</t>
         </is>
@@ -11704,9 +11527,9 @@
           <t>8%</t>
         </is>
       </c>
-      <c r="P24" s="35" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -11719,7 +11542,7 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="S24" s="35" t="inlineStr">
+      <c r="S24" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -11736,7 +11559,7 @@
           <t>王亚东</t>
         </is>
       </c>
-      <c r="C25" s="35" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>51</t>
         </is>
@@ -11801,24 +11624,24 @@
           <t>26%</t>
         </is>
       </c>
-      <c r="P25" s="35" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="S25" s="35" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -11833,7 +11656,7 @@
           <t>盛慧芳</t>
         </is>
       </c>
-      <c r="C26" s="35" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>102</t>
         </is>
@@ -11913,7 +11736,7 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="S26" s="35" t="inlineStr">
+      <c r="S26" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -11930,7 +11753,7 @@
           <t>魏来</t>
         </is>
       </c>
-      <c r="C27" s="35" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>126</t>
         </is>
@@ -12010,7 +11833,7 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="S27" s="35" t="inlineStr">
+      <c r="S27" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -12027,7 +11850,7 @@
           <t>黄淼</t>
         </is>
       </c>
-      <c r="C28" s="35" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>70</t>
         </is>
@@ -12092,9 +11915,9 @@
           <t>54%</t>
         </is>
       </c>
-      <c r="P28" s="35" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
@@ -12107,7 +11930,7 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="S28" s="35" t="inlineStr">
+      <c r="S28" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -12124,7 +11947,7 @@
           <t>黄成名</t>
         </is>
       </c>
-      <c r="C29" s="35" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>60</t>
         </is>
@@ -12204,7 +12027,7 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="S29" s="35" t="inlineStr">
+      <c r="S29" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -12221,7 +12044,7 @@
           <t>孙华江</t>
         </is>
       </c>
-      <c r="C30" s="35" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>108</t>
         </is>
@@ -12301,7 +12124,7 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="S30" s="35" t="inlineStr">
+      <c r="S30" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -12415,7 +12238,7 @@
           <t>余丽红</t>
         </is>
       </c>
-      <c r="C32" s="35" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>55</t>
         </is>
@@ -12495,7 +12318,7 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="S32" s="35" t="inlineStr">
+      <c r="S32" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -12512,7 +12335,7 @@
           <t>刘淑华</t>
         </is>
       </c>
-      <c r="C33" s="35" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>105</t>
         </is>
@@ -12577,24 +12400,24 @@
           <t>37%</t>
         </is>
       </c>
-      <c r="P33" s="35" t="inlineStr">
-        <is>
-          <t>8</t>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="S33" s="35" t="inlineStr">
-        <is>
-          <t>5</t>
+          <t>67%</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -12609,7 +12432,7 @@
           <t>郑国英</t>
         </is>
       </c>
-      <c r="C34" s="35" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>100</t>
         </is>
@@ -12674,24 +12497,24 @@
           <t>34%</t>
         </is>
       </c>
-      <c r="P34" s="35" t="inlineStr">
-        <is>
-          <t>15</t>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="S34" s="35" t="inlineStr">
-        <is>
-          <t>15</t>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -12701,7 +12524,11 @@
           <t>总计</t>
         </is>
       </c>
-      <c r="B35" s="35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="C35" t="inlineStr">
         <is>
           <t>2837</t>
@@ -12767,24 +12594,3613 @@
           <t>39%</t>
         </is>
       </c>
-      <c r="P35" s="35" t="inlineStr">
-        <is>
-          <t>75</t>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>21</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
+          <t>19%</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>结果</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>区域</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>代表</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>计划拜访人次</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>实际拜访人次</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>实际拜访率</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>双A客户实际拜访人次</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>双A客户实际拜访率</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>双A客户实际拜访覆盖率</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>双A客户拜访频率</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>高潜客户实际拜访人次</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>高潜客户实际拜访率</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>高潜客户实际拜访覆盖率</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>高潜客户拜访频率</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>新增客户数（位）</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>实际拜访客户覆盖率</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>计划会后跟进人数</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>实际会后跟进人数</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>会后跟进率</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>达成会后跟进人数</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>廖荣平</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>黄新晖</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>89%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>17%</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>64%</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>39%</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>29%</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T2" s="34" t="inlineStr">
+        <is>
+          <t>20(sql)/0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>钮学彬</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>孙洪霄</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="S35" s="35" t="inlineStr">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>133%</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>35%</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>104%</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R3" s="34" t="inlineStr">
+        <is>
+          <t>14(sql)/1/1</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="T3" s="34" t="inlineStr">
+        <is>
+          <t>1(sql)/0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>钮学彬</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>黄代玉</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>32%</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>142%</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>137%</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>54%</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="R4" s="34" t="inlineStr">
+        <is>
+          <t>1(sql)/0/0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T4" s="34" t="inlineStr">
+        <is>
+          <t>78(sql)/0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>陈东升</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>盛瑛</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>89%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22%</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>14%</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>329%</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>28%</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>322%</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T5" s="34" t="inlineStr">
+        <is>
+          <t>33(sql)/0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>邓向阳</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>周夙</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>34%</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>250%</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>22%</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>170%</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>49%</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T6" s="34" t="inlineStr">
+        <is>
+          <t>49(sql)/0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>邓向阳</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>沈丹峰</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>98%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>31%</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>194%</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>62%</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>14%</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>210%</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>53%</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T7" s="34" t="inlineStr">
+        <is>
+          <t>56(sql)/0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>廖荣平</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万小利</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>171%</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>57%</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>7%</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>190%</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>56%</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T8" s="34" t="inlineStr">
+        <is>
+          <t>61(sql)/0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>薛伟</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>彭琦</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>220%</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>53%</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>216%</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>32%</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R9" s="34" t="inlineStr">
+        <is>
+          <t>2(sql)/0/0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T9" s="34" t="inlineStr">
+        <is>
+          <t>34(sql)/0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>刘挺</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>徐丽莉</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>94%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>57%</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>213%</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>57</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>64%</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>163%</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>34%</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T10" s="34" t="inlineStr">
+        <is>
+          <t>5(sql)/0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>刘挺</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>孙春艳</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>109%</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>55%</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>127%</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T11" s="34" t="inlineStr">
+        <is>
+          <t>44(sql)/0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>薛伟</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汪承文</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>33%</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>24%</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>109%</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>48%</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T12" s="34" t="inlineStr">
+        <is>
+          <t>26(sql)/0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>饶顺荣</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>孙娟</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>74%</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>136%</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>76%</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T13" s="34" t="inlineStr">
+        <is>
+          <t>27(sql)/0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>饶顺荣</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>张红芳</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>240%</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>187%</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>67%</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T14" s="34" t="inlineStr">
+        <is>
+          <t>61(sql)/0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>薛伟</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>宋绍菊</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>283%</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>69%</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>228%</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R15" s="34" t="inlineStr">
+        <is>
+          <t>8(sql)/0/0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T15" s="34" t="inlineStr">
+        <is>
+          <t>70(sql)/0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>薛伟</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>李秀广</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>43%</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>170%</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>68%</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>169%</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R16" s="34" t="inlineStr">
+        <is>
+          <t>7(sql)/0/0</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T16" s="34" t="inlineStr">
+        <is>
+          <t>81(sql)/0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>薛伟</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易荣</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>94%</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>33%</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>159%</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>82%</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>158%</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>37%</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R17" s="34" t="inlineStr">
+        <is>
+          <t>7(sql)/0/0</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T17" s="34" t="inlineStr">
+        <is>
+          <t>70(sql)/0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>张慧涛</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>王杰</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>19%</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>112%</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>103%</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>49%</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T18" s="34" t="inlineStr">
+        <is>
+          <t>71(sql)/0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>张慧涛</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>夏友明</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>84%</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>19%</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>53%</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>103%</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>39%</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R19" s="34" t="inlineStr">
+        <is>
+          <t>1(sql)/0/0</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T19" s="34" t="inlineStr">
+        <is>
+          <t>15(sql)/0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>邓向阳</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>吴永辉</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>89%</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>21%</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>167%</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>29%</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>18%</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>165%</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>63%</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T20" s="34" t="inlineStr">
+        <is>
+          <t>39(sql)/0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>薛伟</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>王浩文</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>93%</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>273%</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>79%</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>13%</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>253%</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>33%</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R21" s="34" t="inlineStr">
+        <is>
+          <t>10(sql)/1/1</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="T21" s="34" t="inlineStr">
+        <is>
+          <t>56(sql)/1/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>廖荣平</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>马俊</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>廖荣平</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>冯玲</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>52%</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>511%</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>87%</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>58%</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>405%</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>35%</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T23" s="34" t="inlineStr">
+        <is>
+          <t>24(sql)/0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>钮学彬</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>王艳玲</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>17%</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>18%</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>58%</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>17%</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T24" s="34" t="inlineStr">
+        <is>
+          <t>12(sql)/0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>钮学彬</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>王亚东</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>76%</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>31%</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>200%</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>56%</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>81%</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>26%</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R25" s="34" t="inlineStr">
+        <is>
+          <t>2(sql)/0/0</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T25" s="34" t="inlineStr">
+        <is>
+          <t>28(sql)/0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>邓向阳</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>盛慧芳</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>36%</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>185%</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>54%</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>183%</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>59%</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T26" s="34" t="inlineStr">
+        <is>
+          <t>64(sql)/0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>邓向阳</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>魏来</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>94%</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>26%</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>38%</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>388%</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>47%</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>26%</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>295%</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>61%</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T27" s="34" t="inlineStr">
+        <is>
+          <t>46(sql)/0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>刘挺</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>黄淼</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>6%</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>67%</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>24%</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>68%</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>54%</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T28" s="34" t="inlineStr">
+        <is>
+          <t>28(sql)/0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>廖荣平</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>黄成名</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>33%</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>53%</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>86%</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>29%</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T29" s="34" t="inlineStr">
+        <is>
+          <t>41(sql)/0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>饶顺荣</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>孙华江</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>89%</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>13%</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>133%</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>52%</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>104%</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T30" s="34" t="inlineStr">
+        <is>
+          <t>53(sql)/0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>饶顺荣</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>王丽</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>饶顺荣</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>余丽红</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>11%</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>55%</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>27%</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>52%</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T32" s="34" t="inlineStr">
+        <is>
+          <t>55(sql)/0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>邓向阳</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>刘淑华</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>95%</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>32%</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>267%</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>77%</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>193%</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>37%</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="R33" s="34" t="inlineStr">
+        <is>
+          <t>8(sql)/2/2</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>67%</t>
+        </is>
+      </c>
+      <c r="T33" s="34" t="inlineStr">
+        <is>
+          <t>39(sql)/1/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>刘挺</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>郑国英</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>88%</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>195%</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>72%</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>210%</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>34%</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R34" s="34" t="inlineStr">
+        <is>
+          <t>15(sql)/0/0</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="T34" s="34" t="inlineStr">
+        <is>
+          <t>52(sql)/0/0</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>总计</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2837</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2677</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>94%</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>814</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>174%</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>1438</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>54%</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>6%</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>143%</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>39%</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="R35" s="34" t="inlineStr">
+        <is>
+          <t>75%(计算1)/4/4</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>19%</t>
+        </is>
+      </c>
+      <c r="T35" s="34" t="inlineStr">
+        <is>
+          <t>1339%(计算1)/2/2</t>
         </is>
       </c>
     </row>
